--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5" iterateDelta="0.01"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="101">
   <si>
     <t>Activity</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Lubricating oil, synthetic</t>
   </si>
   <si>
-    <t>Adapted from van der Giesen et al. 2014. LHV: 40.2 MJ/kg, Formula: C13H18, Density: 7551 kg/m3. Economic allocation between 3 other co-products. Allocation key for this co-product: 72%.</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -279,21 +276,12 @@
     <t>treatment of wastewater, average, capacity 1E9l/year</t>
   </si>
   <si>
-    <t>lubricating oil, synthetic</t>
-  </si>
-  <si>
     <t>kerosene, synthetic</t>
   </si>
   <si>
     <t>synfuel from wood gasification</t>
   </si>
   <si>
-    <t>Carbon monoxide, from RWGS, hydrogen from wood gasification</t>
-  </si>
-  <si>
-    <t>Syngas, RWGS, Production, hydrogen from wood gasification</t>
-  </si>
-  <si>
     <t>hydrogen production, gaseous, 25 bar, from gasification of woody biomass in entrained flow gasifier, at gasification plant</t>
   </si>
   <si>
@@ -309,9 +297,6 @@
     <t>Lubricating oil production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation</t>
   </si>
   <si>
-    <t>lubricating oil production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, economic allocation</t>
-  </si>
-  <si>
     <t>Kerosene production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, economic allocation</t>
   </si>
   <si>
@@ -321,16 +306,22 @@
     <t>Naphtha production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, economic allocation</t>
   </si>
   <si>
-    <t>kerosene production, synthetic, from woody biomass-based hydrogen, economic allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>diesel production, synthetic, from woody biomass-based hydrogen, economic allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>kerosene production, synthetic, from woody biomass-based hydrogen, energy allocation, at fuelling station</t>
-  </si>
-  <si>
-    <t>diesel production, synthetic, from woody biomass-based hydrogen, energy allocation, at fuelling station</t>
+    <t>Carbon monoxide, from RWGS, for Fischer Tropsch process, hydrogen from wood gasification</t>
+  </si>
+  <si>
+    <t>Syngas, RWGS, Production, for Fischer Tropsch process, hydrogen from wood gasification</t>
+  </si>
+  <si>
+    <t>kerosene production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, economic allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, economic allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>kerosene production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, energy allocation, at fuelling station</t>
   </si>
 </sst>
 </file>
@@ -743,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K593"/>
+  <dimension ref="A1:K575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,477 +747,543 @@
     <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="D10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>12</v>
+      <c r="K10" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10">
+        <v>100</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1.00057</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="10">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1.8499999999999999E-5</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="15">
+        <v>5.8399999999999999E-4</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1.04E-10</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="9">
-        <v>7.16</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="9">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>23</v>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="11">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="B17" s="15">
+        <v>-6.2700000000000001E-6</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="11">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>30</v>
+      <c r="A18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="15">
+        <v>-5.0000000000000002E-5</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="9">
-        <v>7.06</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>23</v>
+      <c r="A19" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="15">
+        <v>6.8900000000000005E-4</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="10">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="10">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="15">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="16"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>87</v>
+      <c r="B24" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>10</v>
+      <c r="A27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10">
-        <v>100</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="10">
-        <v>1.00057</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10" t="s">
-        <v>45</v>
+      <c r="B29" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="10">
-        <v>6.7000000000000002E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="15">
-        <v>1.8499999999999999E-5</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>61</v>
+        <v>98</v>
+      </c>
+      <c r="B32" s="10">
+        <v>1</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10" t="s">
-        <v>67</v>
+      <c r="I32" s="10">
+        <v>100</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" s="15">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>60</v>
+        <v>93</v>
+      </c>
+      <c r="B33" s="10">
+        <v>1.00057</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10" t="s">
@@ -1237,21 +1294,21 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="15">
-        <v>1.04E-10</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="A34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="10">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10" t="s">
@@ -1262,15 +1319,15 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="15">
-        <v>-6.2700000000000001E-6</v>
+        <v>65</v>
+      </c>
+      <c r="B35" s="10">
+        <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>60</v>
@@ -1287,21 +1344,21 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B36" s="15">
-        <v>-5.0000000000000002E-5</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>25</v>
+        <v>59</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
@@ -1312,21 +1369,21 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B37" s="15">
-        <v>6.8900000000000005E-4</v>
+        <v>2.5999999999999998E-10</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10" t="s">
@@ -1337,21 +1394,21 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="10">
-        <v>3.3599999999999998E-2</v>
+        <v>71</v>
+      </c>
+      <c r="B38" s="15">
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10" t="s">
@@ -1362,21 +1419,21 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="10">
-        <v>3.2599999999999997E-2</v>
+        <v>73</v>
+      </c>
+      <c r="B39" s="15">
+        <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>79</v>
+        <v>60</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10" t="s">
@@ -1387,21 +1444,21 @@
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B40" s="15">
-        <v>-6.8899999999999999E-7</v>
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
@@ -1412,218 +1469,218 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="16"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="10">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="10">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="15">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="16"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>84</v>
+      <c r="B45" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B47" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>10</v>
+      <c r="A48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K49" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="10">
-        <v>1</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10">
-        <v>100</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="10">
-        <v>1.00057</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10" t="s">
-        <v>36</v>
+      <c r="B50" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="10">
-        <v>6.7000000000000002E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B53" s="10">
-        <v>-1.6799999999999999E-4</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10" t="s">
-        <v>67</v>
+      <c r="I53" s="10">
+        <v>100</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="15">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="B54" s="10">
+        <v>1.00057</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10" t="s">
@@ -1634,21 +1691,21 @@
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="15">
-        <v>2.5999999999999998E-10</v>
-      </c>
-      <c r="C55" s="10" t="s">
+      <c r="A55" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="10">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10" t="s">
@@ -1659,15 +1716,15 @@
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
       <c r="K55" s="10" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B56" s="15">
-        <v>-6.2700000000000001E-6</v>
+        <v>1.8499999999999999E-5</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>60</v>
@@ -1684,21 +1741,21 @@
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B57" s="15">
-        <v>-7.4999999999999993E-5</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>25</v>
+        <v>59</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10" t="s">
@@ -1709,21 +1766,21 @@
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B58" s="15">
-        <v>6.8900000000000005E-4</v>
+        <v>1.04E-10</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10" t="s">
@@ -1734,21 +1791,21 @@
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="10">
-        <v>3.3599999999999998E-2</v>
+        <v>71</v>
+      </c>
+      <c r="B59" s="15">
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10" t="s">
@@ -1759,21 +1816,21 @@
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="10">
-        <v>3.2599999999999997E-2</v>
+        <v>73</v>
+      </c>
+      <c r="B60" s="15">
+        <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>79</v>
+        <v>60</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10" t="s">
@@ -1784,21 +1841,21 @@
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B61" s="15">
-        <v>-6.8899999999999999E-7</v>
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10" t="s">
@@ -1809,218 +1866,218 @@
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
-      <c r="B62" s="16"/>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="10">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="10">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="15">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="12"/>
+      <c r="B65" s="16"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>87</v>
+      <c r="B66" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B68" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
-        <v>10</v>
+      <c r="A69" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K70" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71" s="10">
-        <v>1</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10">
-        <v>100</v>
-      </c>
-      <c r="J71" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K71" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" s="10">
-        <v>1.00057</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10" t="s">
-        <v>45</v>
+      <c r="B71" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="10">
-        <v>6.7000000000000002E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="15">
-        <v>1.8499999999999999E-5</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>61</v>
+        <v>100</v>
+      </c>
+      <c r="B74" s="10">
+        <v>1</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="10"/>
       <c r="F74" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10" t="s">
-        <v>67</v>
+      <c r="I74" s="10">
+        <v>100</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="15">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>60</v>
+        <v>88</v>
+      </c>
+      <c r="B75" s="10">
+        <v>1.00057</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10" t="s">
@@ -2031,21 +2088,21 @@
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="10" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="15">
-        <v>1.04E-10</v>
-      </c>
-      <c r="C76" s="10" t="s">
+      <c r="A76" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76" s="10">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E76" s="10"/>
       <c r="F76" s="10" t="s">
@@ -2056,15 +2113,15 @@
       <c r="I76" s="10"/>
       <c r="J76" s="10"/>
       <c r="K76" s="10" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="15">
-        <v>-6.2700000000000001E-6</v>
+        <v>65</v>
+      </c>
+      <c r="B77" s="10">
+        <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>60</v>
@@ -2081,21 +2138,21 @@
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B78" s="15">
-        <v>-5.0000000000000002E-5</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>25</v>
+        <v>59</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10" t="s">
@@ -2106,21 +2163,21 @@
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B79" s="15">
-        <v>6.8900000000000005E-4</v>
+        <v>2.5999999999999998E-10</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10" t="s">
@@ -2131,21 +2188,21 @@
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="10">
-        <v>3.3599999999999998E-2</v>
+        <v>71</v>
+      </c>
+      <c r="B80" s="15">
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="10" t="s">
@@ -2156,21 +2213,21 @@
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="10">
-        <v>3.2599999999999997E-2</v>
+        <v>73</v>
+      </c>
+      <c r="B81" s="15">
+        <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>79</v>
+        <v>60</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10" t="s">
@@ -2181,21 +2238,21 @@
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B82" s="15">
-        <v>-6.8899999999999999E-7</v>
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10" t="s">
@@ -2206,420 +2263,352 @@
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="12"/>
-      <c r="B83" s="16"/>
-      <c r="G83" s="12"/>
-    </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" s="10">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B84" s="10">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="15">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="12"/>
+      <c r="B86" s="16"/>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>84</v>
+      <c r="B87" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B88" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
-        <v>10</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J91" s="9" t="s">
+      <c r="B92" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K91" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B92" s="10">
-        <v>1</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10">
-        <v>100</v>
-      </c>
-      <c r="J92" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K92" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="10">
-        <v>1.00057</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10" t="s">
-        <v>36</v>
+      <c r="B93" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97" s="9">
+        <v>1</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B99" s="9">
+        <v>3.6416023188405786</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B94" s="10">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="10" t="s">
+      <c r="B102" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10" t="s">
+      <c r="F102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B95" s="10">
-        <v>-1.6799999999999999E-4</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B96" s="15">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B97" s="15">
-        <v>2.5999999999999998E-10</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B98" s="15">
-        <v>-6.2700000000000001E-6</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B99" s="15">
-        <v>-7.4999999999999993E-5</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B100" s="15">
-        <v>6.8900000000000005E-4</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B101" s="10">
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B102" s="10">
-        <v>3.2599999999999997E-2</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B103" s="15">
-        <v>-6.8899999999999999E-7</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="12"/>
-      <c r="B104" s="16"/>
-      <c r="G104" s="12"/>
-    </row>
-    <row r="105" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H102" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" s="9">
+        <v>2</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>1</v>
       </c>
@@ -2627,15 +2616,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>3</v>
       </c>
@@ -2643,7 +2632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>5</v>
       </c>
@@ -2651,7 +2640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>7</v>
       </c>
@@ -2659,20 +2648,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2711,7 +2700,7 @@
     </row>
     <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B115" s="9">
         <v>1</v>
@@ -2726,21 +2715,18 @@
         <v>15</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B116" s="9">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>8</v>
@@ -2755,7 +2741,7 @@
         <v>17</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2800,7 +2786,7 @@
     </row>
     <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B119" s="11">
         <v>6.7000000000000001E-12</v>
@@ -2815,10 +2801,10 @@
         <v>18</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2846,16 +2832,16 @@
     </row>
     <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" s="9">
+        <v>2.48</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B121" s="9">
-        <v>2</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>22</v>
@@ -2870,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2886,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2923,10 +2909,10 @@
     </row>
     <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B130" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2965,7 +2951,7 @@
     </row>
     <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B133" s="9">
         <v>1</v>
@@ -2980,18 +2966,21 @@
         <v>15</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I133" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B134" s="9">
-        <v>0.65</v>
+        <v>0.98</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>8</v>
@@ -3006,7 +2995,7 @@
         <v>17</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3051,7 +3040,7 @@
     </row>
     <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B137" s="11">
         <v>6.7000000000000001E-12</v>
@@ -3066,10 +3055,10 @@
         <v>18</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3097,16 +3086,16 @@
     </row>
     <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139" s="9">
+        <v>1.82</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B139" s="9">
-        <v>2.48</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>22</v>
@@ -3121,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3137,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3174,10 +3163,10 @@
     </row>
     <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3216,7 +3205,7 @@
     </row>
     <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B151" s="9">
         <v>1</v>
@@ -3231,10 +3220,10 @@
         <v>15</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I151" s="9" t="s">
         <v>16</v>
@@ -3242,10 +3231,10 @@
     </row>
     <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B152" s="9">
-        <v>0.98</v>
+        <v>2.1</v>
       </c>
       <c r="C152" s="9" t="s">
         <v>8</v>
@@ -3260,7 +3249,7 @@
         <v>17</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3305,7 +3294,7 @@
     </row>
     <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B155" s="11">
         <v>6.7000000000000001E-12</v>
@@ -3320,10 +3309,10 @@
         <v>18</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3351,16 +3340,16 @@
     </row>
     <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B157" s="9">
-        <v>1.82</v>
+        <v>0.13</v>
       </c>
       <c r="D157" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F157" s="9" t="s">
         <v>22</v>
@@ -3369,13 +3358,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="11"/>
+    </row>
     <row r="159" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3391,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3428,10 +3419,10 @@
     </row>
     <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B166" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3470,7 +3461,7 @@
     </row>
     <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B169" s="9">
         <v>1</v>
@@ -3485,10 +3476,10 @@
         <v>15</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I169" s="9" t="s">
         <v>16</v>
@@ -3496,10 +3487,10 @@
     </row>
     <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B170" s="9">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>8</v>
@@ -3514,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3559,7 +3550,7 @@
     </row>
     <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B173" s="11">
         <v>6.7000000000000001E-12</v>
@@ -3574,10 +3565,10 @@
         <v>18</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3605,10 +3596,10 @@
     </row>
     <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B175" s="9">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="D175" s="9" t="s">
         <v>6</v>
@@ -3623,15 +3614,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="11"/>
-    </row>
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="177" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3647,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3684,10 +3673,10 @@
     </row>
     <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B184" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="185" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3726,7 +3715,7 @@
     </row>
     <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B187" s="9">
         <v>1</v>
@@ -3741,21 +3730,18 @@
         <v>15</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I187" s="9" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B188" s="9">
-        <v>2.35</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="C188" s="9" t="s">
         <v>8</v>
@@ -3770,7 +3756,7 @@
         <v>17</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="189" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3815,7 +3801,7 @@
     </row>
     <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B191" s="11">
         <v>6.7000000000000001E-12</v>
@@ -3830,10 +3816,10 @@
         <v>18</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3861,16 +3847,16 @@
     </row>
     <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B193" s="9">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F193" s="9" t="s">
         <v>22</v>
@@ -3885,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3901,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3938,10 +3924,10 @@
     </row>
     <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B202" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="203" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3980,7 +3966,7 @@
     </row>
     <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="10" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B205" s="9">
         <v>1</v>
@@ -3995,18 +3981,21 @@
         <v>15</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="I205" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B206" s="9">
-        <v>2.3199999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>8</v>
@@ -4021,7 +4010,7 @@
         <v>17</v>
       </c>
       <c r="H206" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4064,9 +4053,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B209" s="11">
         <v>6.7000000000000001E-12</v>
@@ -4081,13 +4070,13 @@
         <v>18</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H209" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>27</v>
       </c>
@@ -4110,18 +4099,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B211" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="B211" s="9">
-        <v>0.19</v>
-      </c>
-      <c r="D211" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E211" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="F211" s="9" t="s">
         <v>22</v>
@@ -4130,16 +4119,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>1</v>
       </c>
@@ -4147,15 +4136,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
         <v>3</v>
       </c>
@@ -4163,7 +4152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
         <v>5</v>
       </c>
@@ -4171,7 +4160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>7</v>
       </c>
@@ -4179,28 +4168,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B220" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B220" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>11</v>
       </c>
@@ -4222,19 +4211,13 @@
       <c r="G222" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H222" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I222" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="10" t="s">
-        <v>92</v>
+    </row>
+    <row r="223" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="B223" s="9">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="C223" s="9" t="s">
         <v>8</v>
@@ -4243,24 +4226,18 @@
         <v>6</v>
       </c>
       <c r="F223" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G223" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H223" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I223" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="9" t="s">
-        <v>90</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A224" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="B224" s="9">
-        <v>2.2599999999999998</v>
+        <v>0.125</v>
       </c>
       <c r="C224" s="9" t="s">
         <v>8</v>
@@ -4271,39 +4248,37 @@
       <c r="F224" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G224" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H224" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G224" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B225" s="9">
-        <v>3.6416023188405786</v>
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E225" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F225" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H225" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G225" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B226" s="9">
-        <v>1.0754991304347825E-3</v>
+        <f>60*0.001/106.6</f>
+        <v>5.6285178236397749E-4</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>25</v>
@@ -4314,823 +4289,583 @@
       <c r="F226" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H226" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B227" s="11">
-        <v>6.7000000000000001E-12</v>
+    </row>
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B227" s="9">
+        <v>1</v>
       </c>
       <c r="C227" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G227" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B228" s="13">
+        <v>5.7100000000000004E-6</v>
+      </c>
+      <c r="C228" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D227" s="9" t="s">
+      <c r="D228" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F227" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H227" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B228" s="11">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D228" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="F228" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G228" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H228" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B229" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E229" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F229" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H229" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="231" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A231" s="7" t="s">
+    </row>
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="13"/>
+    </row>
+    <row r="230" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A230" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B231" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B231" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A237" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E238" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F238" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G238" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B239" s="9">
         <v>1</v>
       </c>
-      <c r="B232" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="9" t="s">
+      <c r="C239" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F239" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G239" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A240" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B240" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F240" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G240" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A241" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B241" s="9">
+        <v>1.57</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F241" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G241" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B242" s="11">
+        <v>1.9300000000000002E-9</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B235" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B237" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A239" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B240" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E240" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F240" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G240" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B241" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="C241" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F241" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A242" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B242" s="9">
-        <v>0.125</v>
-      </c>
-      <c r="C242" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="F242" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G242" s="12" t="s">
-        <v>56</v>
+      <c r="G242" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B243" s="9">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C243" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F243" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B244" s="9">
-        <f>60*0.001/106.6</f>
-        <v>5.6285178236397749E-4</v>
-      </c>
-      <c r="D244" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E244" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F244" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B245" s="9">
-        <v>1</v>
-      </c>
-      <c r="C245" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F245" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G245" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B246" s="13">
-        <v>5.7100000000000004E-6</v>
-      </c>
-      <c r="C246" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D246" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F246" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B247" s="13"/>
-    </row>
-    <row r="248" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A248" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B248" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B249" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B250" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B251" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B252" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B253" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B254" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A255" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B256" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C256" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D256" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E256" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F256" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G256" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B257" s="9">
-        <v>1</v>
-      </c>
-      <c r="C257" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D257" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F257" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G257" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A258" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B258" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C258" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D258" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F258" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G258" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A259" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B259" s="9">
-        <v>1.57</v>
-      </c>
-      <c r="C259" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D259" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F259" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G259" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B260" s="11">
-        <v>1.9300000000000002E-9</v>
-      </c>
-      <c r="C260" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D260" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F260" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G260" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="10"/>
-      <c r="B261" s="11"/>
-      <c r="G261" s="10"/>
-    </row>
-    <row r="263" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A263" s="1"/>
+      <c r="A243" s="10"/>
+      <c r="B243" s="11"/>
+      <c r="G243" s="10"/>
+    </row>
+    <row r="245" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A245" s="1"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B251" s="3"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B252" s="3"/>
+    </row>
+    <row r="254" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A254" s="1"/>
+      <c r="B254" s="2"/>
+    </row>
+    <row r="261" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A261" s="1"/>
+    </row>
+    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A264" s="4"/>
+      <c r="G264" s="4"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B268" s="5"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B269" s="3"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B270" s="3"/>
-    </row>
-    <row r="272" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A272" s="1"/>
-      <c r="B272" s="2"/>
-    </row>
-    <row r="279" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A279" s="1"/>
-    </row>
-    <row r="282" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A282" s="4"/>
-      <c r="G282" s="4"/>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B286" s="5"/>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B287" s="5"/>
-    </row>
-    <row r="288" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A288" s="1"/>
-      <c r="B288" s="2"/>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B290" s="6"/>
-    </row>
-    <row r="295" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A295" s="1"/>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A297" s="6"/>
-      <c r="G297" s="6"/>
-    </row>
-    <row r="298" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A298" s="4"/>
-      <c r="G298" s="4"/>
-    </row>
-    <row r="299" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A299" s="4"/>
-      <c r="G299" s="4"/>
-    </row>
-    <row r="302" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A302" s="1"/>
-      <c r="B302" s="2"/>
-    </row>
-    <row r="309" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A309" s="1"/>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B315" s="3"/>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B316" s="3"/>
-    </row>
-    <row r="318" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A318" s="1"/>
-      <c r="B318" s="2"/>
-    </row>
-    <row r="325" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A325" s="1"/>
-    </row>
-    <row r="328" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A328" s="4"/>
-      <c r="G328" s="4"/>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B332" s="5"/>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B333" s="5"/>
-    </row>
-    <row r="334" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A334" s="1"/>
-      <c r="B334" s="2"/>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B336" s="6"/>
-    </row>
-    <row r="341" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A341" s="1"/>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A343" s="6"/>
-      <c r="G343" s="6"/>
-    </row>
-    <row r="344" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A344" s="4"/>
-      <c r="G344" s="4"/>
-    </row>
-    <row r="345" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A345" s="4"/>
-      <c r="G345" s="4"/>
-    </row>
-    <row r="348" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A348" s="1"/>
-      <c r="B348" s="2"/>
-    </row>
-    <row r="355" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A355" s="1"/>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B361" s="3"/>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B362" s="3"/>
-    </row>
-    <row r="364" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A364" s="1"/>
-      <c r="B364" s="2"/>
-    </row>
-    <row r="371" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A371" s="1"/>
-    </row>
-    <row r="374" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A374" s="4"/>
-      <c r="G374" s="4"/>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B378" s="5"/>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B379" s="5"/>
-    </row>
-    <row r="380" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A380" s="1"/>
-      <c r="B380" s="2"/>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B382" s="6"/>
-    </row>
-    <row r="387" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A387" s="1"/>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A389" s="6"/>
-      <c r="G389" s="6"/>
-    </row>
-    <row r="390" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A390" s="4"/>
-      <c r="G390" s="4"/>
-    </row>
-    <row r="391" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A391" s="4"/>
-      <c r="G391" s="4"/>
-    </row>
-    <row r="394" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A394" s="1"/>
-      <c r="B394" s="2"/>
-    </row>
-    <row r="401" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A401" s="1"/>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B407" s="3"/>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B408" s="3"/>
-    </row>
-    <row r="410" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A410" s="1"/>
-      <c r="B410" s="2"/>
-    </row>
-    <row r="417" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A417" s="1"/>
-    </row>
-    <row r="420" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A420" s="4"/>
-      <c r="G420" s="4"/>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B424" s="5"/>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B425" s="5"/>
-    </row>
-    <row r="426" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A426" s="1"/>
-      <c r="B426" s="2"/>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B428" s="6"/>
-    </row>
-    <row r="433" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A433" s="1"/>
+      <c r="B269" s="5"/>
+    </row>
+    <row r="270" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A270" s="1"/>
+      <c r="B270" s="2"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B272" s="6"/>
+    </row>
+    <row r="277" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A277" s="1"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" s="6"/>
+      <c r="G279" s="6"/>
+    </row>
+    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A280" s="4"/>
+      <c r="G280" s="4"/>
+    </row>
+    <row r="281" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A281" s="4"/>
+      <c r="G281" s="4"/>
+    </row>
+    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A284" s="1"/>
+      <c r="B284" s="2"/>
+    </row>
+    <row r="291" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A291" s="1"/>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B297" s="3"/>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B298" s="3"/>
+    </row>
+    <row r="300" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A300" s="1"/>
+      <c r="B300" s="2"/>
+    </row>
+    <row r="307" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A307" s="1"/>
+    </row>
+    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A310" s="4"/>
+      <c r="G310" s="4"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B314" s="5"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B315" s="5"/>
+    </row>
+    <row r="316" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A316" s="1"/>
+      <c r="B316" s="2"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B318" s="6"/>
+    </row>
+    <row r="323" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A323" s="1"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325" s="6"/>
+      <c r="G325" s="6"/>
+    </row>
+    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A326" s="4"/>
+      <c r="G326" s="4"/>
+    </row>
+    <row r="327" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A327" s="4"/>
+      <c r="G327" s="4"/>
+    </row>
+    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A330" s="1"/>
+      <c r="B330" s="2"/>
+    </row>
+    <row r="337" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A337" s="1"/>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B343" s="3"/>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B344" s="3"/>
+    </row>
+    <row r="346" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A346" s="1"/>
+      <c r="B346" s="2"/>
+    </row>
+    <row r="353" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A353" s="1"/>
+    </row>
+    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A356" s="4"/>
+      <c r="G356" s="4"/>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B360" s="5"/>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B361" s="5"/>
+    </row>
+    <row r="362" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A362" s="1"/>
+      <c r="B362" s="2"/>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B364" s="6"/>
+    </row>
+    <row r="369" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A369" s="1"/>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A371" s="6"/>
+      <c r="G371" s="6"/>
+    </row>
+    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A372" s="4"/>
+      <c r="G372" s="4"/>
+    </row>
+    <row r="373" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A373" s="4"/>
+      <c r="G373" s="4"/>
+    </row>
+    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A376" s="1"/>
+      <c r="B376" s="2"/>
+    </row>
+    <row r="383" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A383" s="1"/>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B389" s="3"/>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B390" s="3"/>
+    </row>
+    <row r="392" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A392" s="1"/>
+      <c r="B392" s="2"/>
+    </row>
+    <row r="399" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A399" s="1"/>
+    </row>
+    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A402" s="4"/>
+      <c r="G402" s="4"/>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B406" s="5"/>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B407" s="5"/>
+    </row>
+    <row r="408" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A408" s="1"/>
+      <c r="B408" s="2"/>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B410" s="6"/>
+    </row>
+    <row r="415" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A415" s="1"/>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A417" s="6"/>
+      <c r="G417" s="6"/>
+    </row>
+    <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A418" s="4"/>
+      <c r="G418" s="4"/>
+    </row>
+    <row r="419" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A419" s="4"/>
+      <c r="G419" s="4"/>
+    </row>
+    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A422" s="1"/>
+      <c r="B422" s="2"/>
+    </row>
+    <row r="429" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A429" s="1"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A435" s="6"/>
-      <c r="G435" s="6"/>
-    </row>
-    <row r="436" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A436" s="4"/>
-      <c r="G436" s="4"/>
-    </row>
-    <row r="437" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A437" s="4"/>
-      <c r="G437" s="4"/>
-    </row>
-    <row r="440" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A440" s="1"/>
-      <c r="B440" s="2"/>
-    </row>
-    <row r="447" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A447" s="1"/>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B453" s="3"/>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B454" s="3"/>
-    </row>
-    <row r="456" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A456" s="1"/>
-      <c r="B456" s="2"/>
-    </row>
-    <row r="463" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A463" s="1"/>
-    </row>
-    <row r="466" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A466" s="4"/>
-      <c r="G466" s="4"/>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B470" s="5"/>
-    </row>
-    <row r="472" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A472" s="1"/>
-      <c r="B472" s="2"/>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B474" s="6"/>
-    </row>
-    <row r="479" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A479" s="1"/>
+      <c r="B435" s="3"/>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B436" s="3"/>
+    </row>
+    <row r="438" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A438" s="1"/>
+      <c r="B438" s="2"/>
+    </row>
+    <row r="445" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A445" s="1"/>
+    </row>
+    <row r="448" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A448" s="4"/>
+      <c r="G448" s="4"/>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B452" s="5"/>
+    </row>
+    <row r="454" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A454" s="1"/>
+      <c r="B454" s="2"/>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B456" s="6"/>
+    </row>
+    <row r="461" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A461" s="1"/>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A463" s="6"/>
+      <c r="G463" s="6"/>
+    </row>
+    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A464" s="4"/>
+      <c r="G464" s="4"/>
+    </row>
+    <row r="465" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A465" s="4"/>
+      <c r="G465" s="4"/>
+    </row>
+    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A467" s="1"/>
+      <c r="B467" s="2"/>
+    </row>
+    <row r="474" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A474" s="1"/>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B480" s="3"/>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A481" s="6"/>
-      <c r="G481" s="6"/>
-    </row>
-    <row r="482" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A482" s="4"/>
-      <c r="G482" s="4"/>
+      <c r="B481" s="3"/>
     </row>
     <row r="483" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A483" s="4"/>
-      <c r="G483" s="4"/>
-    </row>
-    <row r="485" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A485" s="1"/>
-      <c r="B485" s="2"/>
-    </row>
-    <row r="492" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A492" s="1"/>
+      <c r="A483" s="1"/>
+      <c r="B483" s="2"/>
+    </row>
+    <row r="490" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A490" s="1"/>
+    </row>
+    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A493" s="4"/>
+      <c r="G493" s="4"/>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B497" s="5"/>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B498" s="3"/>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B499" s="3"/>
-    </row>
-    <row r="501" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A501" s="1"/>
-      <c r="B501" s="2"/>
-    </row>
-    <row r="508" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A508" s="1"/>
-    </row>
-    <row r="511" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A511" s="4"/>
-      <c r="G511" s="4"/>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B515" s="5"/>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B516" s="5"/>
-    </row>
-    <row r="517" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A517" s="1"/>
-      <c r="B517" s="2"/>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B519" s="6"/>
-    </row>
-    <row r="524" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A524" s="1"/>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A526" s="6"/>
-      <c r="G526" s="6"/>
-    </row>
-    <row r="527" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A527" s="4"/>
-      <c r="G527" s="4"/>
-    </row>
-    <row r="528" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A528" s="4"/>
-      <c r="G528" s="4"/>
-    </row>
-    <row r="531" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A531" s="1"/>
-      <c r="B531" s="2"/>
-    </row>
-    <row r="538" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A538" s="1"/>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B544" s="3"/>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B545" s="3"/>
-    </row>
-    <row r="547" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A547" s="1"/>
-      <c r="B547" s="2"/>
-    </row>
-    <row r="554" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A554" s="1"/>
-    </row>
-    <row r="557" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A557" s="4"/>
-      <c r="G557" s="4"/>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B561" s="5"/>
-    </row>
-    <row r="563" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A563" s="1"/>
-      <c r="B563" s="2"/>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B565" s="6"/>
-    </row>
-    <row r="570" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A570" s="1"/>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A572" s="6"/>
-      <c r="G572" s="6"/>
-    </row>
-    <row r="573" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A573" s="4"/>
-      <c r="G573" s="4"/>
-    </row>
-    <row r="574" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A574" s="4"/>
-      <c r="G574" s="4"/>
-    </row>
-    <row r="576" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A576" s="1"/>
-      <c r="B576" s="2"/>
-    </row>
-    <row r="582" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A582" s="1"/>
-    </row>
-    <row r="587" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A587" s="1"/>
-      <c r="B587" s="2"/>
-    </row>
-    <row r="593" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A593" s="1"/>
+      <c r="B498" s="5"/>
+    </row>
+    <row r="499" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A499" s="1"/>
+      <c r="B499" s="2"/>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B501" s="6"/>
+    </row>
+    <row r="506" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A506" s="1"/>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A508" s="6"/>
+      <c r="G508" s="6"/>
+    </row>
+    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A509" s="4"/>
+      <c r="G509" s="4"/>
+    </row>
+    <row r="510" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A510" s="4"/>
+      <c r="G510" s="4"/>
+    </row>
+    <row r="513" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A513" s="1"/>
+      <c r="B513" s="2"/>
+    </row>
+    <row r="520" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A520" s="1"/>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B526" s="3"/>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B527" s="3"/>
+    </row>
+    <row r="529" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A529" s="1"/>
+      <c r="B529" s="2"/>
+    </row>
+    <row r="536" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A536" s="1"/>
+    </row>
+    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A539" s="4"/>
+      <c r="G539" s="4"/>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B543" s="5"/>
+    </row>
+    <row r="545" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A545" s="1"/>
+      <c r="B545" s="2"/>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B547" s="6"/>
+    </row>
+    <row r="552" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A552" s="1"/>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A554" s="6"/>
+      <c r="G554" s="6"/>
+    </row>
+    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A555" s="4"/>
+      <c r="G555" s="4"/>
+    </row>
+    <row r="556" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A556" s="4"/>
+      <c r="G556" s="4"/>
+    </row>
+    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A558" s="1"/>
+      <c r="B558" s="2"/>
+    </row>
+    <row r="564" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A564" s="1"/>
+    </row>
+    <row r="569" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A569" s="1"/>
+      <c r="B569" s="2"/>
+    </row>
+    <row r="575" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A575" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="100">
   <si>
     <t>Activity</t>
   </si>
@@ -114,9 +114,6 @@
     <t>ecoinvent</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from atmosphere</t>
-  </si>
-  <si>
     <t>RWGS tank construction</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>Hydrogen, gaseous, 25 bar</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from the atmosphere</t>
-  </si>
-  <si>
     <t>Fixed bed reactor for RWGS</t>
   </si>
   <si>
@@ -322,6 +316,11 @@
   </si>
   <si>
     <t>diesel production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>Adapted from van der Giesen et al. 2014. Density of syngas: 0.470kg/m3 @1 bar. LHV: 23.9 MJ/kg.
+The source for CO2 is from the gasification step to produce the H2. Hence, it comes free of burden.
+However, this means we need to reduce here the amount of CO2 sequestered, as it effectively ends up in the fuel instead.</t>
   </si>
 </sst>
 </file>
@@ -402,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -420,6 +419,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K575"/>
+  <dimension ref="A1:K574"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="A236" sqref="A236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,7 +754,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -763,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -787,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -831,13 +833,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>9</v>
@@ -848,7 +850,7 @@
     </row>
     <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
@@ -869,15 +871,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" s="10">
         <v>1.00057</v>
@@ -897,7 +899,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -927,13 +929,13 @@
     </row>
     <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="15">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>6</v>
@@ -947,18 +949,18 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>20</v>
@@ -972,12 +974,12 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="15">
         <v>1.04E-10</v>
@@ -997,18 +999,18 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>6</v>
@@ -1022,18 +1024,18 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" s="15">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>25</v>
@@ -1047,18 +1049,18 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>6</v>
@@ -1072,21 +1074,21 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
@@ -1097,12 +1099,12 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B21" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1111,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
@@ -1122,18 +1124,18 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B22" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>25</v>
@@ -1147,7 +1149,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1160,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1184,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1228,13 +1230,13 @@
         <v>3</v>
       </c>
       <c r="G31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>9</v>
@@ -1245,7 +1247,7 @@
     </row>
     <row r="32" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B32" s="10">
         <v>1</v>
@@ -1266,15 +1268,15 @@
         <v>100</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B33" s="10">
         <v>1.00057</v>
@@ -1294,7 +1296,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1324,13 +1326,13 @@
     </row>
     <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B35" s="10">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>6</v>
@@ -1344,18 +1346,18 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B36" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>20</v>
@@ -1369,12 +1371,12 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B37" s="15">
         <v>2.5999999999999998E-10</v>
@@ -1394,18 +1396,18 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>6</v>
@@ -1419,18 +1421,18 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B39" s="15">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>25</v>
@@ -1444,18 +1446,18 @@
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B40" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>6</v>
@@ -1469,21 +1471,21 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B41" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
@@ -1494,12 +1496,12 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1508,7 +1510,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10" t="s">
@@ -1519,18 +1521,18 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>25</v>
@@ -1544,7 +1546,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1557,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1581,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1625,13 +1627,13 @@
         <v>3</v>
       </c>
       <c r="G52" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I52" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>9</v>
@@ -1642,7 +1644,7 @@
     </row>
     <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B53" s="10">
         <v>1</v>
@@ -1663,15 +1665,15 @@
         <v>100</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B54" s="10">
         <v>1.00057</v>
@@ -1691,7 +1693,7 @@
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1721,13 +1723,13 @@
     </row>
     <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B56" s="15">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>6</v>
@@ -1741,18 +1743,18 @@
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B57" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>20</v>
@@ -1766,12 +1768,12 @@
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B58" s="15">
         <v>1.04E-10</v>
@@ -1791,18 +1793,18 @@
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B59" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>6</v>
@@ -1816,18 +1818,18 @@
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B60" s="15">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>25</v>
@@ -1841,18 +1843,18 @@
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>6</v>
@@ -1866,21 +1868,21 @@
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B62" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="s">
@@ -1891,12 +1893,12 @@
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B63" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1905,7 +1907,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
@@ -1916,18 +1918,18 @@
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B64" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>25</v>
@@ -1941,7 +1943,7 @@
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1954,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1978,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2022,13 +2024,13 @@
         <v>3</v>
       </c>
       <c r="G73" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I73" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>9</v>
@@ -2039,7 +2041,7 @@
     </row>
     <row r="74" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B74" s="10">
         <v>1</v>
@@ -2060,15 +2062,15 @@
         <v>100</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B75" s="10">
         <v>1.00057</v>
@@ -2088,7 +2090,7 @@
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2118,13 +2120,13 @@
     </row>
     <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B77" s="10">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>6</v>
@@ -2138,18 +2140,18 @@
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B78" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>20</v>
@@ -2163,12 +2165,12 @@
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B79" s="15">
         <v>2.5999999999999998E-10</v>
@@ -2188,18 +2190,18 @@
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B80" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>6</v>
@@ -2213,18 +2215,18 @@
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B81" s="15">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>25</v>
@@ -2238,18 +2240,18 @@
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B82" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>6</v>
@@ -2263,21 +2265,21 @@
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B83" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
@@ -2288,12 +2290,12 @@
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B84" s="10">
         <v>3.2599999999999997E-2</v>
@@ -2302,7 +2304,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10" t="s">
@@ -2313,18 +2315,18 @@
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>25</v>
@@ -2338,7 +2340,7 @@
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2351,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2367,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2399,15 +2401,15 @@
         <v>9</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2446,7 +2448,7 @@
     </row>
     <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B97" s="9">
         <v>1</v>
@@ -2461,10 +2463,10 @@
         <v>15</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>16</v>
@@ -2472,7 +2474,7 @@
     </row>
     <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B98" s="9">
         <v>0.73</v>
@@ -2490,7 +2492,7 @@
         <v>17</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2535,13 +2537,13 @@
     </row>
     <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B101" s="11">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>5</v>
@@ -2550,10 +2552,10 @@
         <v>18</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2581,7 +2583,7 @@
     </row>
     <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B103" s="9">
         <v>2</v>
@@ -2590,7 +2592,7 @@
         <v>6</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>22</v>
@@ -2605,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2621,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2653,15 +2655,15 @@
         <v>9</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2700,7 +2702,7 @@
     </row>
     <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B115" s="9">
         <v>1</v>
@@ -2715,15 +2717,15 @@
         <v>15</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B116" s="9">
         <v>0.65</v>
@@ -2741,7 +2743,7 @@
         <v>17</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2786,13 +2788,13 @@
     </row>
     <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B119" s="11">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>5</v>
@@ -2801,10 +2803,10 @@
         <v>18</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2832,7 +2834,7 @@
     </row>
     <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B121" s="9">
         <v>2.48</v>
@@ -2841,7 +2843,7 @@
         <v>6</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>22</v>
@@ -2856,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2872,7 +2874,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2904,15 +2906,15 @@
         <v>9</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B130" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2951,7 +2953,7 @@
     </row>
     <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B133" s="9">
         <v>1</v>
@@ -2966,10 +2968,10 @@
         <v>15</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I133" s="9" t="s">
         <v>16</v>
@@ -2977,7 +2979,7 @@
     </row>
     <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B134" s="9">
         <v>0.98</v>
@@ -2995,7 +2997,7 @@
         <v>17</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3040,13 +3042,13 @@
     </row>
     <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B137" s="11">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>5</v>
@@ -3055,10 +3057,10 @@
         <v>18</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3086,7 +3088,7 @@
     </row>
     <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B139" s="9">
         <v>1.82</v>
@@ -3095,7 +3097,7 @@
         <v>6</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>22</v>
@@ -3110,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3126,7 +3128,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3158,15 +3160,15 @@
         <v>9</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3205,7 +3207,7 @@
     </row>
     <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B151" s="9">
         <v>1</v>
@@ -3220,10 +3222,10 @@
         <v>15</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I151" s="9" t="s">
         <v>16</v>
@@ -3231,7 +3233,7 @@
     </row>
     <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B152" s="9">
         <v>2.1</v>
@@ -3249,7 +3251,7 @@
         <v>17</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3294,13 +3296,13 @@
     </row>
     <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B155" s="11">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>5</v>
@@ -3309,10 +3311,10 @@
         <v>18</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3340,7 +3342,7 @@
     </row>
     <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B157" s="9">
         <v>0.13</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3382,7 +3384,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3414,15 +3416,15 @@
         <v>9</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B166" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3461,7 +3463,7 @@
     </row>
     <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B169" s="9">
         <v>1</v>
@@ -3476,10 +3478,10 @@
         <v>15</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I169" s="9" t="s">
         <v>16</v>
@@ -3487,7 +3489,7 @@
     </row>
     <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B170" s="9">
         <v>2.35</v>
@@ -3505,7 +3507,7 @@
         <v>17</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3550,13 +3552,13 @@
     </row>
     <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B173" s="11">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>5</v>
@@ -3565,10 +3567,10 @@
         <v>18</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3596,7 +3598,7 @@
     </row>
     <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B175" s="9">
         <v>0.22</v>
@@ -3620,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3636,7 +3638,7 @@
         <v>2</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3668,15 +3670,15 @@
         <v>9</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B184" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="185" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3715,7 +3717,7 @@
     </row>
     <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B187" s="9">
         <v>1</v>
@@ -3730,15 +3732,15 @@
         <v>15</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B188" s="9">
         <v>2.3199999999999998</v>
@@ -3756,7 +3758,7 @@
         <v>17</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="189" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3801,13 +3803,13 @@
     </row>
     <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B191" s="11">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>5</v>
@@ -3816,10 +3818,10 @@
         <v>18</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3847,7 +3849,7 @@
     </row>
     <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B193" s="9">
         <v>0.19</v>
@@ -3856,7 +3858,7 @@
         <v>6</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F193" s="9" t="s">
         <v>22</v>
@@ -3871,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3887,7 +3889,7 @@
         <v>2</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3919,15 +3921,15 @@
         <v>9</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B202" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="203" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3966,7 +3968,7 @@
     </row>
     <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B205" s="9">
         <v>1</v>
@@ -3981,10 +3983,10 @@
         <v>15</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H205" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I205" s="9" t="s">
         <v>16</v>
@@ -3992,7 +3994,7 @@
     </row>
     <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B206" s="9">
         <v>2.2599999999999998</v>
@@ -4010,7 +4012,7 @@
         <v>17</v>
       </c>
       <c r="H206" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4055,13 +4057,13 @@
     </row>
     <row r="209" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B209" s="11">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>5</v>
@@ -4070,10 +4072,10 @@
         <v>18</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H209" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="210" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4101,7 +4103,7 @@
     </row>
     <row r="211" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B211" s="9">
         <v>0.06</v>
@@ -4110,7 +4112,7 @@
         <v>6</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F211" s="9" t="s">
         <v>22</v>
@@ -4125,7 +4127,7 @@
         <v>0</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="214" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4173,15 +4175,15 @@
         <v>9</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="220" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B220" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="221" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -4214,7 +4216,7 @@
     </row>
     <row r="223" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B223" s="9">
         <v>0.875</v>
@@ -4229,12 +4231,12 @@
         <v>18</v>
       </c>
       <c r="G223" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="224" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B224" s="9">
         <v>0.125</v>
@@ -4249,7 +4251,7 @@
         <v>18</v>
       </c>
       <c r="G224" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="225" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4292,7 +4294,7 @@
     </row>
     <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B227" s="9">
         <v>1</v>
@@ -4312,13 +4314,13 @@
     </row>
     <row r="228" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B228" s="13">
         <v>5.7100000000000004E-6</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>5</v>
@@ -4335,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4351,7 +4353,7 @@
         <v>2</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4378,12 +4380,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B236" s="9" t="s">
-        <v>34</v>
+      <c r="B236" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="237" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -4416,7 +4418,7 @@
     </row>
     <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B239" s="9">
         <v>1</v>
@@ -4431,12 +4433,12 @@
         <v>15</v>
       </c>
       <c r="G239" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="240" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B240" s="9">
         <v>7.0000000000000007E-2</v>
@@ -4451,421 +4453,401 @@
         <v>18</v>
       </c>
       <c r="G240" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A241" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B241" s="9">
-        <v>1.57</v>
+      <c r="B241" s="11">
+        <v>1.9300000000000002E-9</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F241" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G241" s="12" t="s">
+      <c r="G241" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B242" s="11">
-        <v>1.9300000000000002E-9</v>
-      </c>
-      <c r="C242" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F242" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G242" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="10"/>
-      <c r="B243" s="11"/>
-      <c r="G243" s="10"/>
-    </row>
-    <row r="245" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A245" s="1"/>
+      <c r="A242" s="10"/>
+      <c r="B242" s="11"/>
+      <c r="G242" s="10"/>
+    </row>
+    <row r="244" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B250" s="3"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B251" s="3"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B252" s="3"/>
-    </row>
-    <row r="254" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A254" s="1"/>
-      <c r="B254" s="2"/>
-    </row>
-    <row r="261" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A261" s="1"/>
-    </row>
-    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A264" s="4"/>
-      <c r="G264" s="4"/>
+    <row r="253" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A253" s="1"/>
+      <c r="B253" s="2"/>
+    </row>
+    <row r="260" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A260" s="1"/>
+    </row>
+    <row r="263" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A263" s="4"/>
+      <c r="G263" s="4"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B267" s="5"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B268" s="5"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B269" s="5"/>
-    </row>
-    <row r="270" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A270" s="1"/>
-      <c r="B270" s="2"/>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B272" s="6"/>
-    </row>
-    <row r="277" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A277" s="1"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A279" s="6"/>
-      <c r="G279" s="6"/>
+    <row r="269" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A269" s="1"/>
+      <c r="B269" s="2"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B271" s="6"/>
+    </row>
+    <row r="276" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" s="6"/>
+      <c r="G278" s="6"/>
+    </row>
+    <row r="279" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A279" s="4"/>
+      <c r="G279" s="4"/>
     </row>
     <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="4"/>
       <c r="G280" s="4"/>
     </row>
-    <row r="281" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A281" s="4"/>
-      <c r="G281" s="4"/>
-    </row>
-    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A284" s="1"/>
-      <c r="B284" s="2"/>
-    </row>
-    <row r="291" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A291" s="1"/>
+    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A283" s="1"/>
+      <c r="B283" s="2"/>
+    </row>
+    <row r="290" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A290" s="1"/>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B296" s="3"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B297" s="3"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B298" s="3"/>
-    </row>
-    <row r="300" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A300" s="1"/>
-      <c r="B300" s="2"/>
-    </row>
-    <row r="307" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A307" s="1"/>
-    </row>
-    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A310" s="4"/>
-      <c r="G310" s="4"/>
+    <row r="299" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A299" s="1"/>
+      <c r="B299" s="2"/>
+    </row>
+    <row r="306" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A306" s="1"/>
+    </row>
+    <row r="309" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A309" s="4"/>
+      <c r="G309" s="4"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B313" s="5"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B314" s="5"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B315" s="5"/>
-    </row>
-    <row r="316" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A316" s="1"/>
-      <c r="B316" s="2"/>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B318" s="6"/>
-    </row>
-    <row r="323" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A323" s="1"/>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A325" s="6"/>
-      <c r="G325" s="6"/>
+    <row r="315" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A315" s="1"/>
+      <c r="B315" s="2"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B317" s="6"/>
+    </row>
+    <row r="322" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A322" s="1"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324" s="6"/>
+      <c r="G324" s="6"/>
+    </row>
+    <row r="325" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A325" s="4"/>
+      <c r="G325" s="4"/>
     </row>
     <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="4"/>
       <c r="G326" s="4"/>
     </row>
-    <row r="327" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A327" s="4"/>
-      <c r="G327" s="4"/>
-    </row>
-    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A330" s="1"/>
-      <c r="B330" s="2"/>
-    </row>
-    <row r="337" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A337" s="1"/>
+    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A329" s="1"/>
+      <c r="B329" s="2"/>
+    </row>
+    <row r="336" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A336" s="1"/>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B342" s="3"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B343" s="3"/>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B344" s="3"/>
-    </row>
-    <row r="346" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A346" s="1"/>
-      <c r="B346" s="2"/>
-    </row>
-    <row r="353" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A353" s="1"/>
-    </row>
-    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A356" s="4"/>
-      <c r="G356" s="4"/>
+    <row r="345" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A345" s="1"/>
+      <c r="B345" s="2"/>
+    </row>
+    <row r="352" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A352" s="1"/>
+    </row>
+    <row r="355" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A355" s="4"/>
+      <c r="G355" s="4"/>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B359" s="5"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B360" s="5"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B361" s="5"/>
-    </row>
-    <row r="362" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A362" s="1"/>
-      <c r="B362" s="2"/>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B364" s="6"/>
-    </row>
-    <row r="369" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A369" s="1"/>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A371" s="6"/>
-      <c r="G371" s="6"/>
+    <row r="361" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A361" s="1"/>
+      <c r="B361" s="2"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B363" s="6"/>
+    </row>
+    <row r="368" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A368" s="1"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A370" s="6"/>
+      <c r="G370" s="6"/>
+    </row>
+    <row r="371" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A371" s="4"/>
+      <c r="G371" s="4"/>
     </row>
     <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A372" s="4"/>
       <c r="G372" s="4"/>
     </row>
-    <row r="373" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A373" s="4"/>
-      <c r="G373" s="4"/>
-    </row>
-    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A376" s="1"/>
-      <c r="B376" s="2"/>
-    </row>
-    <row r="383" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A383" s="1"/>
+    <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A375" s="1"/>
+      <c r="B375" s="2"/>
+    </row>
+    <row r="382" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A382" s="1"/>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B388" s="3"/>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B389" s="3"/>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B390" s="3"/>
-    </row>
-    <row r="392" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A392" s="1"/>
-      <c r="B392" s="2"/>
-    </row>
-    <row r="399" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A399" s="1"/>
-    </row>
-    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A402" s="4"/>
-      <c r="G402" s="4"/>
+    <row r="391" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A391" s="1"/>
+      <c r="B391" s="2"/>
+    </row>
+    <row r="398" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A398" s="1"/>
+    </row>
+    <row r="401" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A401" s="4"/>
+      <c r="G401" s="4"/>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B405" s="5"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B406" s="5"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B407" s="5"/>
-    </row>
-    <row r="408" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A408" s="1"/>
-      <c r="B408" s="2"/>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B410" s="6"/>
-    </row>
-    <row r="415" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A415" s="1"/>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A417" s="6"/>
-      <c r="G417" s="6"/>
+    <row r="407" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A407" s="1"/>
+      <c r="B407" s="2"/>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B409" s="6"/>
+    </row>
+    <row r="414" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A414" s="1"/>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A416" s="6"/>
+      <c r="G416" s="6"/>
+    </row>
+    <row r="417" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A417" s="4"/>
+      <c r="G417" s="4"/>
     </row>
     <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A419" s="4"/>
-      <c r="G419" s="4"/>
-    </row>
-    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A422" s="1"/>
-      <c r="B422" s="2"/>
-    </row>
-    <row r="429" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A429" s="1"/>
+    <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A421" s="1"/>
+      <c r="B421" s="2"/>
+    </row>
+    <row r="428" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A428" s="1"/>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B434" s="3"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B435" s="3"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B436" s="3"/>
-    </row>
-    <row r="438" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A438" s="1"/>
-      <c r="B438" s="2"/>
-    </row>
-    <row r="445" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A445" s="1"/>
-    </row>
-    <row r="448" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A448" s="4"/>
-      <c r="G448" s="4"/>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B452" s="5"/>
-    </row>
-    <row r="454" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A454" s="1"/>
-      <c r="B454" s="2"/>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B456" s="6"/>
-    </row>
-    <row r="461" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A461" s="1"/>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A463" s="6"/>
-      <c r="G463" s="6"/>
+    <row r="437" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A437" s="1"/>
+      <c r="B437" s="2"/>
+    </row>
+    <row r="444" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A444" s="1"/>
+    </row>
+    <row r="447" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A447" s="4"/>
+      <c r="G447" s="4"/>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B451" s="5"/>
+    </row>
+    <row r="453" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A453" s="1"/>
+      <c r="B453" s="2"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B455" s="6"/>
+    </row>
+    <row r="460" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A460" s="1"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A462" s="6"/>
+      <c r="G462" s="6"/>
+    </row>
+    <row r="463" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A463" s="4"/>
+      <c r="G463" s="4"/>
     </row>
     <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A464" s="4"/>
       <c r="G464" s="4"/>
     </row>
-    <row r="465" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A465" s="4"/>
-      <c r="G465" s="4"/>
-    </row>
-    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A467" s="1"/>
-      <c r="B467" s="2"/>
-    </row>
-    <row r="474" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A474" s="1"/>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A466" s="1"/>
+      <c r="B466" s="2"/>
+    </row>
+    <row r="473" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A473" s="1"/>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B479" s="3"/>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B480" s="3"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B481" s="3"/>
-    </row>
-    <row r="483" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A483" s="1"/>
-      <c r="B483" s="2"/>
-    </row>
-    <row r="490" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A490" s="1"/>
-    </row>
-    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A493" s="4"/>
-      <c r="G493" s="4"/>
+    <row r="482" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A482" s="1"/>
+      <c r="B482" s="2"/>
+    </row>
+    <row r="489" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A489" s="1"/>
+    </row>
+    <row r="492" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A492" s="4"/>
+      <c r="G492" s="4"/>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B496" s="5"/>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B497" s="5"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B498" s="5"/>
-    </row>
-    <row r="499" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A499" s="1"/>
-      <c r="B499" s="2"/>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B501" s="6"/>
-    </row>
-    <row r="506" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A506" s="1"/>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A508" s="6"/>
-      <c r="G508" s="6"/>
+    <row r="498" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A498" s="1"/>
+      <c r="B498" s="2"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B500" s="6"/>
+    </row>
+    <row r="505" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A505" s="1"/>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A507" s="6"/>
+      <c r="G507" s="6"/>
+    </row>
+    <row r="508" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A508" s="4"/>
+      <c r="G508" s="4"/>
     </row>
     <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A509" s="4"/>
       <c r="G509" s="4"/>
     </row>
-    <row r="510" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A510" s="4"/>
-      <c r="G510" s="4"/>
-    </row>
-    <row r="513" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A513" s="1"/>
-      <c r="B513" s="2"/>
-    </row>
-    <row r="520" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A520" s="1"/>
+    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A512" s="1"/>
+      <c r="B512" s="2"/>
+    </row>
+    <row r="519" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A519" s="1"/>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B525" s="3"/>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B526" s="3"/>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B527" s="3"/>
-    </row>
-    <row r="529" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A529" s="1"/>
-      <c r="B529" s="2"/>
-    </row>
-    <row r="536" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A536" s="1"/>
-    </row>
-    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A539" s="4"/>
-      <c r="G539" s="4"/>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B543" s="5"/>
-    </row>
-    <row r="545" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A545" s="1"/>
-      <c r="B545" s="2"/>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B547" s="6"/>
-    </row>
-    <row r="552" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A552" s="1"/>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A554" s="6"/>
-      <c r="G554" s="6"/>
+    <row r="528" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A528" s="1"/>
+      <c r="B528" s="2"/>
+    </row>
+    <row r="535" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A535" s="1"/>
+    </row>
+    <row r="538" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A538" s="4"/>
+      <c r="G538" s="4"/>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B542" s="5"/>
+    </row>
+    <row r="544" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A544" s="1"/>
+      <c r="B544" s="2"/>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B546" s="6"/>
+    </row>
+    <row r="551" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A551" s="1"/>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A553" s="6"/>
+      <c r="G553" s="6"/>
+    </row>
+    <row r="554" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A554" s="4"/>
+      <c r="G554" s="4"/>
     </row>
     <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A555" s="4"/>
       <c r="G555" s="4"/>
     </row>
-    <row r="556" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A556" s="4"/>
-      <c r="G556" s="4"/>
-    </row>
-    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A558" s="1"/>
-      <c r="B558" s="2"/>
-    </row>
-    <row r="564" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A564" s="1"/>
-    </row>
-    <row r="569" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A569" s="1"/>
-      <c r="B569" s="2"/>
-    </row>
-    <row r="575" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A575" s="1"/>
+    <row r="557" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A557" s="1"/>
+      <c r="B557" s="2"/>
+    </row>
+    <row r="563" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A563" s="1"/>
+    </row>
+    <row r="568" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A568" s="1"/>
+      <c r="B568" s="2"/>
+    </row>
+    <row r="574" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A574" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5" iterateDelta="0.01"/>
+  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="100">
   <si>
     <t>Activity</t>
   </si>
@@ -419,9 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K574"/>
+  <dimension ref="A1:K578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="A236" sqref="A236"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1152,134 +1150,129 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="16"/>
-      <c r="G23" s="12"/>
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="15">
+        <f>(B12-1)*3.14</f>
+        <v>1.7897999999998727E-3</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="16"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B27" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="B30" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H32" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J32" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K32" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B33" s="10">
         <v>1</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10">
-        <v>100</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="10">
-        <v>1.00057</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>8</v>
@@ -1289,28 +1282,32 @@
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10" t="s">
-        <v>35</v>
+      <c r="I33" s="10">
+        <v>100</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>27</v>
+      <c r="A34" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="B34" s="10">
-        <v>6.7000000000000002E-3</v>
+        <v>1.00057</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10" t="s">
@@ -1321,21 +1318,21 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>63</v>
+      <c r="A35" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B35" s="10">
-        <v>-1.6799999999999999E-4</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>58</v>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10" t="s">
@@ -1346,21 +1343,21 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="15">
-        <v>5.8399999999999999E-4</v>
+        <v>63</v>
+      </c>
+      <c r="B36" s="10">
+        <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10" t="s">
@@ -1371,21 +1368,21 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B37" s="15">
-        <v>2.5999999999999998E-10</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10" t="s">
@@ -1396,21 +1393,21 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B38" s="15">
-        <v>-6.2700000000000001E-6</v>
+        <v>2.5999999999999998E-10</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10" t="s">
@@ -1421,21 +1418,21 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B39" s="15">
-        <v>-7.4999999999999993E-5</v>
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>25</v>
+        <v>57</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10" t="s">
@@ -1446,21 +1443,21 @@
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" s="15">
-        <v>6.8900000000000005E-4</v>
+        <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>6</v>
+      <c r="D40" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10" t="s">
@@ -1471,21 +1468,21 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="10">
-        <v>3.3599999999999998E-2</v>
+        <v>73</v>
+      </c>
+      <c r="B41" s="15">
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
@@ -1496,18 +1493,18 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B42" s="10">
-        <v>3.2599999999999997E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>76</v>
@@ -1521,21 +1518,21 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="15">
-        <v>-6.8899999999999999E-7</v>
+        <v>78</v>
+      </c>
+      <c r="B43" s="10">
+        <v>3.2599999999999997E-2</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10" t="s">
@@ -1546,190 +1543,189 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="15">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="16"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="15">
+        <f>(B34-1)*3.14</f>
+        <v>1.7897999999998727E-3</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="16"/>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>83</v>
+      <c r="B48" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B54" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E54" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G54" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H54" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="I54" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K52" s="9" t="s">
+      <c r="K54" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B55" s="10">
         <v>1</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10">
-        <v>100</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="10">
-        <v>1.00057</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="10">
-        <v>6.7000000000000002E-3</v>
-      </c>
       <c r="C55" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10" t="s">
-        <v>29</v>
+      <c r="I55" s="10">
+        <v>100</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="15">
-        <v>1.8499999999999999E-5</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>58</v>
+        <v>88</v>
+      </c>
+      <c r="B56" s="10">
+        <v>1.00057</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>6</v>
@@ -1743,21 +1739,21 @@
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="15">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>57</v>
+      <c r="A57" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="10">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E57" s="10"/>
       <c r="F57" s="10" t="s">
@@ -1768,21 +1764,21 @@
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B58" s="15">
-        <v>1.04E-10</v>
+        <v>1.8499999999999999E-5</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10" t="s">
@@ -1793,21 +1789,21 @@
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B59" s="15">
-        <v>-6.2700000000000001E-6</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10" t="s">
@@ -1818,21 +1814,21 @@
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B60" s="15">
-        <v>-5.0000000000000002E-5</v>
+        <v>1.04E-10</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10" t="s">
@@ -1843,18 +1839,18 @@
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B61" s="15">
-        <v>6.8900000000000005E-4</v>
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>6</v>
@@ -1868,21 +1864,21 @@
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="10">
-        <v>3.3599999999999998E-2</v>
+        <v>71</v>
+      </c>
+      <c r="B62" s="15">
+        <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="10" t="s">
-        <v>76</v>
+      <c r="D62" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="s">
@@ -1893,21 +1889,21 @@
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="10">
-        <v>3.2599999999999997E-2</v>
+        <v>73</v>
+      </c>
+      <c r="B63" s="15">
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
@@ -1918,21 +1914,21 @@
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="15">
-        <v>-6.8899999999999999E-7</v>
+        <v>75</v>
+      </c>
+      <c r="B64" s="10">
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10" t="s">
@@ -1943,218 +1939,217 @@
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="10">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="15">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
-      <c r="B65" s="16"/>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="15">
+        <f>(B56-1)*3.14</f>
+        <v>1.7897999999998727E-3</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+    </row>
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="12"/>
+      <c r="B68" s="16"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B69" s="7" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B71" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
-        <v>10</v>
+      <c r="A72" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K73" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" s="10">
-        <v>1</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10">
-        <v>100</v>
-      </c>
-      <c r="J74" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K74" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B75" s="10">
-        <v>1.00057</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10" t="s">
-        <v>35</v>
+      <c r="B74" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" s="10">
-        <v>6.7000000000000002E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B77" s="10">
-        <v>-1.6799999999999999E-4</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="10"/>
       <c r="F77" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10" t="s">
-        <v>64</v>
+      <c r="I77" s="10">
+        <v>100</v>
+      </c>
+      <c r="J77" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="15">
-        <v>5.8399999999999999E-4</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>57</v>
+        <v>86</v>
+      </c>
+      <c r="B78" s="10">
+        <v>1.00057</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="10" t="s">
@@ -2165,21 +2160,21 @@
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" s="15">
-        <v>2.5999999999999998E-10</v>
-      </c>
-      <c r="C79" s="10" t="s">
+      <c r="A79" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="10">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E79" s="10"/>
       <c r="F79" s="10" t="s">
@@ -2190,18 +2185,18 @@
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B80" s="15">
-        <v>-6.2700000000000001E-6</v>
+        <v>63</v>
+      </c>
+      <c r="B80" s="10">
+        <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>6</v>
@@ -2215,21 +2210,21 @@
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B81" s="15">
-        <v>-7.4999999999999993E-5</v>
+        <v>5.8399999999999999E-4</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>25</v>
+        <v>57</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="10" t="s">
@@ -2240,21 +2235,21 @@
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B82" s="15">
-        <v>6.8900000000000005E-4</v>
+        <v>2.5999999999999998E-10</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10" t="s">
@@ -2265,21 +2260,21 @@
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" s="10">
-        <v>3.3599999999999998E-2</v>
+        <v>69</v>
+      </c>
+      <c r="B83" s="15">
+        <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
@@ -2290,21 +2285,21 @@
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" s="10">
-        <v>3.2599999999999997E-2</v>
+        <v>71</v>
+      </c>
+      <c r="B84" s="15">
+        <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>76</v>
+        <v>58</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10" t="s">
@@ -2315,21 +2310,21 @@
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B85" s="15">
-        <v>-6.8899999999999999E-7</v>
+        <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>58</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="10" t="s">
@@ -2340,259 +2335,272 @@
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="10">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" s="10">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B88" s="15">
+        <v>-6.8899999999999999E-7</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="12"/>
-      <c r="B86" s="16"/>
-      <c r="G86" s="12"/>
-    </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="7" t="s">
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" s="15">
+        <f>(B78-1)*3.14</f>
+        <v>1.7897999999998727E-3</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+    </row>
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="12"/>
+      <c r="B90" s="16"/>
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B91" s="8" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B92" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H96" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I96" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B97" s="9">
-        <v>1</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>16</v>
+      <c r="B97" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98" s="9">
-        <v>0.73</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B99" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B100" s="9">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B101" s="11">
-        <v>6.7000000000000001E-12</v>
+        <v>90</v>
+      </c>
+      <c r="B101" s="9">
+        <v>1</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="I101" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B102" s="11">
-        <v>8.7242061855670114E-2</v>
+        <v>94</v>
+      </c>
+      <c r="B102" s="9">
+        <v>0.73</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F102" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B103" s="9">
-        <v>2</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>22</v>
@@ -2601,209 +2609,209 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>92</v>
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B105" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="9">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B106" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" s="9">
         <v>2</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>6</v>
+      <c r="D107" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B110" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B115" s="9">
-        <v>1</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>39</v>
+      <c r="B115" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B116" s="9">
-        <v>0.65</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H116" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B117" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B118" s="9">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B119" s="11">
-        <v>6.7000000000000001E-12</v>
+        <v>92</v>
+      </c>
+      <c r="B119" s="9">
+        <v>1</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="H119" s="9" t="s">
         <v>39</v>
@@ -2811,39 +2819,39 @@
     </row>
     <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B120" s="11">
-        <v>8.7242061855670114E-2</v>
+        <v>94</v>
+      </c>
+      <c r="B120" s="9">
+        <v>0.65</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B121" s="9">
-        <v>2.48</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>22</v>
@@ -2852,252 +2860,252 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>91</v>
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B122" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B123" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B124" s="9">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B124" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="B125" s="9">
+        <v>2.48</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B128" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H132" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I132" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B133" s="9">
-        <v>1</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H133" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I133" s="9" t="s">
-        <v>16</v>
+      <c r="B133" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B134" s="9">
-        <v>0.98</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H134" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B135" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H135" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B136" s="9">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B137" s="11">
-        <v>6.7000000000000001E-12</v>
+        <v>91</v>
+      </c>
+      <c r="B137" s="9">
+        <v>1</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="H137" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="I137" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B138" s="11">
-        <v>8.7242061855670114E-2</v>
+        <v>94</v>
+      </c>
+      <c r="B138" s="9">
+        <v>0.98</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F138" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B139" s="9">
-        <v>1.82</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>22</v>
@@ -3106,249 +3114,249 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>89</v>
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B141" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B142" s="9">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B142" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="B143" s="9">
+        <v>1.82</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H143" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B146" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A149" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E150" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I150" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B151" s="9">
-        <v>1</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H151" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I151" s="9" t="s">
-        <v>16</v>
+      <c r="B151" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B152" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H152" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B153" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H153" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B154" s="9">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="I154" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B155" s="11">
-        <v>6.7000000000000001E-12</v>
+        <v>89</v>
+      </c>
+      <c r="B155" s="9">
+        <v>1</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="H155" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="I155" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B156" s="11">
-        <v>8.7242061855670114E-2</v>
+        <v>94</v>
+      </c>
+      <c r="B156" s="9">
+        <v>2.1</v>
       </c>
       <c r="C156" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F156" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B157" s="9">
-        <v>0.13</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E157" s="9" t="s">
         <v>21</v>
@@ -3361,250 +3369,250 @@
       </c>
     </row>
     <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="11"/>
-    </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A159" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>88</v>
+      <c r="A158" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B158" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H158" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B159" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="9">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B160" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B161" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>6</v>
+      <c r="B162" s="11"/>
+    </row>
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A163" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B164" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D168" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E168" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F168" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G168" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H168" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I168" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B169" s="9">
-        <v>1</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F169" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H169" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I169" s="9" t="s">
-        <v>16</v>
+      <c r="B169" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B170" s="9">
-        <v>2.35</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F170" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H170" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B171" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F171" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H171" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B172" s="9">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E172" s="9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="I172" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B173" s="11">
-        <v>6.7000000000000001E-12</v>
+        <v>88</v>
+      </c>
+      <c r="B173" s="9">
+        <v>1</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="G173" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="H173" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="I173" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B174" s="11">
-        <v>8.7242061855670114E-2</v>
+        <v>94</v>
+      </c>
+      <c r="B174" s="9">
+        <v>2.35</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F174" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B175" s="9">
-        <v>0.22</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>21</v>
@@ -3616,209 +3624,209 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A177" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>87</v>
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B176" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H176" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B177" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H177" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="9">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B178" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H178" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="B179" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F179" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B182" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A185" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D186" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E186" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F186" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G186" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H186" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I186" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B187" s="9">
-        <v>1</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F187" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G187" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H187" s="9" t="s">
-        <v>39</v>
+      <c r="B187" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B188" s="9">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F188" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H188" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B189" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D189" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E189" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F189" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H189" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B190" s="9">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E190" s="9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="G190" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="I190" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B191" s="11">
-        <v>6.7000000000000001E-12</v>
+        <v>87</v>
+      </c>
+      <c r="B191" s="9">
+        <v>1</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="G191" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="H191" s="9" t="s">
         <v>39</v>
@@ -3826,39 +3834,39 @@
     </row>
     <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B192" s="11">
-        <v>8.7242061855670114E-2</v>
+        <v>94</v>
+      </c>
+      <c r="B192" s="9">
+        <v>2.3199999999999998</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F192" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H192" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B193" s="9">
-        <v>0.19</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F193" s="9" t="s">
         <v>22</v>
@@ -3867,252 +3875,252 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>86</v>
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B194" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F194" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H194" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B195" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F195" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G195" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H195" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B196" s="9">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B196" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F196" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H196" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="B197" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A199" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B200" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A203" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E204" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F204" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G204" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H204" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I204" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B205" s="9">
-        <v>1</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F205" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G205" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H205" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I205" s="9" t="s">
-        <v>16</v>
+      <c r="B205" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B206" s="9">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="C206" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F206" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H206" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B207" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E207" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F207" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H207" s="9" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A207" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B208" s="9">
-        <v>1.0754991304347825E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E208" s="9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F208" s="9" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="G208" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="H208" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I208" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B209" s="11">
-        <v>6.7000000000000001E-12</v>
+        <v>86</v>
+      </c>
+      <c r="B209" s="9">
+        <v>1</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="H209" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I209" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B210" s="11">
-        <v>8.7242061855670114E-2</v>
+        <v>94</v>
+      </c>
+      <c r="B210" s="9">
+        <v>2.2599999999999998</v>
       </c>
       <c r="C210" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F210" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H210" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B211" s="9">
-        <v>0.06</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F211" s="9" t="s">
         <v>22</v>
@@ -4121,733 +4129,819 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="7" t="s">
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B212" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H212" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B213" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F213" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H213" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B214" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F214" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G214" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H214" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B215" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F215" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H215" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B217" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="9" t="s">
+    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B214" s="9">
+      <c r="B218" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="9" t="s">
+    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B215" s="9" t="s">
+      <c r="B219" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="9" t="s">
+    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B216" s="9" t="s">
+      <c r="B220" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="9" t="s">
+    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B217" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="9" t="s">
+      <c r="B221" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B218" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="9" t="s">
+      <c r="B222" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B223" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="9" t="s">
+    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B224" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A221" s="7" t="s">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A225" s="7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C222" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D222" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E222" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F222" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G222" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B223" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="C223" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F223" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G223" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A224" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B224" s="9">
-        <v>0.125</v>
-      </c>
-      <c r="C224" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F224" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G224" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B225" s="9">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C225" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F225" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G225" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E226" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G226" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B227" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G227" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A228" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B228" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F228" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B229" s="9">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F229" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G229" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B226" s="9">
+      <c r="B230" s="9">
         <f>60*0.001/106.6</f>
         <v>5.6285178236397749E-4</v>
       </c>
-      <c r="D226" s="9" t="s">
+      <c r="D230" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E226" s="9" t="s">
+      <c r="E230" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F226" s="9" t="s">
+      <c r="F230" s="9" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B227" s="9">
-        <v>1</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F227" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G227" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B228" s="13">
-        <v>5.7100000000000004E-6</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D228" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F228" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="13"/>
-    </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A230" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B231" s="9">
         <v>1</v>
       </c>
+      <c r="C231" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G231" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="B232" s="13">
+        <v>5.7100000000000004E-6</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F232" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>6</v>
+      <c r="B233" s="13"/>
+    </row>
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A234" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234" s="8" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="B235" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B236" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A237" s="7" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D238" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E238" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F238" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G238" s="9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B240" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A241" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E242" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G242" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B239" s="9">
+      <c r="B243" s="9">
         <v>1</v>
       </c>
-      <c r="C239" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F239" s="9" t="s">
+      <c r="C243" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F243" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G239" s="9" t="s">
+      <c r="G243" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A240" s="12" t="s">
+    <row r="244" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A244" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B240" s="9">
+      <c r="B244" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C240" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F240" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G240" s="12" t="s">
+      <c r="C244" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F244" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G244" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="10" t="s">
+    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B241" s="11">
+      <c r="B245" s="11">
         <v>1.9300000000000002E-9</v>
       </c>
-      <c r="C241" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="9" t="s">
+      <c r="C245" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F241" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" s="10" t="s">
+      <c r="F245" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G245" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="10"/>
-      <c r="B242" s="11"/>
-      <c r="G242" s="10"/>
-    </row>
-    <row r="244" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A244" s="1"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B250" s="3"/>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B251" s="3"/>
-    </row>
-    <row r="253" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A253" s="1"/>
-      <c r="B253" s="2"/>
-    </row>
-    <row r="260" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A260" s="1"/>
-    </row>
-    <row r="263" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A263" s="4"/>
-      <c r="G263" s="4"/>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B267" s="5"/>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B268" s="5"/>
-    </row>
-    <row r="269" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A269" s="1"/>
-      <c r="B269" s="2"/>
+    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="10"/>
+      <c r="B246" s="11"/>
+      <c r="G246" s="10"/>
+    </row>
+    <row r="248" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B254" s="3"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B255" s="3"/>
+    </row>
+    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A257" s="1"/>
+      <c r="B257" s="2"/>
+    </row>
+    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A267" s="4"/>
+      <c r="G267" s="4"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B271" s="6"/>
-    </row>
-    <row r="276" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A276" s="1"/>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A278" s="6"/>
-      <c r="G278" s="6"/>
-    </row>
-    <row r="279" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A279" s="4"/>
-      <c r="G279" s="4"/>
+      <c r="B271" s="5"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B272" s="5"/>
+    </row>
+    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A273" s="1"/>
+      <c r="B273" s="2"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B275" s="6"/>
     </row>
     <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A280" s="4"/>
-      <c r="G280" s="4"/>
+      <c r="A280" s="1"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" s="6"/>
+      <c r="G282" s="6"/>
     </row>
     <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A283" s="1"/>
-      <c r="B283" s="2"/>
-    </row>
-    <row r="290" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A290" s="1"/>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B296" s="3"/>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B297" s="3"/>
-    </row>
-    <row r="299" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A299" s="1"/>
-      <c r="B299" s="2"/>
-    </row>
-    <row r="306" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A306" s="1"/>
-    </row>
-    <row r="309" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A309" s="4"/>
-      <c r="G309" s="4"/>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B313" s="5"/>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B314" s="5"/>
-    </row>
-    <row r="315" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A315" s="1"/>
-      <c r="B315" s="2"/>
+      <c r="A283" s="4"/>
+      <c r="G283" s="4"/>
+    </row>
+    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A284" s="4"/>
+      <c r="G284" s="4"/>
+    </row>
+    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A287" s="1"/>
+      <c r="B287" s="2"/>
+    </row>
+    <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A294" s="1"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B300" s="3"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B301" s="3"/>
+    </row>
+    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A303" s="1"/>
+      <c r="B303" s="2"/>
+    </row>
+    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="313" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A313" s="4"/>
+      <c r="G313" s="4"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B317" s="6"/>
-    </row>
-    <row r="322" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A322" s="1"/>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A324" s="6"/>
-      <c r="G324" s="6"/>
-    </row>
-    <row r="325" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A325" s="4"/>
-      <c r="G325" s="4"/>
+      <c r="B317" s="5"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B318" s="5"/>
+    </row>
+    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A319" s="1"/>
+      <c r="B319" s="2"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B321" s="6"/>
     </row>
     <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A326" s="4"/>
-      <c r="G326" s="4"/>
+      <c r="A326" s="1"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328" s="6"/>
+      <c r="G328" s="6"/>
     </row>
     <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A329" s="1"/>
-      <c r="B329" s="2"/>
-    </row>
-    <row r="336" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A336" s="1"/>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B342" s="3"/>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B343" s="3"/>
-    </row>
-    <row r="345" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A345" s="1"/>
-      <c r="B345" s="2"/>
-    </row>
-    <row r="352" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A352" s="1"/>
-    </row>
-    <row r="355" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A355" s="4"/>
-      <c r="G355" s="4"/>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B359" s="5"/>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B360" s="5"/>
-    </row>
-    <row r="361" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A361" s="1"/>
-      <c r="B361" s="2"/>
+      <c r="A329" s="4"/>
+      <c r="G329" s="4"/>
+    </row>
+    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A330" s="4"/>
+      <c r="G330" s="4"/>
+    </row>
+    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A333" s="1"/>
+      <c r="B333" s="2"/>
+    </row>
+    <row r="340" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A340" s="1"/>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B346" s="3"/>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B347" s="3"/>
+    </row>
+    <row r="349" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A349" s="1"/>
+      <c r="B349" s="2"/>
+    </row>
+    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A356" s="1"/>
+    </row>
+    <row r="359" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A359" s="4"/>
+      <c r="G359" s="4"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B363" s="6"/>
-    </row>
-    <row r="368" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A368" s="1"/>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A370" s="6"/>
-      <c r="G370" s="6"/>
-    </row>
-    <row r="371" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A371" s="4"/>
-      <c r="G371" s="4"/>
+      <c r="B363" s="5"/>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B364" s="5"/>
+    </row>
+    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A365" s="1"/>
+      <c r="B365" s="2"/>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B367" s="6"/>
     </row>
     <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A372" s="4"/>
-      <c r="G372" s="4"/>
+      <c r="A372" s="1"/>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A374" s="6"/>
+      <c r="G374" s="6"/>
     </row>
     <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A375" s="1"/>
-      <c r="B375" s="2"/>
-    </row>
-    <row r="382" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A382" s="1"/>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B388" s="3"/>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B389" s="3"/>
-    </row>
-    <row r="391" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A391" s="1"/>
-      <c r="B391" s="2"/>
-    </row>
-    <row r="398" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A398" s="1"/>
-    </row>
-    <row r="401" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A401" s="4"/>
-      <c r="G401" s="4"/>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B405" s="5"/>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B406" s="5"/>
-    </row>
-    <row r="407" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A407" s="1"/>
-      <c r="B407" s="2"/>
+      <c r="A375" s="4"/>
+      <c r="G375" s="4"/>
+    </row>
+    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A376" s="4"/>
+      <c r="G376" s="4"/>
+    </row>
+    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A379" s="1"/>
+      <c r="B379" s="2"/>
+    </row>
+    <row r="386" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A386" s="1"/>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B392" s="3"/>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B393" s="3"/>
+    </row>
+    <row r="395" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A395" s="1"/>
+      <c r="B395" s="2"/>
+    </row>
+    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A402" s="1"/>
+    </row>
+    <row r="405" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A405" s="4"/>
+      <c r="G405" s="4"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B409" s="6"/>
-    </row>
-    <row r="414" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A414" s="1"/>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A416" s="6"/>
-      <c r="G416" s="6"/>
-    </row>
-    <row r="417" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A417" s="4"/>
-      <c r="G417" s="4"/>
+      <c r="B409" s="5"/>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B410" s="5"/>
+    </row>
+    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A411" s="1"/>
+      <c r="B411" s="2"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B413" s="6"/>
     </row>
     <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A418" s="4"/>
-      <c r="G418" s="4"/>
+      <c r="A418" s="1"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A420" s="6"/>
+      <c r="G420" s="6"/>
     </row>
     <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A421" s="1"/>
-      <c r="B421" s="2"/>
-    </row>
-    <row r="428" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A428" s="1"/>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B434" s="3"/>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B435" s="3"/>
-    </row>
-    <row r="437" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A437" s="1"/>
-      <c r="B437" s="2"/>
-    </row>
-    <row r="444" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A444" s="1"/>
-    </row>
-    <row r="447" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A447" s="4"/>
-      <c r="G447" s="4"/>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B451" s="5"/>
-    </row>
-    <row r="453" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A453" s="1"/>
-      <c r="B453" s="2"/>
+      <c r="A421" s="4"/>
+      <c r="G421" s="4"/>
+    </row>
+    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A422" s="4"/>
+      <c r="G422" s="4"/>
+    </row>
+    <row r="425" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A425" s="1"/>
+      <c r="B425" s="2"/>
+    </row>
+    <row r="432" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A432" s="1"/>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B438" s="3"/>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B439" s="3"/>
+    </row>
+    <row r="441" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A441" s="1"/>
+      <c r="B441" s="2"/>
+    </row>
+    <row r="448" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A448" s="1"/>
+    </row>
+    <row r="451" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A451" s="4"/>
+      <c r="G451" s="4"/>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B455" s="6"/>
-    </row>
-    <row r="460" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A460" s="1"/>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A462" s="6"/>
-      <c r="G462" s="6"/>
-    </row>
-    <row r="463" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A463" s="4"/>
-      <c r="G463" s="4"/>
+      <c r="B455" s="5"/>
+    </row>
+    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A457" s="1"/>
+      <c r="B457" s="2"/>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B459" s="6"/>
     </row>
     <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A464" s="4"/>
-      <c r="G464" s="4"/>
-    </row>
-    <row r="466" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A466" s="1"/>
-      <c r="B466" s="2"/>
-    </row>
-    <row r="473" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A473" s="1"/>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B479" s="3"/>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B480" s="3"/>
-    </row>
-    <row r="482" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A482" s="1"/>
-      <c r="B482" s="2"/>
-    </row>
-    <row r="489" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A489" s="1"/>
-    </row>
-    <row r="492" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A492" s="4"/>
-      <c r="G492" s="4"/>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B496" s="5"/>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B497" s="5"/>
-    </row>
-    <row r="498" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A498" s="1"/>
-      <c r="B498" s="2"/>
+      <c r="A464" s="1"/>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A466" s="6"/>
+      <c r="G466" s="6"/>
+    </row>
+    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A467" s="4"/>
+      <c r="G467" s="4"/>
+    </row>
+    <row r="468" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A468" s="4"/>
+      <c r="G468" s="4"/>
+    </row>
+    <row r="470" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A470" s="1"/>
+      <c r="B470" s="2"/>
+    </row>
+    <row r="477" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A477" s="1"/>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B483" s="3"/>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B484" s="3"/>
+    </row>
+    <row r="486" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A486" s="1"/>
+      <c r="B486" s="2"/>
+    </row>
+    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A493" s="1"/>
+    </row>
+    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A496" s="4"/>
+      <c r="G496" s="4"/>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B500" s="6"/>
-    </row>
-    <row r="505" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A505" s="1"/>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A507" s="6"/>
-      <c r="G507" s="6"/>
-    </row>
-    <row r="508" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A508" s="4"/>
-      <c r="G508" s="4"/>
+      <c r="B500" s="5"/>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B501" s="5"/>
+    </row>
+    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A502" s="1"/>
+      <c r="B502" s="2"/>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B504" s="6"/>
     </row>
     <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A509" s="4"/>
-      <c r="G509" s="4"/>
+      <c r="A509" s="1"/>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A511" s="6"/>
+      <c r="G511" s="6"/>
     </row>
     <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A512" s="1"/>
-      <c r="B512" s="2"/>
-    </row>
-    <row r="519" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A519" s="1"/>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B525" s="3"/>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B526" s="3"/>
-    </row>
-    <row r="528" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A528" s="1"/>
-      <c r="B528" s="2"/>
-    </row>
-    <row r="535" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A535" s="1"/>
-    </row>
-    <row r="538" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A538" s="4"/>
-      <c r="G538" s="4"/>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B542" s="5"/>
-    </row>
-    <row r="544" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A544" s="1"/>
-      <c r="B544" s="2"/>
+      <c r="A512" s="4"/>
+      <c r="G512" s="4"/>
+    </row>
+    <row r="513" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A513" s="4"/>
+      <c r="G513" s="4"/>
+    </row>
+    <row r="516" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A516" s="1"/>
+      <c r="B516" s="2"/>
+    </row>
+    <row r="523" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A523" s="1"/>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B529" s="3"/>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B530" s="3"/>
+    </row>
+    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A532" s="1"/>
+      <c r="B532" s="2"/>
+    </row>
+    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A539" s="1"/>
+    </row>
+    <row r="542" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A542" s="4"/>
+      <c r="G542" s="4"/>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B546" s="6"/>
-    </row>
-    <row r="551" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A551" s="1"/>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A553" s="6"/>
-      <c r="G553" s="6"/>
-    </row>
-    <row r="554" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A554" s="4"/>
-      <c r="G554" s="4"/>
+      <c r="B546" s="5"/>
+    </row>
+    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A548" s="1"/>
+      <c r="B548" s="2"/>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B550" s="6"/>
     </row>
     <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A555" s="4"/>
-      <c r="G555" s="4"/>
-    </row>
-    <row r="557" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A557" s="1"/>
-      <c r="B557" s="2"/>
-    </row>
-    <row r="563" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A563" s="1"/>
-    </row>
-    <row r="568" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A568" s="1"/>
-      <c r="B568" s="2"/>
-    </row>
-    <row r="574" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A574" s="1"/>
+      <c r="A555" s="1"/>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A557" s="6"/>
+      <c r="G557" s="6"/>
+    </row>
+    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A558" s="4"/>
+      <c r="G558" s="4"/>
+    </row>
+    <row r="559" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A559" s="4"/>
+      <c r="G559" s="4"/>
+    </row>
+    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A561" s="1"/>
+      <c r="B561" s="2"/>
+    </row>
+    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A567" s="1"/>
+    </row>
+    <row r="572" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A572" s="1"/>
+      <c r="B572" s="2"/>
+    </row>
+    <row r="578" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A578" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -147,19 +147,10 @@
     <t>Gas-to-liquid plant</t>
   </si>
   <si>
-    <t>Carbon dioxide, from soil or biomass stock</t>
-  </si>
-  <si>
     <t>Kerosene, synthetic</t>
   </si>
   <si>
     <t>Adapted from van der Giesen et al. 2014. LHV: 45 MJ/kg, Formula: C13H18, Density: 7551 kg/m3. Economic allocation between 3 other co-products. Allocation key for this co-product: 6%.</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, to soil or biomass stock</t>
-  </si>
-  <si>
-    <t>soil</t>
   </si>
   <si>
     <t>Naphtha, synthetic</t>
@@ -321,6 +312,15 @@
     <t>Adapted from van der Giesen et al. 2014. Density of syngas: 0.470kg/m3 @1 bar. LHV: 23.9 MJ/kg.
 The source for CO2 is from the gasification step to produce the H2. Hence, it comes free of burden.
 However, this means we need to reduce here the amount of CO2 sequestered, as it effectively ends up in the fuel instead.</t>
+  </si>
+  <si>
+    <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, in air</t>
   </si>
 </sst>
 </file>
@@ -736,37 +736,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -774,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -782,15 +782,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -798,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -806,12 +806,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -831,13 +831,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>9</v>
@@ -846,9 +846,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
@@ -869,15 +869,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B12" s="10">
         <v>1.00057</v>
@@ -897,10 +897,10 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -925,15 +925,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" s="15">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>6</v>
@@ -947,18 +947,18 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B15" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>20</v>
@@ -972,12 +972,12 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B16" s="15">
         <v>1.04E-10</v>
@@ -997,18 +997,18 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>6</v>
@@ -1022,18 +1022,18 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B18" s="15">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>25</v>
@@ -1047,18 +1047,18 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>6</v>
@@ -1072,21 +1072,21 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B20" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
@@ -1097,12 +1097,12 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B21" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1111,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
@@ -1122,18 +1122,18 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="B22" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>25</v>
@@ -1147,12 +1147,12 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B23" s="15">
         <f>(B12-1)*3.14</f>
@@ -1174,20 +1174,20 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="16"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -1203,15 +1203,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -1227,12 +1227,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -1252,13 +1252,13 @@
         <v>3</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>9</v>
@@ -1267,9 +1267,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B33" s="10">
         <v>1</v>
@@ -1290,15 +1290,15 @@
         <v>100</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B34" s="10">
         <v>1.00057</v>
@@ -1321,7 +1321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
@@ -1346,15 +1346,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B36" s="10">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>6</v>
@@ -1368,18 +1368,18 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B37" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>20</v>
@@ -1393,12 +1393,12 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B38" s="15">
         <v>2.5999999999999998E-10</v>
@@ -1418,18 +1418,18 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B39" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>6</v>
@@ -1443,18 +1443,18 @@
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B40" s="15">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>25</v>
@@ -1468,18 +1468,18 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B41" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>6</v>
@@ -1493,21 +1493,21 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B42" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10" t="s">
@@ -1518,12 +1518,12 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B43" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1532,7 +1532,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10" t="s">
@@ -1543,18 +1543,18 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="B44" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>25</v>
@@ -1568,12 +1568,12 @@
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
       <c r="K44" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B45" s="15">
         <f>(B34-1)*3.14</f>
@@ -1595,20 +1595,20 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="16"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -1624,15 +1624,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
@@ -1648,12 +1648,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -1673,13 +1673,13 @@
         <v>3</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>9</v>
@@ -1688,9 +1688,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B55" s="10">
         <v>1</v>
@@ -1711,15 +1711,15 @@
         <v>100</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B56" s="10">
         <v>1.00057</v>
@@ -1739,10 +1739,10 @@
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>27</v>
       </c>
@@ -1767,15 +1767,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B58" s="15">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>6</v>
@@ -1789,18 +1789,18 @@
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B59" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>20</v>
@@ -1814,12 +1814,12 @@
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B60" s="15">
         <v>1.04E-10</v>
@@ -1839,18 +1839,18 @@
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B61" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>6</v>
@@ -1864,18 +1864,18 @@
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B62" s="15">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>25</v>
@@ -1889,18 +1889,18 @@
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B63" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>6</v>
@@ -1914,21 +1914,21 @@
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B64" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E64" s="10"/>
       <c r="F64" s="10" t="s">
@@ -1939,12 +1939,12 @@
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B65" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1953,7 +1953,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10" t="s">
@@ -1964,18 +1964,18 @@
       <c r="I65" s="10"/>
       <c r="J65" s="10"/>
       <c r="K65" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="B66" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>25</v>
@@ -1989,12 +1989,12 @@
       <c r="I66" s="10"/>
       <c r="J66" s="10"/>
       <c r="K66" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B67" s="15">
         <f>(B56-1)*3.14</f>
@@ -2016,20 +2016,20 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="16"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>7</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>1</v>
       </c>
@@ -2045,15 +2045,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -2069,12 +2069,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -2094,13 +2094,13 @@
         <v>3</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>9</v>
@@ -2109,9 +2109,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B77" s="10">
         <v>1</v>
@@ -2132,15 +2132,15 @@
         <v>100</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B78" s="10">
         <v>1.00057</v>
@@ -2163,7 +2163,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>27</v>
       </c>
@@ -2188,15 +2188,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B80" s="10">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>6</v>
@@ -2210,18 +2210,18 @@
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B81" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D81" s="10" t="s">
         <v>20</v>
@@ -2235,12 +2235,12 @@
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B82" s="15">
         <v>2.5999999999999998E-10</v>
@@ -2260,18 +2260,18 @@
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B83" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>6</v>
@@ -2285,18 +2285,18 @@
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B84" s="15">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>25</v>
@@ -2310,18 +2310,18 @@
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B85" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>6</v>
@@ -2335,21 +2335,21 @@
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B86" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
@@ -2360,12 +2360,12 @@
       <c r="I86" s="10"/>
       <c r="J86" s="10"/>
       <c r="K86" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B87" s="10">
         <v>3.2599999999999997E-2</v>
@@ -2374,7 +2374,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="10" t="s">
@@ -2385,18 +2385,18 @@
       <c r="I87" s="10"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="B88" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>25</v>
@@ -2410,12 +2410,12 @@
       <c r="I88" s="10"/>
       <c r="J88" s="10"/>
       <c r="K88" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B89" s="15">
         <f>(B78-1)*3.14</f>
@@ -2437,20 +2437,20 @@
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="16"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -2458,15 +2458,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>3</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>5</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>7</v>
       </c>
@@ -2490,15 +2490,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>37</v>
       </c>
@@ -2506,12 +2506,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -2540,9 +2540,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B101" s="9">
         <v>1</v>
@@ -2557,7 +2557,7 @@
         <v>15</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H101" s="9" t="s">
         <v>39</v>
@@ -2566,9 +2566,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B102" s="9">
         <v>0.73</v>
@@ -2589,7 +2589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>19</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>24</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>40</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>27</v>
       </c>
@@ -2675,9 +2675,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="B107" s="9">
         <v>2</v>
@@ -2686,7 +2686,7 @@
         <v>6</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>22</v>
@@ -2695,16 +2695,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>1</v>
       </c>
@@ -2712,15 +2712,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>3</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>5</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>7</v>
       </c>
@@ -2744,15 +2744,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>37</v>
       </c>
@@ -2760,12 +2760,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -2794,9 +2794,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B119" s="9">
         <v>1</v>
@@ -2811,15 +2811,15 @@
         <v>15</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H119" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B120" s="9">
         <v>0.65</v>
@@ -2840,7 +2840,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>19</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>24</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>40</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>27</v>
       </c>
@@ -2926,9 +2926,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="B125" s="9">
         <v>2.48</v>
@@ -2937,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>22</v>
@@ -2946,16 +2946,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>1</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>3</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>5</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>7</v>
       </c>
@@ -2995,15 +2995,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>37</v>
       </c>
@@ -3011,12 +3011,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -3045,9 +3045,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B137" s="9">
         <v>1</v>
@@ -3071,9 +3071,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B138" s="9">
         <v>0.98</v>
@@ -3094,7 +3094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>19</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>24</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>40</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>27</v>
       </c>
@@ -3180,9 +3180,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="B143" s="9">
         <v>1.82</v>
@@ -3191,7 +3191,7 @@
         <v>6</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F143" s="9" t="s">
         <v>22</v>
@@ -3200,16 +3200,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>1</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>3</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>5</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>7</v>
       </c>
@@ -3249,15 +3249,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>37</v>
       </c>
@@ -3265,12 +3265,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -3299,9 +3299,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B155" s="9">
         <v>1</v>
@@ -3325,9 +3325,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B156" s="9">
         <v>2.1</v>
@@ -3348,7 +3348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>19</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>24</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>40</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>27</v>
       </c>
@@ -3434,9 +3434,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B161" s="9">
         <v>0.13</v>
@@ -3454,18 +3454,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3473,15 +3473,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>3</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>5</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>7</v>
       </c>
@@ -3505,15 +3505,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>37</v>
       </c>
@@ -3521,12 +3521,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>11</v>
       </c>
@@ -3555,9 +3555,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B173" s="9">
         <v>1</v>
@@ -3572,7 +3572,7 @@
         <v>15</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H173" s="9" t="s">
         <v>39</v>
@@ -3581,9 +3581,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B174" s="9">
         <v>2.35</v>
@@ -3604,7 +3604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>19</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>24</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>40</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>27</v>
       </c>
@@ -3690,9 +3690,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B179" s="9">
         <v>0.22</v>
@@ -3710,16 +3710,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -3727,15 +3727,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>3</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>5</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>7</v>
       </c>
@@ -3759,15 +3759,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>37</v>
       </c>
@@ -3775,12 +3775,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>11</v>
       </c>
@@ -3809,9 +3809,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B191" s="9">
         <v>1</v>
@@ -3826,15 +3826,15 @@
         <v>15</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H191" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B192" s="9">
         <v>2.3199999999999998</v>
@@ -3855,7 +3855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>19</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>24</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>40</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>27</v>
       </c>
@@ -3941,9 +3941,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="B197" s="9">
         <v>0.19</v>
@@ -3952,7 +3952,7 @@
         <v>6</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>22</v>
@@ -3961,16 +3961,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>1</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>3</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>5</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>7</v>
       </c>
@@ -4010,15 +4010,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>37</v>
       </c>
@@ -4026,12 +4026,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -4060,9 +4060,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B209" s="9">
         <v>1</v>
@@ -4086,9 +4086,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B210" s="9">
         <v>2.2599999999999998</v>
@@ -4109,7 +4109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>19</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>24</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>40</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>27</v>
       </c>
@@ -4195,9 +4195,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="B215" s="9">
         <v>0.06</v>
@@ -4206,7 +4206,7 @@
         <v>6</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="F215" s="9" t="s">
         <v>22</v>
@@ -4215,16 +4215,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>37</v>
       </c>
@@ -4280,12 +4280,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -4308,9 +4308,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B227" s="9">
         <v>0.875</v>
@@ -4328,9 +4328,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B228" s="9">
         <v>0.125</v>
@@ -4345,10 +4345,10 @@
         <v>18</v>
       </c>
       <c r="G228" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>27</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>24</v>
       </c>
@@ -4386,9 +4386,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B231" s="9">
         <v>1</v>
@@ -4406,7 +4406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>31</v>
       </c>
@@ -4423,18 +4423,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B233" s="13"/>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>1</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>2</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>3</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>5</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>7</v>
       </c>
@@ -4474,20 +4474,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>11</v>
       </c>
@@ -4510,9 +4510,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B243" s="9">
         <v>1</v>
@@ -4530,9 +4530,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B244" s="9">
         <v>7.0000000000000007E-2</v>
@@ -4547,12 +4547,12 @@
         <v>18</v>
       </c>
       <c r="G244" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B245" s="11">
         <v>1.9300000000000002E-9</v>
@@ -4567,380 +4567,380 @@
         <v>18</v>
       </c>
       <c r="G245" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="10"/>
       <c r="B246" s="11"/>
       <c r="G246" s="10"/>
     </row>
-    <row r="248" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B255" s="3"/>
     </row>
-    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
     </row>
-    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="G267" s="4"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B272" s="5"/>
     </row>
-    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B275" s="6"/>
     </row>
-    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="G282" s="6"/>
     </row>
-    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="G284" s="4"/>
     </row>
-    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B301" s="3"/>
     </row>
-    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
     </row>
-    <row r="313" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="4"/>
       <c r="G313" s="4"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B321" s="6"/>
     </row>
-    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="G328" s="6"/>
     </row>
-    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="4"/>
       <c r="G330" s="4"/>
     </row>
-    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B347" s="3"/>
     </row>
-    <row r="349" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
     </row>
-    <row r="359" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A359" s="4"/>
       <c r="G359" s="4"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B364" s="5"/>
     </row>
-    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B367" s="6"/>
     </row>
-    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="G374" s="6"/>
     </row>
-    <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" s="4"/>
       <c r="G376" s="4"/>
     </row>
-    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B393" s="3"/>
     </row>
-    <row r="395" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
     </row>
-    <row r="405" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B410" s="5"/>
     </row>
-    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B413" s="6"/>
     </row>
-    <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="G420" s="6"/>
     </row>
-    <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="432" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B439" s="3"/>
     </row>
-    <row r="441" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
     </row>
-    <row r="451" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
       <c r="G451" s="4"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B455" s="5"/>
     </row>
-    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B459" s="6"/>
     </row>
-    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="G466" s="6"/>
     </row>
-    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
       <c r="G468" s="4"/>
     </row>
-    <row r="470" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="477" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B484" s="3"/>
     </row>
-    <row r="486" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
     </row>
-    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
       <c r="G496" s="4"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B501" s="5"/>
     </row>
-    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B504" s="6"/>
     </row>
-    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
       <c r="G511" s="6"/>
     </row>
-    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
       <c r="G513" s="4"/>
     </row>
-    <row r="516" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="523" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B530" s="3"/>
     </row>
-    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
     </row>
-    <row r="542" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A542" s="4"/>
       <c r="G542" s="4"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B546" s="5"/>
     </row>
-    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B550" s="6"/>
     </row>
-    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="6"/>
       <c r="G557" s="6"/>
     </row>
-    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A559" s="4"/>
       <c r="G559" s="4"/>
     </row>
-    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
     </row>
-    <row r="572" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="578" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="100">
   <si>
     <t>Activity</t>
   </si>
@@ -734,20 +734,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K578"/>
+  <dimension ref="A1:K577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="A232" sqref="A232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -755,10 +755,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -766,7 +766,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -774,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -790,7 +790,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -798,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -806,12 +806,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>92</v>
       </c>
@@ -875,7 +875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>87</v>
       </c>
@@ -900,7 +900,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -925,7 +925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
@@ -950,7 +950,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -975,7 +975,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>68</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>72</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>75</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>79</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>98</v>
       </c>
@@ -1174,12 +1174,12 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="16"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -1227,12 +1227,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>88</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>60</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>62</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>64</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>66</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>70</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>72</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>75</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>79</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>98</v>
       </c>
@@ -1595,12 +1595,12 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="16"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
@@ -1648,12 +1648,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>94</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>85</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>27</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>60</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>62</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>66</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>70</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>72</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>75</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>79</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>98</v>
       </c>
@@ -2016,12 +2016,12 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
       <c r="B68" s="16"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>7</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>1</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -2069,12 +2069,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>95</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>83</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>27</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>60</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>62</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>64</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>66</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>68</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>70</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>72</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>75</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>79</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>98</v>
       </c>
@@ -2437,12 +2437,12 @@
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="12"/>
       <c r="B90" s="16"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>3</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>5</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>7</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>37</v>
       </c>
@@ -2506,12 +2506,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>87</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>91</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>19</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>24</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>40</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>27</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>99</v>
       </c>
@@ -2695,8 +2695,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>1</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>3</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>5</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>7</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>37</v>
       </c>
@@ -2760,12 +2760,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>89</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>91</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>19</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>24</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>40</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>27</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>99</v>
       </c>
@@ -2946,8 +2946,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>1</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>3</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>5</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>7</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>37</v>
       </c>
@@ -3011,12 +3011,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>88</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>91</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>19</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>24</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>40</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>27</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>99</v>
       </c>
@@ -3200,8 +3200,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>1</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>3</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>5</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>7</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>37</v>
       </c>
@@ -3265,12 +3265,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>86</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>91</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>19</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>24</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>40</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>27</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>98</v>
       </c>
@@ -3454,10 +3454,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>0</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>3</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>5</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>7</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>37</v>
       </c>
@@ -3521,12 +3521,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>11</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>85</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>91</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>19</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>24</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>40</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>27</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>98</v>
       </c>
@@ -3710,8 +3710,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>0</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>3</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>5</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>7</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>37</v>
       </c>
@@ -3775,12 +3775,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>11</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>84</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>91</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>19</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>24</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>40</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>27</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>99</v>
       </c>
@@ -3961,8 +3961,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>1</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>3</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>5</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>7</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>37</v>
       </c>
@@ -4026,12 +4026,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
         <v>83</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>91</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>19</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
         <v>24</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
         <v>40</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>27</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>99</v>
       </c>
@@ -4215,8 +4215,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>37</v>
       </c>
@@ -4280,12 +4280,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>90</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="s">
         <v>82</v>
       </c>
@@ -4348,600 +4348,580 @@
         <v>51</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B229" s="9">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C229" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F229" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B230" s="9">
         <f>60*0.001/106.6</f>
         <v>5.6285178236397749E-4</v>
       </c>
+      <c r="D229" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E229" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F229" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B230" s="9">
+        <v>1</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D230" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E230" s="9" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F230" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G230" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B231" s="9">
+        <v>31</v>
+      </c>
+      <c r="B231" s="13">
+        <v>5.7100000000000004E-6</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="13"/>
+    </row>
+    <row r="233" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A233" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C231" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F231" s="9" t="s">
+      <c r="B234" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B239" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A240" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E241" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F241" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G241" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B242" s="9">
+        <v>1</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F242" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G231" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B232" s="13">
-        <v>5.7100000000000004E-6</v>
-      </c>
-      <c r="C232" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D232" s="9" t="s">
+      <c r="G242" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A243" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B243" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F243" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G243" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B244" s="11">
+        <v>1.9300000000000002E-9</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F232" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="13"/>
-    </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B234" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B235" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B237" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B239" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B240" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B242" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C242" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D242" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E242" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F242" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G242" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B243" s="9">
-        <v>1</v>
-      </c>
-      <c r="C243" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F243" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G243" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A244" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B244" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C244" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="F244" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G244" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B245" s="11">
-        <v>1.9300000000000002E-9</v>
-      </c>
-      <c r="C245" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F245" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G245" s="10" t="s">
+      <c r="G244" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="10"/>
-      <c r="B246" s="11"/>
-      <c r="G246" s="10"/>
-    </row>
-    <row r="248" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="10"/>
+      <c r="B245" s="11"/>
+      <c r="G245" s="10"/>
+    </row>
+    <row r="247" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B253" s="3"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B255" s="3"/>
-    </row>
-    <row r="257" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
-      <c r="B257" s="2"/>
-    </row>
-    <row r="264" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
-    </row>
-    <row r="267" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A267" s="4"/>
-      <c r="G267" s="4"/>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A256" s="1"/>
+      <c r="B256" s="2"/>
+    </row>
+    <row r="263" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="266" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A266" s="4"/>
+      <c r="G266" s="4"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B270" s="5"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B272" s="5"/>
-    </row>
-    <row r="273" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
-      <c r="B273" s="2"/>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B275" s="6"/>
-    </row>
-    <row r="280" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="6"/>
-      <c r="G282" s="6"/>
-    </row>
-    <row r="283" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A272" s="1"/>
+      <c r="B272" s="2"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B274" s="6"/>
+    </row>
+    <row r="279" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" s="6"/>
+      <c r="G281" s="6"/>
+    </row>
+    <row r="282" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A282" s="4"/>
+      <c r="G282" s="4"/>
+    </row>
+    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A284" s="4"/>
-      <c r="G284" s="4"/>
-    </row>
-    <row r="287" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
-      <c r="B287" s="2"/>
-    </row>
-    <row r="294" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A286" s="1"/>
+      <c r="B286" s="2"/>
+    </row>
+    <row r="293" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A293" s="1"/>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B299" s="3"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B301" s="3"/>
-    </row>
-    <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
-      <c r="B303" s="2"/>
-    </row>
-    <row r="310" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A310" s="1"/>
-    </row>
-    <row r="313" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A313" s="4"/>
-      <c r="G313" s="4"/>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A302" s="1"/>
+      <c r="B302" s="2"/>
+    </row>
+    <row r="309" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A309" s="1"/>
+    </row>
+    <row r="312" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A312" s="4"/>
+      <c r="G312" s="4"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B316" s="5"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B318" s="5"/>
-    </row>
-    <row r="319" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A319" s="1"/>
-      <c r="B319" s="2"/>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B321" s="6"/>
-    </row>
-    <row r="326" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A326" s="1"/>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="6"/>
-      <c r="G328" s="6"/>
-    </row>
-    <row r="329" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A318" s="1"/>
+      <c r="B318" s="2"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B320" s="6"/>
+    </row>
+    <row r="325" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A325" s="1"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327" s="6"/>
+      <c r="G327" s="6"/>
+    </row>
+    <row r="328" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A328" s="4"/>
+      <c r="G328" s="4"/>
+    </row>
+    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A330" s="4"/>
-      <c r="G330" s="4"/>
-    </row>
-    <row r="333" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A333" s="1"/>
-      <c r="B333" s="2"/>
-    </row>
-    <row r="340" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A340" s="1"/>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A332" s="1"/>
+      <c r="B332" s="2"/>
+    </row>
+    <row r="339" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A339" s="1"/>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B345" s="3"/>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B347" s="3"/>
-    </row>
-    <row r="349" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A349" s="1"/>
-      <c r="B349" s="2"/>
-    </row>
-    <row r="356" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A356" s="1"/>
-    </row>
-    <row r="359" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A359" s="4"/>
-      <c r="G359" s="4"/>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A348" s="1"/>
+      <c r="B348" s="2"/>
+    </row>
+    <row r="355" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A355" s="1"/>
+    </row>
+    <row r="358" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A358" s="4"/>
+      <c r="G358" s="4"/>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B362" s="5"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B364" s="5"/>
-    </row>
-    <row r="365" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A365" s="1"/>
-      <c r="B365" s="2"/>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B367" s="6"/>
-    </row>
-    <row r="372" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A372" s="1"/>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374" s="6"/>
-      <c r="G374" s="6"/>
-    </row>
-    <row r="375" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A364" s="1"/>
+      <c r="B364" s="2"/>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B366" s="6"/>
+    </row>
+    <row r="371" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A371" s="1"/>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A373" s="6"/>
+      <c r="G373" s="6"/>
+    </row>
+    <row r="374" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A374" s="4"/>
+      <c r="G374" s="4"/>
+    </row>
+    <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A376" s="4"/>
-      <c r="G376" s="4"/>
-    </row>
-    <row r="379" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A379" s="1"/>
-      <c r="B379" s="2"/>
-    </row>
-    <row r="386" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A386" s="1"/>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A378" s="1"/>
+      <c r="B378" s="2"/>
+    </row>
+    <row r="385" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A385" s="1"/>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B391" s="3"/>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B393" s="3"/>
-    </row>
-    <row r="395" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A395" s="1"/>
-      <c r="B395" s="2"/>
-    </row>
-    <row r="402" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A402" s="1"/>
-    </row>
-    <row r="405" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A405" s="4"/>
-      <c r="G405" s="4"/>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A394" s="1"/>
+      <c r="B394" s="2"/>
+    </row>
+    <row r="401" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A401" s="1"/>
+    </row>
+    <row r="404" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A404" s="4"/>
+      <c r="G404" s="4"/>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B408" s="5"/>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B410" s="5"/>
-    </row>
-    <row r="411" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A411" s="1"/>
-      <c r="B411" s="2"/>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B413" s="6"/>
-    </row>
-    <row r="418" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A418" s="1"/>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="6"/>
-      <c r="G420" s="6"/>
-    </row>
-    <row r="421" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A410" s="1"/>
+      <c r="B410" s="2"/>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B412" s="6"/>
+    </row>
+    <row r="417" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A417" s="1"/>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A419" s="6"/>
+      <c r="G419" s="6"/>
+    </row>
+    <row r="420" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A420" s="4"/>
+      <c r="G420" s="4"/>
+    </row>
+    <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A422" s="4"/>
-      <c r="G422" s="4"/>
-    </row>
-    <row r="425" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A425" s="1"/>
-      <c r="B425" s="2"/>
-    </row>
-    <row r="432" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A432" s="1"/>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A424" s="1"/>
+      <c r="B424" s="2"/>
+    </row>
+    <row r="431" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A431" s="1"/>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B437" s="3"/>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B439" s="3"/>
-    </row>
-    <row r="441" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A441" s="1"/>
-      <c r="B441" s="2"/>
-    </row>
-    <row r="448" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A448" s="1"/>
-    </row>
-    <row r="451" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A451" s="4"/>
-      <c r="G451" s="4"/>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B455" s="5"/>
-    </row>
-    <row r="457" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A457" s="1"/>
-      <c r="B457" s="2"/>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B459" s="6"/>
-    </row>
-    <row r="464" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A464" s="1"/>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A466" s="6"/>
-      <c r="G466" s="6"/>
-    </row>
-    <row r="467" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A440" s="1"/>
+      <c r="B440" s="2"/>
+    </row>
+    <row r="447" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A447" s="1"/>
+    </row>
+    <row r="450" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A450" s="4"/>
+      <c r="G450" s="4"/>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B454" s="5"/>
+    </row>
+    <row r="456" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A456" s="1"/>
+      <c r="B456" s="2"/>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B458" s="6"/>
+    </row>
+    <row r="463" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A463" s="1"/>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A465" s="6"/>
+      <c r="G465" s="6"/>
+    </row>
+    <row r="466" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A466" s="4"/>
+      <c r="G466" s="4"/>
+    </row>
+    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A468" s="4"/>
-      <c r="G468" s="4"/>
-    </row>
-    <row r="470" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A470" s="1"/>
-      <c r="B470" s="2"/>
-    </row>
-    <row r="477" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A477" s="1"/>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A469" s="1"/>
+      <c r="B469" s="2"/>
+    </row>
+    <row r="476" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A476" s="1"/>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B482" s="3"/>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B484" s="3"/>
-    </row>
-    <row r="486" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A486" s="1"/>
-      <c r="B486" s="2"/>
-    </row>
-    <row r="493" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A493" s="1"/>
-    </row>
-    <row r="496" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A496" s="4"/>
-      <c r="G496" s="4"/>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A485" s="1"/>
+      <c r="B485" s="2"/>
+    </row>
+    <row r="492" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A492" s="1"/>
+    </row>
+    <row r="495" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A495" s="4"/>
+      <c r="G495" s="4"/>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B499" s="5"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B501" s="5"/>
-    </row>
-    <row r="502" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A502" s="1"/>
-      <c r="B502" s="2"/>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B504" s="6"/>
-    </row>
-    <row r="509" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A509" s="1"/>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A511" s="6"/>
-      <c r="G511" s="6"/>
-    </row>
-    <row r="512" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A501" s="1"/>
+      <c r="B501" s="2"/>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B503" s="6"/>
+    </row>
+    <row r="508" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A508" s="1"/>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A510" s="6"/>
+      <c r="G510" s="6"/>
+    </row>
+    <row r="511" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A511" s="4"/>
+      <c r="G511" s="4"/>
+    </row>
+    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A513" s="4"/>
-      <c r="G513" s="4"/>
-    </row>
-    <row r="516" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A516" s="1"/>
-      <c r="B516" s="2"/>
-    </row>
-    <row r="523" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A523" s="1"/>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A515" s="1"/>
+      <c r="B515" s="2"/>
+    </row>
+    <row r="522" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A522" s="1"/>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B528" s="3"/>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B530" s="3"/>
-    </row>
-    <row r="532" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A532" s="1"/>
-      <c r="B532" s="2"/>
-    </row>
-    <row r="539" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A539" s="1"/>
-    </row>
-    <row r="542" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A542" s="4"/>
-      <c r="G542" s="4"/>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B546" s="5"/>
-    </row>
-    <row r="548" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A548" s="1"/>
-      <c r="B548" s="2"/>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B550" s="6"/>
-    </row>
-    <row r="555" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A555" s="1"/>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A557" s="6"/>
-      <c r="G557" s="6"/>
-    </row>
-    <row r="558" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A531" s="1"/>
+      <c r="B531" s="2"/>
+    </row>
+    <row r="538" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A538" s="1"/>
+    </row>
+    <row r="541" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A541" s="4"/>
+      <c r="G541" s="4"/>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B545" s="5"/>
+    </row>
+    <row r="547" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A547" s="1"/>
+      <c r="B547" s="2"/>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B549" s="6"/>
+    </row>
+    <row r="554" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A554" s="1"/>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A556" s="6"/>
+      <c r="G556" s="6"/>
+    </row>
+    <row r="557" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A557" s="4"/>
+      <c r="G557" s="4"/>
+    </row>
+    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A559" s="4"/>
-      <c r="G559" s="4"/>
-    </row>
-    <row r="561" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A561" s="1"/>
-      <c r="B561" s="2"/>
-    </row>
-    <row r="567" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A567" s="1"/>
-    </row>
-    <row r="572" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A572" s="1"/>
-      <c r="B572" s="2"/>
-    </row>
-    <row r="578" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A578" s="1"/>
+    <row r="560" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A560" s="1"/>
+      <c r="B560" s="2"/>
+    </row>
+    <row r="566" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A566" s="1"/>
+    </row>
+    <row r="571" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A571" s="1"/>
+      <c r="B571" s="2"/>
+    </row>
+    <row r="577" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A577" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="100">
   <si>
     <t>Activity</t>
   </si>
@@ -307,20 +307,20 @@
   </si>
   <si>
     <t>diesel production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, in air</t>
   </si>
   <si>
     <t>Adapted from van der Giesen et al. 2014. Density of syngas: 0.470kg/m3 @1 bar. LHV: 23.9 MJ/kg.
 The source for CO2 is from the gasification step to produce the H2. Hence, it comes free of burden.
-However, this means we need to reduce here the amount of CO2 sequestered, as it effectively ends up in the fuel instead.</t>
-  </si>
-  <si>
-    <t>natural resource::in air</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, non-fossil</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, in air</t>
+However, this means we need to reduce the CO2 amount emitted by the gasification process here, as it effectively ends up in the fuel instead.</t>
   </si>
 </sst>
 </file>
@@ -736,18 +736,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -755,10 +755,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -766,7 +766,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -774,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -790,7 +790,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -798,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -806,12 +806,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>92</v>
       </c>
@@ -875,7 +875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>87</v>
       </c>
@@ -900,7 +900,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -925,7 +925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
@@ -950,7 +950,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -975,7 +975,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>68</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>72</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>75</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>79</v>
       </c>
@@ -1150,9 +1150,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="15">
         <f>(B12-1)*3.14</f>
@@ -1174,12 +1174,12 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="16"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -1227,12 +1227,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>88</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>60</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>62</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>64</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>66</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>70</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>72</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>75</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>79</v>
       </c>
@@ -1571,9 +1571,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" s="15">
         <f>(B34-1)*3.14</f>
@@ -1595,12 +1595,12 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="16"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
@@ -1648,12 +1648,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>94</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>85</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>27</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>60</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>62</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>66</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>70</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>72</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>75</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>79</v>
       </c>
@@ -1992,9 +1992,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B67" s="15">
         <f>(B56-1)*3.14</f>
@@ -2016,12 +2016,12 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
       <c r="B68" s="16"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>7</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>1</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -2069,12 +2069,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>95</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>83</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>27</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>60</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>62</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>64</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>66</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>68</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>70</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>72</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>75</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>79</v>
       </c>
@@ -2413,9 +2413,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" s="15">
         <f>(B78-1)*3.14</f>
@@ -2437,12 +2437,12 @@
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="12"/>
       <c r="B90" s="16"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>3</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>5</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>7</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>37</v>
       </c>
@@ -2506,12 +2506,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>87</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>91</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>19</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>24</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>40</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>27</v>
       </c>
@@ -2675,9 +2675,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" s="9">
         <v>2</v>
@@ -2686,7 +2686,7 @@
         <v>6</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>22</v>
@@ -2695,8 +2695,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>1</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>3</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>5</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>7</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>37</v>
       </c>
@@ -2760,12 +2760,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>89</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>91</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>19</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>24</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>40</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>27</v>
       </c>
@@ -2926,9 +2926,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B125" s="9">
         <v>2.48</v>
@@ -2937,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>22</v>
@@ -2946,8 +2946,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>1</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>3</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>5</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>7</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>37</v>
       </c>
@@ -3011,12 +3011,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>88</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>91</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>19</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>24</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>40</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>27</v>
       </c>
@@ -3180,9 +3180,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B143" s="9">
         <v>1.82</v>
@@ -3191,7 +3191,7 @@
         <v>6</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F143" s="9" t="s">
         <v>22</v>
@@ -3200,8 +3200,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>1</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>3</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>5</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>7</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>37</v>
       </c>
@@ -3265,12 +3265,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>86</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>91</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>19</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>24</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>40</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>27</v>
       </c>
@@ -3434,9 +3434,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B161" s="9">
         <v>0.13</v>
@@ -3454,10 +3454,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>0</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>3</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>5</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>7</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>37</v>
       </c>
@@ -3521,12 +3521,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>11</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>85</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>91</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>19</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>24</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>40</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>27</v>
       </c>
@@ -3690,9 +3690,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B179" s="9">
         <v>0.22</v>
@@ -3710,8 +3710,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>0</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>3</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>5</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>7</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>37</v>
       </c>
@@ -3775,12 +3775,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>11</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>84</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>91</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>19</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>24</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>40</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>27</v>
       </c>
@@ -3941,9 +3941,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B197" s="9">
         <v>0.19</v>
@@ -3952,7 +3952,7 @@
         <v>6</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>22</v>
@@ -3961,8 +3961,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>1</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>3</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>5</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>7</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>37</v>
       </c>
@@ -4026,12 +4026,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
         <v>83</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>91</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>19</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
         <v>24</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
         <v>40</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>27</v>
       </c>
@@ -4195,9 +4195,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B215" s="9">
         <v>0.06</v>
@@ -4206,7 +4206,7 @@
         <v>6</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F215" s="9" t="s">
         <v>22</v>
@@ -4215,8 +4215,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>37</v>
       </c>
@@ -4280,12 +4280,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>90</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="s">
         <v>82</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>27</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="9" t="s">
         <v>24</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>91</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
         <v>31</v>
       </c>
@@ -4423,10 +4423,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B233" s="13"/>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
         <v>0</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>1</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>2</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>3</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9" t="s">
         <v>5</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>7</v>
       </c>
@@ -4474,20 +4474,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
         <v>11</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="9" t="s">
         <v>90</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="s">
         <v>82</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
         <v>52</v>
       </c>
@@ -4570,377 +4570,392 @@
         <v>53</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="10"/>
-      <c r="B246" s="11"/>
-      <c r="G246" s="10"/>
-    </row>
-    <row r="248" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B246" s="9">
+        <v>-1.57</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H246" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B255" s="3"/>
     </row>
-    <row r="257" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="264" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
     </row>
-    <row r="267" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
       <c r="G267" s="4"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B272" s="5"/>
     </row>
-    <row r="273" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B275" s="6"/>
     </row>
-    <row r="280" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="6"/>
       <c r="G282" s="6"/>
     </row>
-    <row r="283" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="4"/>
       <c r="G284" s="4"/>
     </row>
-    <row r="287" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B301" s="3"/>
     </row>
-    <row r="303" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="310" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
     </row>
-    <row r="313" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="4"/>
       <c r="G313" s="4"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B321" s="6"/>
     </row>
-    <row r="326" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="6"/>
       <c r="G328" s="6"/>
     </row>
-    <row r="329" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="4"/>
       <c r="G330" s="4"/>
     </row>
-    <row r="333" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B347" s="3"/>
     </row>
-    <row r="349" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="356" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
     </row>
-    <row r="359" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A359" s="4"/>
       <c r="G359" s="4"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B364" s="5"/>
     </row>
-    <row r="365" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B367" s="6"/>
     </row>
-    <row r="372" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="6"/>
       <c r="G374" s="6"/>
     </row>
-    <row r="375" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A376" s="4"/>
       <c r="G376" s="4"/>
     </row>
-    <row r="379" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B393" s="3"/>
     </row>
-    <row r="395" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="402" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
     </row>
-    <row r="405" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B410" s="5"/>
     </row>
-    <row r="411" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B413" s="6"/>
     </row>
-    <row r="418" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="6"/>
       <c r="G420" s="6"/>
     </row>
-    <row r="421" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="432" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B439" s="3"/>
     </row>
-    <row r="441" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
     </row>
-    <row r="451" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A451" s="4"/>
       <c r="G451" s="4"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B455" s="5"/>
     </row>
-    <row r="457" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B459" s="6"/>
     </row>
-    <row r="464" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="6"/>
       <c r="G466" s="6"/>
     </row>
-    <row r="467" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A468" s="4"/>
       <c r="G468" s="4"/>
     </row>
-    <row r="470" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="477" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B484" s="3"/>
     </row>
-    <row r="486" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="493" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
     </row>
-    <row r="496" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A496" s="4"/>
       <c r="G496" s="4"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B501" s="5"/>
     </row>
-    <row r="502" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B504" s="6"/>
     </row>
-    <row r="509" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="6"/>
       <c r="G511" s="6"/>
     </row>
-    <row r="512" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A513" s="4"/>
       <c r="G513" s="4"/>
     </row>
-    <row r="516" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="523" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B530" s="3"/>
     </row>
-    <row r="532" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="539" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
     </row>
-    <row r="542" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A542" s="4"/>
       <c r="G542" s="4"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B546" s="5"/>
     </row>
-    <row r="548" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B550" s="6"/>
     </row>
-    <row r="555" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" s="6"/>
       <c r="G557" s="6"/>
     </row>
-    <row r="558" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A559" s="4"/>
       <c r="G559" s="4"/>
     </row>
-    <row r="561" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
     </row>
-    <row r="572" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="578" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="100">
   <si>
     <t>Activity</t>
   </si>
@@ -307,20 +307,20 @@
   </si>
   <si>
     <t>diesel production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, in air</t>
   </si>
   <si>
     <t>Adapted from van der Giesen et al. 2014. Density of syngas: 0.470kg/m3 @1 bar. LHV: 23.9 MJ/kg.
 The source for CO2 is from the gasification step to produce the H2. Hence, it comes free of burden.
-However, this means we need to reduce here the amount of CO2 sequestered, as it effectively ends up in the fuel instead.</t>
-  </si>
-  <si>
-    <t>natural resource::in air</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, non-fossil</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, in air</t>
+However, this means we need to reduce the CO2 amount emitted by the gasification process here, as it effectively ends up in the fuel instead.</t>
   </si>
 </sst>
 </file>
@@ -734,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K577"/>
+  <dimension ref="A1:K578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="A232" sqref="A232"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="15">
         <f>(B12-1)*3.14</f>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" s="15">
         <f>(B34-1)*3.14</f>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B67" s="15">
         <f>(B56-1)*3.14</f>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" s="15">
         <f>(B78-1)*3.14</f>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" s="9">
         <v>2</v>
@@ -2686,7 +2686,7 @@
         <v>6</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F107" s="9" t="s">
         <v>22</v>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B125" s="9">
         <v>2.48</v>
@@ -2937,7 +2937,7 @@
         <v>6</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>22</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B143" s="9">
         <v>1.82</v>
@@ -3191,7 +3191,7 @@
         <v>6</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F143" s="9" t="s">
         <v>22</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B161" s="9">
         <v>0.13</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B179" s="9">
         <v>0.22</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B197" s="9">
         <v>0.19</v>
@@ -3952,7 +3952,7 @@
         <v>6</v>
       </c>
       <c r="E197" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F197" s="9" t="s">
         <v>22</v>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B215" s="9">
         <v>0.06</v>
@@ -4206,7 +4206,7 @@
         <v>6</v>
       </c>
       <c r="E215" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F215" s="9" t="s">
         <v>22</v>
@@ -4350,578 +4350,613 @@
     </row>
     <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B229" s="9">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F229" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G229" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B229" s="9">
+      <c r="B230" s="9">
         <f>60*0.001/106.6</f>
         <v>5.6285178236397749E-4</v>
       </c>
-      <c r="D229" s="9" t="s">
+      <c r="D230" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E229" s="9" t="s">
+      <c r="E230" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F229" s="9" t="s">
+      <c r="F230" s="9" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B230" s="9">
-        <v>1</v>
-      </c>
-      <c r="C230" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F230" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G230" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B231" s="9">
+        <v>1</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G231" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B231" s="13">
+      <c r="B232" s="13">
         <v>5.7100000000000004E-6</v>
       </c>
-      <c r="C231" s="9" t="s">
+      <c r="C232" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D231" s="9" t="s">
+      <c r="D232" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F231" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="13"/>
-    </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A233" s="7" t="s">
+      <c r="F232" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="13"/>
+    </row>
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A234" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B233" s="8" t="s">
+      <c r="B234" s="8" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B234" s="9">
-        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="B235" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B239" s="17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A240" s="7" t="s">
+      <c r="B240" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A241" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="9" t="s">
+    <row r="242" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B241" s="9" t="s">
+      <c r="B242" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C241" s="9" t="s">
+      <c r="C242" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="D242" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E241" s="9" t="s">
+      <c r="E242" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F241" s="9" t="s">
+      <c r="F242" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G241" s="9" t="s">
+      <c r="G242" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="9" t="s">
+    <row r="243" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B242" s="9">
+      <c r="B243" s="9">
         <v>1</v>
       </c>
-      <c r="C242" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F242" s="9" t="s">
+      <c r="C243" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F243" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G242" s="9" t="s">
+      <c r="G243" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A243" s="12" t="s">
+    <row r="244" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A244" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B243" s="9">
+      <c r="B244" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C243" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F243" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" s="12" t="s">
+      <c r="C244" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F244" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G244" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="10" t="s">
+    <row r="245" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B244" s="11">
+      <c r="B245" s="11">
         <v>1.9300000000000002E-9</v>
       </c>
-      <c r="C244" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="9" t="s">
+      <c r="C245" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F244" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G244" s="10" t="s">
+      <c r="F245" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G245" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="10"/>
-      <c r="B245" s="11"/>
-      <c r="G245" s="10"/>
-    </row>
-    <row r="247" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A247" s="1"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B253" s="3"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B246" s="9">
+        <v>-1.57</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H246" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B254" s="3"/>
     </row>
-    <row r="256" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A256" s="1"/>
-      <c r="B256" s="2"/>
-    </row>
-    <row r="263" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A263" s="1"/>
-    </row>
-    <row r="266" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A266" s="4"/>
-      <c r="G266" s="4"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B270" s="5"/>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B255" s="3"/>
+    </row>
+    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A257" s="1"/>
+      <c r="B257" s="2"/>
+    </row>
+    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A267" s="4"/>
+      <c r="G267" s="4"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A272" s="1"/>
-      <c r="B272" s="2"/>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B274" s="6"/>
-    </row>
-    <row r="279" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A279" s="1"/>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A281" s="6"/>
-      <c r="G281" s="6"/>
-    </row>
-    <row r="282" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A282" s="4"/>
-      <c r="G282" s="4"/>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B272" s="5"/>
+    </row>
+    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A273" s="1"/>
+      <c r="B273" s="2"/>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B275" s="6"/>
+    </row>
+    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A280" s="1"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" s="6"/>
+      <c r="G282" s="6"/>
     </row>
     <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="286" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A286" s="1"/>
-      <c r="B286" s="2"/>
-    </row>
-    <row r="293" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A293" s="1"/>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B299" s="3"/>
+    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A284" s="4"/>
+      <c r="G284" s="4"/>
+    </row>
+    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A287" s="1"/>
+      <c r="B287" s="2"/>
+    </row>
+    <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A294" s="1"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B300" s="3"/>
     </row>
-    <row r="302" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A302" s="1"/>
-      <c r="B302" s="2"/>
-    </row>
-    <row r="309" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A309" s="1"/>
-    </row>
-    <row r="312" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A312" s="4"/>
-      <c r="G312" s="4"/>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B316" s="5"/>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B301" s="3"/>
+    </row>
+    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A303" s="1"/>
+      <c r="B303" s="2"/>
+    </row>
+    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A310" s="1"/>
+    </row>
+    <row r="313" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A313" s="4"/>
+      <c r="G313" s="4"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A318" s="1"/>
-      <c r="B318" s="2"/>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B320" s="6"/>
-    </row>
-    <row r="325" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A325" s="1"/>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A327" s="6"/>
-      <c r="G327" s="6"/>
-    </row>
-    <row r="328" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A328" s="4"/>
-      <c r="G328" s="4"/>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B318" s="5"/>
+    </row>
+    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A319" s="1"/>
+      <c r="B319" s="2"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B321" s="6"/>
+    </row>
+    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A326" s="1"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328" s="6"/>
+      <c r="G328" s="6"/>
     </row>
     <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="332" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A332" s="1"/>
-      <c r="B332" s="2"/>
-    </row>
-    <row r="339" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A339" s="1"/>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B345" s="3"/>
+    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A330" s="4"/>
+      <c r="G330" s="4"/>
+    </row>
+    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A333" s="1"/>
+      <c r="B333" s="2"/>
+    </row>
+    <row r="340" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A340" s="1"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B346" s="3"/>
     </row>
-    <row r="348" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A348" s="1"/>
-      <c r="B348" s="2"/>
-    </row>
-    <row r="355" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A355" s="1"/>
-    </row>
-    <row r="358" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A358" s="4"/>
-      <c r="G358" s="4"/>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B362" s="5"/>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B347" s="3"/>
+    </row>
+    <row r="349" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A349" s="1"/>
+      <c r="B349" s="2"/>
+    </row>
+    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A356" s="1"/>
+    </row>
+    <row r="359" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A359" s="4"/>
+      <c r="G359" s="4"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A364" s="1"/>
-      <c r="B364" s="2"/>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B366" s="6"/>
-    </row>
-    <row r="371" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A371" s="1"/>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A373" s="6"/>
-      <c r="G373" s="6"/>
-    </row>
-    <row r="374" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A374" s="4"/>
-      <c r="G374" s="4"/>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B364" s="5"/>
+    </row>
+    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A365" s="1"/>
+      <c r="B365" s="2"/>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B367" s="6"/>
+    </row>
+    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A372" s="1"/>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A374" s="6"/>
+      <c r="G374" s="6"/>
     </row>
     <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="378" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A378" s="1"/>
-      <c r="B378" s="2"/>
-    </row>
-    <row r="385" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A385" s="1"/>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B391" s="3"/>
+    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A376" s="4"/>
+      <c r="G376" s="4"/>
+    </row>
+    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A379" s="1"/>
+      <c r="B379" s="2"/>
+    </row>
+    <row r="386" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A386" s="1"/>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B392" s="3"/>
     </row>
-    <row r="394" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A394" s="1"/>
-      <c r="B394" s="2"/>
-    </row>
-    <row r="401" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A401" s="1"/>
-    </row>
-    <row r="404" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A404" s="4"/>
-      <c r="G404" s="4"/>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B408" s="5"/>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B393" s="3"/>
+    </row>
+    <row r="395" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A395" s="1"/>
+      <c r="B395" s="2"/>
+    </row>
+    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A402" s="1"/>
+    </row>
+    <row r="405" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A405" s="4"/>
+      <c r="G405" s="4"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A410" s="1"/>
-      <c r="B410" s="2"/>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B412" s="6"/>
-    </row>
-    <row r="417" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A417" s="1"/>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A419" s="6"/>
-      <c r="G419" s="6"/>
-    </row>
-    <row r="420" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A420" s="4"/>
-      <c r="G420" s="4"/>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B410" s="5"/>
+    </row>
+    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A411" s="1"/>
+      <c r="B411" s="2"/>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B413" s="6"/>
+    </row>
+    <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A418" s="1"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A420" s="6"/>
+      <c r="G420" s="6"/>
     </row>
     <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="424" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A424" s="1"/>
-      <c r="B424" s="2"/>
-    </row>
-    <row r="431" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A431" s="1"/>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B437" s="3"/>
+    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A422" s="4"/>
+      <c r="G422" s="4"/>
+    </row>
+    <row r="425" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A425" s="1"/>
+      <c r="B425" s="2"/>
+    </row>
+    <row r="432" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A432" s="1"/>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B438" s="3"/>
     </row>
-    <row r="440" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A440" s="1"/>
-      <c r="B440" s="2"/>
-    </row>
-    <row r="447" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A447" s="1"/>
-    </row>
-    <row r="450" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A450" s="4"/>
-      <c r="G450" s="4"/>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B454" s="5"/>
-    </row>
-    <row r="456" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A456" s="1"/>
-      <c r="B456" s="2"/>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B458" s="6"/>
-    </row>
-    <row r="463" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A463" s="1"/>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A465" s="6"/>
-      <c r="G465" s="6"/>
-    </row>
-    <row r="466" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A466" s="4"/>
-      <c r="G466" s="4"/>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B439" s="3"/>
+    </row>
+    <row r="441" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A441" s="1"/>
+      <c r="B441" s="2"/>
+    </row>
+    <row r="448" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A448" s="1"/>
+    </row>
+    <row r="451" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A451" s="4"/>
+      <c r="G451" s="4"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B455" s="5"/>
+    </row>
+    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A457" s="1"/>
+      <c r="B457" s="2"/>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B459" s="6"/>
+    </row>
+    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A464" s="1"/>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A466" s="6"/>
+      <c r="G466" s="6"/>
     </row>
     <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="469" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A469" s="1"/>
-      <c r="B469" s="2"/>
-    </row>
-    <row r="476" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A476" s="1"/>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B482" s="3"/>
+    <row r="468" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A468" s="4"/>
+      <c r="G468" s="4"/>
+    </row>
+    <row r="470" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A470" s="1"/>
+      <c r="B470" s="2"/>
+    </row>
+    <row r="477" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A477" s="1"/>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B483" s="3"/>
     </row>
-    <row r="485" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A485" s="1"/>
-      <c r="B485" s="2"/>
-    </row>
-    <row r="492" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A492" s="1"/>
-    </row>
-    <row r="495" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A495" s="4"/>
-      <c r="G495" s="4"/>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B499" s="5"/>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B484" s="3"/>
+    </row>
+    <row r="486" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A486" s="1"/>
+      <c r="B486" s="2"/>
+    </row>
+    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A493" s="1"/>
+    </row>
+    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A496" s="4"/>
+      <c r="G496" s="4"/>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A501" s="1"/>
-      <c r="B501" s="2"/>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B503" s="6"/>
-    </row>
-    <row r="508" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A508" s="1"/>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A510" s="6"/>
-      <c r="G510" s="6"/>
-    </row>
-    <row r="511" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A511" s="4"/>
-      <c r="G511" s="4"/>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B501" s="5"/>
+    </row>
+    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A502" s="1"/>
+      <c r="B502" s="2"/>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B504" s="6"/>
+    </row>
+    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A509" s="1"/>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A511" s="6"/>
+      <c r="G511" s="6"/>
     </row>
     <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="515" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A515" s="1"/>
-      <c r="B515" s="2"/>
-    </row>
-    <row r="522" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A522" s="1"/>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B528" s="3"/>
+    <row r="513" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A513" s="4"/>
+      <c r="G513" s="4"/>
+    </row>
+    <row r="516" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A516" s="1"/>
+      <c r="B516" s="2"/>
+    </row>
+    <row r="523" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A523" s="1"/>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B529" s="3"/>
     </row>
-    <row r="531" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A531" s="1"/>
-      <c r="B531" s="2"/>
-    </row>
-    <row r="538" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A538" s="1"/>
-    </row>
-    <row r="541" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A541" s="4"/>
-      <c r="G541" s="4"/>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B545" s="5"/>
-    </row>
-    <row r="547" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A547" s="1"/>
-      <c r="B547" s="2"/>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B549" s="6"/>
-    </row>
-    <row r="554" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A554" s="1"/>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A556" s="6"/>
-      <c r="G556" s="6"/>
-    </row>
-    <row r="557" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A557" s="4"/>
-      <c r="G557" s="4"/>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B530" s="3"/>
+    </row>
+    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A532" s="1"/>
+      <c r="B532" s="2"/>
+    </row>
+    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A539" s="1"/>
+    </row>
+    <row r="542" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A542" s="4"/>
+      <c r="G542" s="4"/>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B546" s="5"/>
+    </row>
+    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A548" s="1"/>
+      <c r="B548" s="2"/>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B550" s="6"/>
+    </row>
+    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A555" s="1"/>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A557" s="6"/>
+      <c r="G557" s="6"/>
     </row>
     <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="560" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A560" s="1"/>
-      <c r="B560" s="2"/>
-    </row>
-    <row r="566" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A566" s="1"/>
-    </row>
-    <row r="571" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A571" s="1"/>
-      <c r="B571" s="2"/>
-    </row>
-    <row r="577" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A577" s="1"/>
+    <row r="559" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A559" s="4"/>
+      <c r="G559" s="4"/>
+    </row>
+    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A561" s="1"/>
+      <c r="B561" s="2"/>
+    </row>
+    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A567" s="1"/>
+    </row>
+    <row r="572" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A572" s="1"/>
+      <c r="B572" s="2"/>
+    </row>
+    <row r="578" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A578" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B017D3-3941-B243-BE52-F2785C4B37B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="5"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="100">
   <si>
     <t>Activity</t>
   </si>
@@ -326,7 +339,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -733,21 +746,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K578"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240"/>
+      <selection activeCell="G232" sqref="G232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -755,10 +768,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -766,7 +779,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -774,7 +787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -782,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -790,7 +803,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -798,7 +811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -806,12 +819,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -846,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>92</v>
       </c>
@@ -875,7 +888,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>87</v>
       </c>
@@ -900,7 +913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -925,7 +938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
@@ -950,7 +963,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -975,7 +988,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
@@ -1000,7 +1013,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
@@ -1025,7 +1038,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>68</v>
       </c>
@@ -1050,7 +1063,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
@@ -1075,7 +1088,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>72</v>
       </c>
@@ -1100,7 +1113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>75</v>
       </c>
@@ -1125,7 +1138,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>79</v>
       </c>
@@ -1150,7 +1163,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>97</v>
       </c>
@@ -1174,12 +1187,12 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="16"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1200,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -1195,7 +1208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -1203,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1211,7 +1224,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -1227,12 +1240,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -1267,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
@@ -1296,7 +1309,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>88</v>
       </c>
@@ -1321,7 +1334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
@@ -1346,7 +1359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>60</v>
       </c>
@@ -1371,7 +1384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>62</v>
       </c>
@@ -1396,7 +1409,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>64</v>
       </c>
@@ -1421,7 +1434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>66</v>
       </c>
@@ -1446,7 +1459,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -1471,7 +1484,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>70</v>
       </c>
@@ -1496,7 +1509,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>72</v>
       </c>
@@ -1521,7 +1534,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>75</v>
       </c>
@@ -1546,7 +1559,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
         <v>79</v>
       </c>
@@ -1571,7 +1584,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>97</v>
       </c>
@@ -1595,12 +1608,12 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="16"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1621,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
@@ -1616,7 +1629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -1624,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
@@ -1632,7 +1645,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +1653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
@@ -1648,12 +1661,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>94</v>
       </c>
@@ -1717,7 +1730,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>85</v>
       </c>
@@ -1742,7 +1755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>27</v>
       </c>
@@ -1767,7 +1780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>60</v>
       </c>
@@ -1792,7 +1805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>62</v>
       </c>
@@ -1817,7 +1830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
@@ -1842,7 +1855,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>66</v>
       </c>
@@ -1867,7 +1880,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -1892,7 +1905,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>70</v>
       </c>
@@ -1917,7 +1930,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>72</v>
       </c>
@@ -1942,7 +1955,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>75</v>
       </c>
@@ -1967,7 +1980,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>79</v>
       </c>
@@ -1992,7 +2005,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>97</v>
       </c>
@@ -2016,12 +2029,12 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="12"/>
       <c r="B68" s="16"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +2042,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>7</v>
       </c>
@@ -2037,7 +2050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>1</v>
       </c>
@@ -2045,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
@@ -2053,7 +2066,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
@@ -2061,7 +2074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -2069,12 +2082,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -2109,7 +2122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>95</v>
       </c>
@@ -2138,7 +2151,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>83</v>
       </c>
@@ -2163,7 +2176,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>27</v>
       </c>
@@ -2188,7 +2201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>60</v>
       </c>
@@ -2213,7 +2226,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
         <v>62</v>
       </c>
@@ -2238,7 +2251,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
         <v>64</v>
       </c>
@@ -2263,7 +2276,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
         <v>66</v>
       </c>
@@ -2288,7 +2301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>68</v>
       </c>
@@ -2313,7 +2326,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
         <v>70</v>
       </c>
@@ -2338,7 +2351,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
         <v>72</v>
       </c>
@@ -2363,7 +2376,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
         <v>75</v>
       </c>
@@ -2388,7 +2401,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
         <v>79</v>
       </c>
@@ -2413,7 +2426,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
         <v>97</v>
       </c>
@@ -2437,12 +2450,12 @@
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="12"/>
       <c r="B90" s="16"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -2450,7 +2463,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -2458,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
@@ -2466,7 +2479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>3</v>
       </c>
@@ -2474,7 +2487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>5</v>
       </c>
@@ -2482,7 +2495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>7</v>
       </c>
@@ -2490,7 +2503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
@@ -2498,7 +2511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>37</v>
       </c>
@@ -2506,12 +2519,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -2540,7 +2553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>87</v>
       </c>
@@ -2566,7 +2579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>91</v>
       </c>
@@ -2589,7 +2602,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>19</v>
       </c>
@@ -2609,7 +2622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>24</v>
       </c>
@@ -2629,7 +2642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
         <v>40</v>
       </c>
@@ -2652,7 +2665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>27</v>
       </c>
@@ -2675,7 +2688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>98</v>
       </c>
@@ -2695,8 +2708,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -2704,7 +2717,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>1</v>
       </c>
@@ -2712,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
@@ -2720,7 +2733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>3</v>
       </c>
@@ -2728,7 +2741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>5</v>
       </c>
@@ -2736,7 +2749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>7</v>
       </c>
@@ -2744,7 +2757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
@@ -2752,7 +2765,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>37</v>
       </c>
@@ -2760,12 +2773,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -2794,7 +2807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>89</v>
       </c>
@@ -2817,7 +2830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>91</v>
       </c>
@@ -2840,7 +2853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>19</v>
       </c>
@@ -2860,7 +2873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>24</v>
       </c>
@@ -2880,7 +2893,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
         <v>40</v>
       </c>
@@ -2903,7 +2916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>27</v>
       </c>
@@ -2926,7 +2939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>98</v>
       </c>
@@ -2946,8 +2959,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -2955,7 +2968,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>1</v>
       </c>
@@ -2963,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
@@ -2971,7 +2984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>3</v>
       </c>
@@ -2979,7 +2992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>5</v>
       </c>
@@ -2987,7 +3000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>7</v>
       </c>
@@ -2995,7 +3008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
@@ -3003,7 +3016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>37</v>
       </c>
@@ -3011,12 +3024,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -3045,7 +3058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
         <v>88</v>
       </c>
@@ -3071,7 +3084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>91</v>
       </c>
@@ -3094,7 +3107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>19</v>
       </c>
@@ -3114,7 +3127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>24</v>
       </c>
@@ -3134,7 +3147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="10" t="s">
         <v>40</v>
       </c>
@@ -3157,7 +3170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>27</v>
       </c>
@@ -3180,7 +3193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>98</v>
       </c>
@@ -3200,8 +3213,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
@@ -3209,7 +3222,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>1</v>
       </c>
@@ -3217,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
@@ -3225,7 +3238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>3</v>
       </c>
@@ -3233,7 +3246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>5</v>
       </c>
@@ -3241,7 +3254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>7</v>
       </c>
@@ -3249,7 +3262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -3257,7 +3270,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>37</v>
       </c>
@@ -3265,12 +3278,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -3299,7 +3312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="10" t="s">
         <v>86</v>
       </c>
@@ -3325,7 +3338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>91</v>
       </c>
@@ -3348,7 +3361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>19</v>
       </c>
@@ -3368,7 +3381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
         <v>24</v>
       </c>
@@ -3388,7 +3401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="10" t="s">
         <v>40</v>
       </c>
@@ -3411,7 +3424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>27</v>
       </c>
@@ -3434,7 +3447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>97</v>
       </c>
@@ -3454,10 +3467,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>0</v>
       </c>
@@ -3465,7 +3478,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3473,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
@@ -3481,7 +3494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>3</v>
       </c>
@@ -3489,7 +3502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>5</v>
       </c>
@@ -3497,7 +3510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>7</v>
       </c>
@@ -3505,7 +3518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
@@ -3513,7 +3526,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>37</v>
       </c>
@@ -3521,12 +3534,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>11</v>
       </c>
@@ -3555,7 +3568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>85</v>
       </c>
@@ -3581,7 +3594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>91</v>
       </c>
@@ -3604,7 +3617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>19</v>
       </c>
@@ -3624,7 +3637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>24</v>
       </c>
@@ -3644,7 +3657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>40</v>
       </c>
@@ -3667,7 +3680,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>27</v>
       </c>
@@ -3690,7 +3703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>97</v>
       </c>
@@ -3710,8 +3723,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
         <v>0</v>
       </c>
@@ -3719,7 +3732,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -3727,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
@@ -3735,7 +3748,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>3</v>
       </c>
@@ -3743,7 +3756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
         <v>5</v>
       </c>
@@ -3751,7 +3764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
         <v>7</v>
       </c>
@@ -3759,7 +3772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
@@ -3767,7 +3780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
         <v>37</v>
       </c>
@@ -3775,12 +3788,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>11</v>
       </c>
@@ -3809,7 +3822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
         <v>84</v>
       </c>
@@ -3832,7 +3845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
         <v>91</v>
       </c>
@@ -3855,7 +3868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
         <v>19</v>
       </c>
@@ -3875,7 +3888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>24</v>
       </c>
@@ -3895,7 +3908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="10" t="s">
         <v>40</v>
       </c>
@@ -3918,7 +3931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>27</v>
       </c>
@@ -3941,7 +3954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9" t="s">
         <v>98</v>
       </c>
@@ -3961,8 +3974,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
@@ -3970,7 +3983,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
         <v>1</v>
       </c>
@@ -3978,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
@@ -3986,7 +3999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
         <v>3</v>
       </c>
@@ -3994,7 +4007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
         <v>5</v>
       </c>
@@ -4002,7 +4015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
         <v>7</v>
       </c>
@@ -4010,7 +4023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
@@ -4018,7 +4031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9" t="s">
         <v>37</v>
       </c>
@@ -4026,12 +4039,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -4060,7 +4073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="10" t="s">
         <v>83</v>
       </c>
@@ -4086,7 +4099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
         <v>91</v>
       </c>
@@ -4109,7 +4122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
         <v>19</v>
       </c>
@@ -4129,7 +4142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
         <v>24</v>
       </c>
@@ -4149,7 +4162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
         <v>40</v>
       </c>
@@ -4172,7 +4185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9" t="s">
         <v>27</v>
       </c>
@@ -4195,7 +4208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
         <v>98</v>
       </c>
@@ -4215,8 +4228,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
@@ -4224,7 +4237,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
@@ -4232,7 +4245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
@@ -4240,7 +4253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -4248,7 +4261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -4256,7 +4269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
@@ -4264,7 +4277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
@@ -4272,7 +4285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>37</v>
       </c>
@@ -4280,12 +4293,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -4308,7 +4321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
         <v>90</v>
       </c>
@@ -4328,7 +4341,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="12" t="s">
         <v>82</v>
       </c>
@@ -4348,7 +4361,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
         <v>27</v>
       </c>
@@ -4368,7 +4381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
         <v>24</v>
       </c>
@@ -4386,7 +4399,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9" t="s">
         <v>91</v>
       </c>
@@ -4406,7 +4419,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
         <v>31</v>
       </c>
@@ -4422,11 +4435,14 @@
       <c r="F232" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G232" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B233" s="13"/>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>0</v>
       </c>
@@ -4434,7 +4450,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
         <v>1</v>
       </c>
@@ -4442,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9" t="s">
         <v>2</v>
       </c>
@@ -4450,7 +4466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9" t="s">
         <v>3</v>
       </c>
@@ -4458,7 +4474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="9" t="s">
         <v>5</v>
       </c>
@@ -4466,7 +4482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
         <v>7</v>
       </c>
@@ -4474,7 +4490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="9" t="s">
         <v>9</v>
       </c>
@@ -4482,12 +4498,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="9" t="s">
         <v>11</v>
       </c>
@@ -4510,7 +4526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="9" t="s">
         <v>90</v>
       </c>
@@ -4530,7 +4546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="12" t="s">
         <v>82</v>
       </c>
@@ -4550,7 +4566,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="10" t="s">
         <v>52</v>
       </c>
@@ -4570,7 +4586,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="9" t="s">
         <v>97</v>
       </c>
@@ -4590,372 +4606,372 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B255" s="3"/>
     </row>
-    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
     </row>
-    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="G267" s="4"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B272" s="5"/>
     </row>
-    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B275" s="6"/>
     </row>
-    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="6"/>
       <c r="G282" s="6"/>
     </row>
-    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="G284" s="4"/>
     </row>
-    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B301" s="3"/>
     </row>
-    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
     </row>
-    <row r="313" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="G313" s="4"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B321" s="6"/>
     </row>
-    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" s="6"/>
       <c r="G328" s="6"/>
     </row>
-    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="G330" s="4"/>
     </row>
-    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B347" s="3"/>
     </row>
-    <row r="349" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
     </row>
-    <row r="359" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="G359" s="4"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B364" s="5"/>
     </row>
-    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B367" s="6"/>
     </row>
-    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" s="6"/>
       <c r="G374" s="6"/>
     </row>
-    <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="G376" s="4"/>
     </row>
-    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B393" s="3"/>
     </row>
-    <row r="395" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
     </row>
-    <row r="405" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B410" s="5"/>
     </row>
-    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B413" s="6"/>
     </row>
-    <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="6"/>
       <c r="G420" s="6"/>
     </row>
-    <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="432" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B439" s="3"/>
     </row>
-    <row r="441" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
     </row>
-    <row r="451" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="G451" s="4"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B455" s="5"/>
     </row>
-    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B459" s="6"/>
     </row>
-    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" s="6"/>
       <c r="G466" s="6"/>
     </row>
-    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="G468" s="4"/>
     </row>
-    <row r="470" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="477" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B484" s="3"/>
     </row>
-    <row r="486" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
     </row>
-    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="G496" s="4"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B501" s="5"/>
     </row>
-    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B504" s="6"/>
     </row>
-    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" s="6"/>
       <c r="G511" s="6"/>
     </row>
-    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="G513" s="4"/>
     </row>
-    <row r="516" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="523" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B530" s="3"/>
     </row>
-    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
     </row>
-    <row r="542" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="G542" s="4"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B546" s="5"/>
     </row>
-    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B550" s="6"/>
     </row>
-    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" s="6"/>
       <c r="G557" s="6"/>
     </row>
-    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="G559" s="4"/>
     </row>
-    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
     </row>
-    <row r="572" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="578" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
@@ -1,38 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B017D3-3941-B243-BE52-F2785C4B37B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="5"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="100">
   <si>
     <t>Activity</t>
   </si>
@@ -339,7 +326,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -746,21 +733,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K578"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="G232" sqref="G232"/>
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -768,10 +755,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -779,7 +766,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -787,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -795,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -803,7 +790,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -811,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -819,12 +806,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -859,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>92</v>
       </c>
@@ -888,7 +875,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>87</v>
       </c>
@@ -913,7 +900,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -938,7 +925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>60</v>
       </c>
@@ -963,7 +950,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>62</v>
       </c>
@@ -988,7 +975,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>64</v>
       </c>
@@ -1013,7 +1000,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>66</v>
       </c>
@@ -1038,7 +1025,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>68</v>
       </c>
@@ -1063,7 +1050,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
@@ -1088,7 +1075,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>72</v>
       </c>
@@ -1113,7 +1100,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>75</v>
       </c>
@@ -1138,7 +1125,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>79</v>
       </c>
@@ -1163,7 +1150,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>97</v>
       </c>
@@ -1187,12 +1174,12 @@
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="16"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1187,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>7</v>
       </c>
@@ -1208,7 +1195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>1</v>
       </c>
@@ -1216,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
@@ -1224,7 +1211,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>3</v>
       </c>
@@ -1232,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>5</v>
       </c>
@@ -1240,12 +1227,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>11</v>
       </c>
@@ -1280,7 +1267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
@@ -1309,7 +1296,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>88</v>
       </c>
@@ -1334,7 +1321,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>27</v>
       </c>
@@ -1359,7 +1346,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>60</v>
       </c>
@@ -1384,7 +1371,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>62</v>
       </c>
@@ -1409,7 +1396,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>64</v>
       </c>
@@ -1434,7 +1421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>66</v>
       </c>
@@ -1459,7 +1446,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>68</v>
       </c>
@@ -1484,7 +1471,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>70</v>
       </c>
@@ -1509,7 +1496,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>72</v>
       </c>
@@ -1534,7 +1521,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>75</v>
       </c>
@@ -1559,7 +1546,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>79</v>
       </c>
@@ -1584,7 +1571,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>97</v>
       </c>
@@ -1608,12 +1595,12 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="12"/>
       <c r="B46" s="16"/>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1608,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>7</v>
       </c>
@@ -1629,7 +1616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -1637,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>2</v>
       </c>
@@ -1645,7 +1632,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>3</v>
       </c>
@@ -1653,7 +1640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
@@ -1661,12 +1648,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>11</v>
       </c>
@@ -1701,7 +1688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>94</v>
       </c>
@@ -1730,7 +1717,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>85</v>
       </c>
@@ -1755,7 +1742,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>27</v>
       </c>
@@ -1780,7 +1767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>60</v>
       </c>
@@ -1805,7 +1792,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>62</v>
       </c>
@@ -1830,7 +1817,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>64</v>
       </c>
@@ -1855,7 +1842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>66</v>
       </c>
@@ -1880,7 +1867,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>68</v>
       </c>
@@ -1905,7 +1892,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>70</v>
       </c>
@@ -1930,7 +1917,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>72</v>
       </c>
@@ -1955,7 +1942,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>75</v>
       </c>
@@ -1980,7 +1967,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>79</v>
       </c>
@@ -2005,7 +1992,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>97</v>
       </c>
@@ -2029,12 +2016,12 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
       <c r="B68" s="16"/>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -2042,7 +2029,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>7</v>
       </c>
@@ -2050,7 +2037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>1</v>
       </c>
@@ -2058,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>2</v>
       </c>
@@ -2066,7 +2053,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>3</v>
       </c>
@@ -2074,7 +2061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>5</v>
       </c>
@@ -2082,12 +2069,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>11</v>
       </c>
@@ -2122,7 +2109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>95</v>
       </c>
@@ -2151,7 +2138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>83</v>
       </c>
@@ -2176,7 +2163,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>27</v>
       </c>
@@ -2201,7 +2188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>60</v>
       </c>
@@ -2226,7 +2213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>62</v>
       </c>
@@ -2251,7 +2238,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>64</v>
       </c>
@@ -2276,7 +2263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>66</v>
       </c>
@@ -2301,7 +2288,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>68</v>
       </c>
@@ -2326,7 +2313,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>70</v>
       </c>
@@ -2351,7 +2338,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>72</v>
       </c>
@@ -2376,7 +2363,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>75</v>
       </c>
@@ -2401,7 +2388,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>79</v>
       </c>
@@ -2426,7 +2413,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>97</v>
       </c>
@@ -2450,12 +2437,12 @@
       <c r="J89" s="10"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="12"/>
       <c r="B90" s="16"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -2463,7 +2450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>1</v>
       </c>
@@ -2471,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>2</v>
       </c>
@@ -2479,7 +2466,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>3</v>
       </c>
@@ -2487,7 +2474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>5</v>
       </c>
@@ -2495,7 +2482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>7</v>
       </c>
@@ -2503,7 +2490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>9</v>
       </c>
@@ -2511,7 +2498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>37</v>
       </c>
@@ -2519,12 +2506,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>11</v>
       </c>
@@ -2553,7 +2540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>87</v>
       </c>
@@ -2579,7 +2566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>91</v>
       </c>
@@ -2602,7 +2589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>19</v>
       </c>
@@ -2622,7 +2609,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>24</v>
       </c>
@@ -2642,7 +2629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>40</v>
       </c>
@@ -2665,7 +2652,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>27</v>
       </c>
@@ -2688,7 +2675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>98</v>
       </c>
@@ -2708,8 +2695,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -2717,7 +2704,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>1</v>
       </c>
@@ -2725,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>2</v>
       </c>
@@ -2733,7 +2720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>3</v>
       </c>
@@ -2741,7 +2728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>5</v>
       </c>
@@ -2749,7 +2736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>7</v>
       </c>
@@ -2757,7 +2744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>9</v>
       </c>
@@ -2765,7 +2752,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>37</v>
       </c>
@@ -2773,12 +2760,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -2807,7 +2794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>89</v>
       </c>
@@ -2830,7 +2817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>91</v>
       </c>
@@ -2853,7 +2840,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>19</v>
       </c>
@@ -2873,7 +2860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>24</v>
       </c>
@@ -2893,7 +2880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>40</v>
       </c>
@@ -2916,7 +2903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>27</v>
       </c>
@@ -2939,7 +2926,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>98</v>
       </c>
@@ -2959,8 +2946,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +2955,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>1</v>
       </c>
@@ -2976,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>2</v>
       </c>
@@ -2984,7 +2971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>3</v>
       </c>
@@ -2992,7 +2979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>5</v>
       </c>
@@ -3000,7 +2987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>7</v>
       </c>
@@ -3008,7 +2995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>9</v>
       </c>
@@ -3016,7 +3003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>37</v>
       </c>
@@ -3024,12 +3011,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -3058,7 +3045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>88</v>
       </c>
@@ -3084,7 +3071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>91</v>
       </c>
@@ -3107,7 +3094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>19</v>
       </c>
@@ -3127,7 +3114,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>24</v>
       </c>
@@ -3147,7 +3134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>40</v>
       </c>
@@ -3170,7 +3157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>27</v>
       </c>
@@ -3193,7 +3180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>98</v>
       </c>
@@ -3213,8 +3200,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
         <v>0</v>
       </c>
@@ -3222,7 +3209,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>1</v>
       </c>
@@ -3230,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>2</v>
       </c>
@@ -3238,7 +3225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>3</v>
       </c>
@@ -3246,7 +3233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>5</v>
       </c>
@@ -3254,7 +3241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>7</v>
       </c>
@@ -3262,7 +3249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>9</v>
       </c>
@@ -3270,7 +3257,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>37</v>
       </c>
@@ -3278,12 +3265,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>11</v>
       </c>
@@ -3312,7 +3299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>86</v>
       </c>
@@ -3338,7 +3325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>91</v>
       </c>
@@ -3361,7 +3348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>19</v>
       </c>
@@ -3381,7 +3368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>24</v>
       </c>
@@ -3401,7 +3388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>40</v>
       </c>
@@ -3424,7 +3411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>27</v>
       </c>
@@ -3447,7 +3434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>97</v>
       </c>
@@ -3467,10 +3454,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B162" s="11"/>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>0</v>
       </c>
@@ -3478,7 +3465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>1</v>
       </c>
@@ -3486,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>2</v>
       </c>
@@ -3494,7 +3481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>3</v>
       </c>
@@ -3502,7 +3489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>5</v>
       </c>
@@ -3510,7 +3497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>7</v>
       </c>
@@ -3518,7 +3505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>9</v>
       </c>
@@ -3526,7 +3513,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>37</v>
       </c>
@@ -3534,12 +3521,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>11</v>
       </c>
@@ -3568,7 +3555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>85</v>
       </c>
@@ -3594,7 +3581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>91</v>
       </c>
@@ -3617,7 +3604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>19</v>
       </c>
@@ -3637,7 +3624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>24</v>
       </c>
@@ -3657,7 +3644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>40</v>
       </c>
@@ -3680,7 +3667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>27</v>
       </c>
@@ -3703,7 +3690,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>97</v>
       </c>
@@ -3723,8 +3710,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="7" t="s">
         <v>0</v>
       </c>
@@ -3732,7 +3719,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>1</v>
       </c>
@@ -3740,7 +3727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>2</v>
       </c>
@@ -3748,7 +3735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>3</v>
       </c>
@@ -3756,7 +3743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>5</v>
       </c>
@@ -3764,7 +3751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>7</v>
       </c>
@@ -3772,7 +3759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>9</v>
       </c>
@@ -3780,7 +3767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>37</v>
       </c>
@@ -3788,12 +3775,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>11</v>
       </c>
@@ -3822,7 +3809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>84</v>
       </c>
@@ -3845,7 +3832,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>91</v>
       </c>
@@ -3868,7 +3855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>19</v>
       </c>
@@ -3888,7 +3875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>24</v>
       </c>
@@ -3908,7 +3895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>40</v>
       </c>
@@ -3931,7 +3918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>27</v>
       </c>
@@ -3954,7 +3941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>98</v>
       </c>
@@ -3974,8 +3961,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="7" t="s">
         <v>0</v>
       </c>
@@ -3983,7 +3970,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>1</v>
       </c>
@@ -3991,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>2</v>
       </c>
@@ -3999,7 +3986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>3</v>
       </c>
@@ -4007,7 +3994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>5</v>
       </c>
@@ -4015,7 +4002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>7</v>
       </c>
@@ -4023,7 +4010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
         <v>9</v>
       </c>
@@ -4031,7 +4018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>37</v>
       </c>
@@ -4039,12 +4026,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>11</v>
       </c>
@@ -4073,7 +4060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
         <v>83</v>
       </c>
@@ -4099,7 +4086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>91</v>
       </c>
@@ -4122,7 +4109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>19</v>
       </c>
@@ -4142,7 +4129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
         <v>24</v>
       </c>
@@ -4162,7 +4149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
         <v>40</v>
       </c>
@@ -4185,7 +4172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>27</v>
       </c>
@@ -4208,7 +4195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>98</v>
       </c>
@@ -4228,8 +4215,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="7" t="s">
         <v>0</v>
       </c>
@@ -4237,7 +4224,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>1</v>
       </c>
@@ -4245,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>2</v>
       </c>
@@ -4253,7 +4240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>3</v>
       </c>
@@ -4261,7 +4248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>5</v>
       </c>
@@ -4269,7 +4256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>7</v>
       </c>
@@ -4277,7 +4264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>9</v>
       </c>
@@ -4285,7 +4272,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>37</v>
       </c>
@@ -4293,12 +4280,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>11</v>
       </c>
@@ -4321,7 +4308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>90</v>
       </c>
@@ -4341,7 +4328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="s">
         <v>82</v>
       </c>
@@ -4361,7 +4348,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>27</v>
       </c>
@@ -4381,7 +4368,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="9" t="s">
         <v>24</v>
       </c>
@@ -4399,7 +4386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>91</v>
       </c>
@@ -4419,7 +4406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
         <v>31</v>
       </c>
@@ -4435,14 +4422,11 @@
       <c r="F232" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G232" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B233" s="13"/>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="7" t="s">
         <v>0</v>
       </c>
@@ -4450,7 +4434,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>1</v>
       </c>
@@ -4458,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>2</v>
       </c>
@@ -4466,7 +4450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>3</v>
       </c>
@@ -4474,7 +4458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="9" t="s">
         <v>5</v>
       </c>
@@ -4482,7 +4466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>7</v>
       </c>
@@ -4490,7 +4474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
         <v>9</v>
       </c>
@@ -4498,12 +4482,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
         <v>11</v>
       </c>
@@ -4526,7 +4510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="9" t="s">
         <v>90</v>
       </c>
@@ -4546,7 +4530,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:8" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="s">
         <v>82</v>
       </c>
@@ -4566,7 +4550,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="10" t="s">
         <v>52</v>
       </c>
@@ -4586,7 +4570,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="9" t="s">
         <v>97</v>
       </c>
@@ -4606,372 +4590,372 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B255" s="3"/>
     </row>
-    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
     </row>
-    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
       <c r="G267" s="4"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B272" s="5"/>
     </row>
-    <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B275" s="6"/>
     </row>
-    <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="6"/>
       <c r="G282" s="6"/>
     </row>
-    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="4"/>
       <c r="G284" s="4"/>
     </row>
-    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B301" s="3"/>
     </row>
-    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
     </row>
-    <row r="313" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="4"/>
       <c r="G313" s="4"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B321" s="6"/>
     </row>
-    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="6"/>
       <c r="G328" s="6"/>
     </row>
-    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="4"/>
       <c r="G330" s="4"/>
     </row>
-    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B347" s="3"/>
     </row>
-    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="356" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
     </row>
-    <row r="359" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A359" s="4"/>
       <c r="G359" s="4"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B364" s="5"/>
     </row>
-    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B367" s="6"/>
     </row>
-    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A372" s="1"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="6"/>
       <c r="G374" s="6"/>
     </row>
-    <row r="375" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A376" s="4"/>
       <c r="G376" s="4"/>
     </row>
-    <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A386" s="1"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B393" s="3"/>
     </row>
-    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="402" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A402" s="1"/>
     </row>
-    <row r="405" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B410" s="5"/>
     </row>
-    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B413" s="6"/>
     </row>
-    <row r="418" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A418" s="1"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="6"/>
       <c r="G420" s="6"/>
     </row>
-    <row r="421" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="432" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A432" s="1"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B439" s="3"/>
     </row>
-    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A448" s="1"/>
     </row>
-    <row r="451" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A451" s="4"/>
       <c r="G451" s="4"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B455" s="5"/>
     </row>
-    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B459" s="6"/>
     </row>
-    <row r="464" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A464" s="1"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="6"/>
       <c r="G466" s="6"/>
     </row>
-    <row r="467" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A468" s="4"/>
       <c r="G468" s="4"/>
     </row>
-    <row r="470" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="477" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A477" s="1"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B484" s="3"/>
     </row>
-    <row r="486" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="493" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A493" s="1"/>
     </row>
-    <row r="496" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A496" s="4"/>
       <c r="G496" s="4"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B501" s="5"/>
     </row>
-    <row r="502" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B504" s="6"/>
     </row>
-    <row r="509" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="6"/>
       <c r="G511" s="6"/>
     </row>
-    <row r="512" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A513" s="4"/>
       <c r="G513" s="4"/>
     </row>
-    <row r="516" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="523" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B530" s="3"/>
     </row>
-    <row r="532" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="539" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A539" s="1"/>
     </row>
-    <row r="542" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A542" s="4"/>
       <c r="G542" s="4"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B546" s="5"/>
     </row>
-    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B550" s="6"/>
     </row>
-    <row r="555" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A555" s="1"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557" s="6"/>
       <c r="G557" s="6"/>
     </row>
-    <row r="558" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A559" s="4"/>
       <c r="G559" s="4"/>
     </row>
-    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
     </row>
-    <row r="572" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="578" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A578" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7402E8F2-D640-E448-98B4-209701137F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="1660" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -326,7 +340,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -401,25 +415,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,21 +743,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:XFD106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -755,4207 +765,3924 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>1</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <v>100</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>1.00057</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10" t="s">
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10" t="s">
+      <c r="F13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="9">
         <v>1.8499999999999999E-5</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10" t="s">
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10" t="s">
+      <c r="F15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="9">
         <v>1.04E-10</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10" t="s">
+      <c r="F16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="s">
+      <c r="D17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="9">
         <v>-5.0000000000000002E-5</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10" t="s">
+      <c r="F18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10" t="s">
+      <c r="D19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10" t="s">
+      <c r="F20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10" t="s">
+      <c r="F21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10" t="s">
+      <c r="F22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="9">
         <f>(B12-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="16"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    </row>
+    <row r="24" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="13"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="B26" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="B30" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10" t="s">
+      <c r="C33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10">
+      <c r="I33" s="8">
         <v>100</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="8">
         <v>1.00057</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10" t="s">
+      <c r="C34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="8">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10" t="s">
+      <c r="F35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="8">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10" t="s">
+      <c r="D36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10" t="s">
+      <c r="F37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="9">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="C38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10" t="s">
+      <c r="F38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10" t="s">
+      <c r="D39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="9">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10" t="s">
+      <c r="F40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10" t="s">
+      <c r="D41" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10" t="s">
+      <c r="F42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="8">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="C43" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10" t="s">
+      <c r="F43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10" t="s">
+      <c r="F44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="9">
         <f>(B34-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="10" t="s">
+      <c r="D45" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="16"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
+    </row>
+    <row r="46" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="13"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
+      <c r="B48" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
+      <c r="B52" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+    <row r="54" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I54" s="9" t="s">
+      <c r="I54" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J54" s="9" t="s">
+      <c r="J54" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K54" s="9" t="s">
+      <c r="K54" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="10">
+      <c r="B55" s="8">
         <v>1</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10" t="s">
+      <c r="C55" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10">
+      <c r="I55" s="8">
         <v>100</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K55" s="12" t="s">
+      <c r="K55" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+    <row r="56" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="10">
+      <c r="B56" s="8">
         <v>1.00057</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10" t="s">
+      <c r="C56" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B57" s="8">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="10" t="s">
+      <c r="C57" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10" t="s">
+      <c r="F57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="9">
         <v>1.8499999999999999E-5</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10" t="s">
+      <c r="D58" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
+    <row r="59" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10" t="s">
+      <c r="F59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K59" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="9">
         <v>1.04E-10</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="10" t="s">
+      <c r="C60" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10" t="s">
+      <c r="F60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10" t="s">
+      <c r="D61" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="9">
         <v>-5.0000000000000002E-5</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10" t="s">
+      <c r="F62" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D63" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10" t="s">
+      <c r="D63" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
+    <row r="64" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10" t="s">
+      <c r="F64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
+    <row r="65" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="8">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="10" t="s">
+      <c r="C65" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10" t="s">
+      <c r="F65" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10" t="s">
+      <c r="F66" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
+    <row r="67" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B67" s="9">
         <f>(B56-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="10" t="s">
+      <c r="D67" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-    </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
-      <c r="B68" s="16"/>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
+    </row>
+    <row r="68" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
+      <c r="B68" s="13"/>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
+    <row r="70" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
+      <c r="B70" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
+    <row r="72" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
+    <row r="73" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="9" t="s">
+    <row r="74" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
+      <c r="B74" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
+    <row r="76" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G76" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="H76" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I76" s="9" t="s">
+      <c r="I76" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K76" s="9" t="s">
+      <c r="K76" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="10" t="s">
+    <row r="77" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B77" s="8">
         <v>1</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10" t="s">
+      <c r="C77" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10">
+      <c r="I77" s="8">
         <v>100</v>
       </c>
-      <c r="J77" s="10" t="s">
+      <c r="J77" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K77" s="12" t="s">
+      <c r="K77" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="10" t="s">
+    <row r="78" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B78" s="8">
         <v>1.00057</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10" t="s">
+      <c r="C78" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
+    <row r="79" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="10">
+      <c r="B79" s="8">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="10" t="s">
+      <c r="C79" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10" t="s">
+      <c r="F79" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
+    <row r="80" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B80" s="8">
         <v>-1.6799999999999999E-4</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D80" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10" t="s">
+      <c r="D80" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K80" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
+    <row r="81" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B81" s="15">
+      <c r="B81" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10" t="s">
+      <c r="F81" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K81" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="10" t="s">
+    <row r="82" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B82" s="15">
+      <c r="B82" s="9">
         <v>2.5999999999999998E-10</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="10" t="s">
+      <c r="C82" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10" t="s">
+      <c r="F82" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
+    <row r="83" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="15">
+      <c r="B83" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10" t="s">
+      <c r="D83" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
+    <row r="84" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B84" s="15">
+      <c r="B84" s="9">
         <v>-7.4999999999999993E-5</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10" t="s">
+      <c r="F84" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K84" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="10" t="s">
+    <row r="85" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B85" s="15">
+      <c r="B85" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D85" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10" t="s">
+      <c r="D85" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="10" t="s">
+    <row r="86" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B86" s="10">
+      <c r="B86" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10" t="s">
+      <c r="F86" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="10" t="s">
+    <row r="87" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="8">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="10" t="s">
+      <c r="C87" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10" t="s">
+      <c r="F87" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
+    <row r="88" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="15">
+      <c r="B88" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10" t="s">
+      <c r="F88" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="10" t="s">
+    <row r="89" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B89" s="15">
+      <c r="B89" s="9">
         <f>(B78-1)*3.14</f>
         <v>1.7897999999998727E-3</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="10" t="s">
+      <c r="D89" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-    </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="12"/>
-      <c r="B90" s="16"/>
-      <c r="G90" s="12"/>
-    </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="s">
+    </row>
+    <row r="90" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="10"/>
+      <c r="B90" s="13"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="9" t="s">
+    <row r="92" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="9" t="s">
+    <row r="93" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="9" t="s">
+    <row r="94" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="9" t="s">
+    <row r="95" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="9" t="s">
+      <c r="B95" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="9" t="s">
+      <c r="B96" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
+    <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
+    <row r="99" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="9" t="s">
+    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="E100" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H100" s="9" t="s">
+      <c r="H100" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I100" s="9" t="s">
+      <c r="I100" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="10" t="s">
+    <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="8">
         <v>1</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" s="9" t="s">
+      <c r="C101" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G101" s="9" t="s">
+      <c r="G101" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H101" s="9" t="s">
+      <c r="H101" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I101" s="9" t="s">
+      <c r="I101" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="9" t="s">
+    <row r="102" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B102" s="8">
         <v>0.73</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" s="9" t="s">
+      <c r="C102" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H102" s="9" t="s">
+      <c r="H102" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="9" t="s">
+    <row r="103" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B103" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D103" s="9" t="s">
+      <c r="B103" s="8">
+        <f>3.64160231884058*0.06</f>
+        <v>0.21849613913043478</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="F103" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H103" s="9" t="s">
+      <c r="H103" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="9" t="s">
+    <row r="104" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B104" s="9">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D104" s="9" t="s">
+      <c r="B104" s="8">
+        <f>0.00107549913043478*0.06</f>
+        <v>6.45299478260868E-5</v>
+      </c>
+      <c r="D104" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="F104" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H104" s="9" t="s">
+      <c r="H104" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="10" t="s">
+    <row r="105" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B105" s="11">
+      <c r="B105" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F105" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" s="10" t="s">
+      <c r="F105" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H105" s="9" t="s">
+      <c r="H105" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="9" t="s">
+    <row r="106" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B106" s="11">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="9" t="s">
+      <c r="B106" s="9">
+        <f>0.0872420618556701*0.06</f>
+        <v>5.234523711340206E-3</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F106" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" s="9" t="s">
+      <c r="F106" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H106" s="9" t="s">
+      <c r="H106" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="9" t="s">
+    <row r="107" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B107" s="8">
         <v>2</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E107" s="9" t="s">
+      <c r="D107" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="F107" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H107" s="9" t="s">
+      <c r="H107" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="7" t="s">
+    <row r="108" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="9" t="s">
+    <row r="110" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B110" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="9" t="s">
+    <row r="111" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="9" t="s">
+    <row r="112" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="9" t="s">
+    <row r="113" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="9" t="s">
+      <c r="B113" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B114" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="9" t="s">
+      <c r="B114" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="9" t="s">
+    <row r="116" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="7" t="s">
+    <row r="117" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="9" t="s">
+    <row r="118" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="9" t="s">
+      <c r="E118" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="F118" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G118" s="9" t="s">
+      <c r="G118" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H118" s="9" t="s">
+      <c r="H118" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I118" s="9" t="s">
+      <c r="I118" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="10" t="s">
+    <row r="119" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B119" s="8">
         <v>1</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F119" s="9" t="s">
+      <c r="C119" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G119" s="9" t="s">
+      <c r="G119" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H119" s="9" t="s">
+      <c r="H119" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="9" t="s">
+    <row r="120" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B120" s="9">
+      <c r="B120" s="8">
         <v>0.65</v>
       </c>
-      <c r="C120" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" s="9" t="s">
+      <c r="C120" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H120" s="9" t="s">
+      <c r="H120" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="9" t="s">
+    <row r="121" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B121" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D121" s="9" t="s">
+      <c r="B121" s="8">
+        <f>3.64160231884058*0.07</f>
+        <v>0.25491216231884062</v>
+      </c>
+      <c r="D121" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="F121" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H121" s="9" t="s">
+      <c r="H121" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="9" t="s">
+    <row r="122" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B122" s="9">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D122" s="9" t="s">
+      <c r="B122" s="8">
+        <f>0.00107549913043478*0.07</f>
+        <v>7.5284939130434612E-5</v>
+      </c>
+      <c r="D122" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="E122" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F122" s="9" t="s">
+      <c r="F122" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H122" s="9" t="s">
+      <c r="H122" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="10" t="s">
+    <row r="123" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B123" s="11">
+      <c r="B123" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C123" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F123" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" s="10" t="s">
+      <c r="F123" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H123" s="9" t="s">
+      <c r="H123" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="9" t="s">
+    <row r="124" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B124" s="11">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="9" t="s">
+      <c r="B124" s="9">
+        <f>0.0872420618556701*0.07</f>
+        <v>6.106944329896908E-3</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F124" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" s="9" t="s">
+      <c r="F124" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H124" s="9" t="s">
+      <c r="H124" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="9" t="s">
+    <row r="125" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125" s="8">
         <v>2.48</v>
       </c>
-      <c r="D125" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E125" s="9" t="s">
+      <c r="D125" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="F125" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H125" s="9" t="s">
+      <c r="H125" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="7" t="s">
+    <row r="126" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="9" t="s">
+    <row r="128" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="9" t="s">
+    <row r="129" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="9" t="s">
+    <row r="130" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="9" t="s">
+    <row r="131" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B131" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="9" t="s">
+      <c r="B131" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B132" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="9" t="s">
+      <c r="B132" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="9" t="s">
+    <row r="134" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A135" s="7" t="s">
+    <row r="135" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="9" t="s">
+    <row r="136" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E136" s="9" t="s">
+      <c r="E136" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="9" t="s">
+      <c r="F136" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G136" s="9" t="s">
+      <c r="G136" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H136" s="9" t="s">
+      <c r="H136" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I136" s="9" t="s">
+      <c r="I136" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="10" t="s">
+    <row r="137" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B137" s="8">
         <v>1</v>
       </c>
-      <c r="C137" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" s="9" t="s">
+      <c r="C137" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G137" s="9" t="s">
+      <c r="G137" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H137" s="9" t="s">
+      <c r="H137" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I137" s="9" t="s">
+      <c r="I137" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="9" t="s">
+    <row r="138" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B138" s="9">
+      <c r="B138" s="8">
         <v>0.98</v>
       </c>
-      <c r="C138" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" s="9" t="s">
+      <c r="C138" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H138" s="9" t="s">
+      <c r="H138" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="9" t="s">
+    <row r="139" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B139" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D139" s="9" t="s">
+      <c r="B139" s="8">
+        <f>3.64160231884058*0.16</f>
+        <v>0.58265637101449286</v>
+      </c>
+      <c r="D139" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E139" s="9" t="s">
+      <c r="E139" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F139" s="9" t="s">
+      <c r="F139" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H139" s="9" t="s">
+      <c r="H139" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="9" t="s">
+    <row r="140" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B140" s="9">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D140" s="9" t="s">
+      <c r="B140" s="8">
+        <f>0.00107549913043478*0.16</f>
+        <v>1.7207986086956482E-4</v>
+      </c>
+      <c r="D140" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E140" s="9" t="s">
+      <c r="E140" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F140" s="9" t="s">
+      <c r="F140" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H140" s="9" t="s">
+      <c r="H140" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="10" t="s">
+    <row r="141" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B141" s="11">
+      <c r="B141" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C141" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F141" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" s="10" t="s">
+      <c r="F141" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H141" s="9" t="s">
+      <c r="H141" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="9" t="s">
+    <row r="142" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B142" s="11">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="9" t="s">
+      <c r="B142" s="9">
+        <f>0.0872420618556701*0.16</f>
+        <v>1.3958729896907216E-2</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F142" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" s="9" t="s">
+      <c r="F142" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H142" s="9" t="s">
+      <c r="H142" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="9" t="s">
+    <row r="143" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B143" s="9">
+      <c r="B143" s="8">
         <v>1.82</v>
       </c>
-      <c r="D143" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E143" s="9" t="s">
+      <c r="D143" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F143" s="9" t="s">
+      <c r="F143" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H143" s="9" t="s">
+      <c r="H143" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A145" s="7" t="s">
+    <row r="144" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="9" t="s">
+    <row r="146" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="9">
+      <c r="B146" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="9" t="s">
+    <row r="147" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="9" t="s">
+    <row r="148" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="9" t="s">
+    <row r="149" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B149" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="9" t="s">
+      <c r="B149" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B150" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="9" t="s">
+      <c r="B150" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="9" t="s">
+    <row r="152" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A153" s="7" t="s">
+    <row r="153" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="9" t="s">
+    <row r="154" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E154" s="9" t="s">
+      <c r="E154" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F154" s="9" t="s">
+      <c r="F154" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G154" s="9" t="s">
+      <c r="G154" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H154" s="9" t="s">
+      <c r="H154" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I154" s="9" t="s">
+      <c r="I154" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="10" t="s">
+    <row r="155" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B155" s="9">
+      <c r="B155" s="8">
         <v>1</v>
       </c>
-      <c r="C155" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F155" s="9" t="s">
+      <c r="C155" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G155" s="9" t="s">
+      <c r="G155" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H155" s="9" t="s">
+      <c r="H155" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I155" s="9" t="s">
+      <c r="I155" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="9" t="s">
+    <row r="156" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B156" s="9">
+      <c r="B156" s="8">
         <v>2.1</v>
       </c>
-      <c r="C156" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F156" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" s="9" t="s">
+      <c r="C156" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H156" s="9" t="s">
+      <c r="H156" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="9" t="s">
+    <row r="157" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B157" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D157" s="9" t="s">
+      <c r="B157" s="8">
+        <f>3.64160231884058*0.21</f>
+        <v>0.76473648695652174</v>
+      </c>
+      <c r="D157" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E157" s="9" t="s">
+      <c r="E157" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F157" s="9" t="s">
+      <c r="F157" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H157" s="9" t="s">
+      <c r="H157" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="9" t="s">
+    <row r="158" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B158" s="9">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D158" s="9" t="s">
+      <c r="B158" s="8">
+        <f>0.00107549913043478*0.21</f>
+        <v>2.2585481739130381E-4</v>
+      </c>
+      <c r="D158" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E158" s="9" t="s">
+      <c r="E158" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F158" s="9" t="s">
+      <c r="F158" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H158" s="9" t="s">
+      <c r="H158" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="10" t="s">
+    <row r="159" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B159" s="11">
+      <c r="B159" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
-      <c r="C159" s="9" t="s">
+      <c r="C159" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F159" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" s="10" t="s">
+      <c r="F159" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H159" s="9" t="s">
+      <c r="H159" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="9" t="s">
+    <row r="160" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B160" s="11">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="9" t="s">
+      <c r="B160" s="9">
+        <f>0.0872420618556701*0.21</f>
+        <v>1.832083298969072E-2</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F160" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" s="9" t="s">
+      <c r="F160" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H160" s="9" t="s">
+      <c r="H160" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="9" t="s">
+    <row r="161" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B161" s="9">
+      <c r="B161" s="8">
         <v>0.13</v>
       </c>
-      <c r="D161" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E161" s="9" t="s">
+      <c r="D161" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F161" s="9" t="s">
+      <c r="F161" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H161" s="9" t="s">
+      <c r="H161" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="11"/>
-    </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A163" s="7" t="s">
+    <row r="162" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B162" s="9"/>
+    </row>
+    <row r="163" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="9" t="s">
+    <row r="164" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B164" s="9">
+      <c r="B164" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="9" t="s">
+    <row r="165" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="9" t="s">
+    <row r="166" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="9" t="s">
+    <row r="167" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B167" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="9" t="s">
+      <c r="B167" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B168" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="9" t="s">
+      <c r="B168" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="9" t="s">
+    <row r="170" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A171" s="7" t="s">
+    <row r="171" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="9" t="s">
+    <row r="172" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C172" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E172" s="9" t="s">
+      <c r="E172" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F172" s="9" t="s">
+      <c r="F172" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G172" s="9" t="s">
+      <c r="G172" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H172" s="9" t="s">
+      <c r="H172" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I172" s="9" t="s">
+      <c r="I172" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="10" t="s">
+    <row r="173" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B173" s="9">
+      <c r="B173" s="8">
         <v>1</v>
       </c>
-      <c r="C173" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F173" s="9" t="s">
+      <c r="C173" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G173" s="9" t="s">
+      <c r="G173" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H173" s="9" t="s">
+      <c r="H173" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I173" s="9" t="s">
+      <c r="I173" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="9" t="s">
+    <row r="174" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B174" s="9">
+      <c r="B174" s="8">
         <v>2.35</v>
       </c>
-      <c r="C174" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F174" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" s="9" t="s">
+      <c r="C174" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H174" s="9" t="s">
+      <c r="H174" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="9" t="s">
+    <row r="175" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B175" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D175" s="9" t="s">
+      <c r="B175" s="8">
+        <f>3.64160231884058*0.18</f>
+        <v>0.65548841739130437</v>
+      </c>
+      <c r="D175" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E175" s="9" t="s">
+      <c r="E175" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F175" s="9" t="s">
+      <c r="F175" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H175" s="9" t="s">
+      <c r="H175" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="9" t="s">
+    <row r="176" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B176" s="9">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D176" s="9" t="s">
+      <c r="B176" s="8">
+        <f>0.00107549913043478*0.18</f>
+        <v>1.9358984347826041E-4</v>
+      </c>
+      <c r="D176" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E176" s="9" t="s">
+      <c r="E176" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F176" s="9" t="s">
+      <c r="F176" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H176" s="9" t="s">
+      <c r="H176" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="10" t="s">
+    <row r="177" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B177" s="11">
+      <c r="B177" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
-      <c r="C177" s="9" t="s">
+      <c r="C177" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D177" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F177" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" s="10" t="s">
+      <c r="F177" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H177" s="9" t="s">
+      <c r="H177" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="9" t="s">
+    <row r="178" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B178" s="11">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" s="9" t="s">
+      <c r="B178" s="9">
+        <f>0.0872420618556701*0.18</f>
+        <v>1.5703571134020617E-2</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F178" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" s="9" t="s">
+      <c r="F178" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H178" s="9" t="s">
+      <c r="H178" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="9" t="s">
+    <row r="179" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B179" s="9">
+      <c r="B179" s="8">
         <v>0.22</v>
       </c>
-      <c r="D179" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E179" s="9" t="s">
+      <c r="D179" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F179" s="9" t="s">
+      <c r="F179" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H179" s="9" t="s">
+      <c r="H179" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="181" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A181" s="7" t="s">
+    <row r="180" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="9" t="s">
+    <row r="182" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B182" s="9">
+      <c r="B182" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="9" t="s">
+    <row r="183" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="9" t="s">
+    <row r="184" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="9" t="s">
+    <row r="185" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B185" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="9" t="s">
+      <c r="B185" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B186" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="9" t="s">
+      <c r="B186" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B187" s="9" t="s">
+      <c r="B187" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="9" t="s">
+    <row r="188" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B188" s="9" t="s">
+      <c r="B188" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A189" s="7" t="s">
+    <row r="189" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A189" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="9" t="s">
+    <row r="190" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C190" s="9" t="s">
+      <c r="C190" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D190" s="9" t="s">
+      <c r="D190" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E190" s="9" t="s">
+      <c r="E190" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F190" s="9" t="s">
+      <c r="F190" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G190" s="9" t="s">
+      <c r="G190" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H190" s="9" t="s">
+      <c r="H190" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I190" s="9" t="s">
+      <c r="I190" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="10" t="s">
+    <row r="191" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B191" s="9">
+      <c r="B191" s="8">
         <v>1</v>
       </c>
-      <c r="C191" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D191" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F191" s="9" t="s">
+      <c r="C191" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F191" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G191" s="9" t="s">
+      <c r="G191" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H191" s="9" t="s">
+      <c r="H191" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="9" t="s">
+    <row r="192" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B192" s="9">
+      <c r="B192" s="8">
         <v>2.3199999999999998</v>
       </c>
-      <c r="C192" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D192" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F192" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" s="9" t="s">
+      <c r="C192" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G192" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H192" s="9" t="s">
+      <c r="H192" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="9" t="s">
+    <row r="193" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B193" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D193" s="9" t="s">
+      <c r="B193" s="8">
+        <f>3.64160231884058*0.24</f>
+        <v>0.87398455652173912</v>
+      </c>
+      <c r="D193" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E193" s="9" t="s">
+      <c r="E193" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F193" s="9" t="s">
+      <c r="F193" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H193" s="9" t="s">
+      <c r="H193" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="9" t="s">
+    <row r="194" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B194" s="9">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D194" s="9" t="s">
+      <c r="B194" s="8">
+        <f>0.00107549913043478*0.24</f>
+        <v>2.581197913043472E-4</v>
+      </c>
+      <c r="D194" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E194" s="9" t="s">
+      <c r="E194" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F194" s="9" t="s">
+      <c r="F194" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H194" s="9" t="s">
+      <c r="H194" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="10" t="s">
+    <row r="195" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B195" s="11">
+      <c r="B195" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
-      <c r="C195" s="9" t="s">
+      <c r="C195" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="D195" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F195" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" s="10" t="s">
+      <c r="F195" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G195" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H195" s="9" t="s">
+      <c r="H195" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="9" t="s">
+    <row r="196" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B196" s="11">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="9" t="s">
+      <c r="B196" s="9">
+        <f>0.0872420618556701*0.24</f>
+        <v>2.0938094845360824E-2</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F196" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" s="9" t="s">
+      <c r="F196" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H196" s="9" t="s">
+      <c r="H196" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="9" t="s">
+    <row r="197" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B197" s="9">
+      <c r="B197" s="8">
         <v>0.19</v>
       </c>
-      <c r="D197" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E197" s="9" t="s">
+      <c r="D197" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F197" s="9" t="s">
+      <c r="F197" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H197" s="9" t="s">
+      <c r="H197" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="199" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A199" s="7" t="s">
+    <row r="198" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A199" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="9" t="s">
+    <row r="200" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B200" s="9">
+      <c r="B200" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="9" t="s">
+    <row r="201" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="9" t="s">
+    <row r="202" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B202" s="9" t="s">
+      <c r="B202" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="9" t="s">
+    <row r="203" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B203" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="9" t="s">
+      <c r="B203" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B204" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="9" t="s">
+      <c r="B204" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="9" t="s">
+    <row r="206" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A207" s="7" t="s">
+    <row r="207" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="9" t="s">
+    <row r="208" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B208" s="9" t="s">
+      <c r="B208" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C208" s="9" t="s">
+      <c r="C208" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D208" s="9" t="s">
+      <c r="D208" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E208" s="9" t="s">
+      <c r="E208" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F208" s="9" t="s">
+      <c r="F208" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G208" s="9" t="s">
+      <c r="G208" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H208" s="9" t="s">
+      <c r="H208" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I208" s="9" t="s">
+      <c r="I208" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="10" t="s">
+    <row r="209" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B209" s="9">
+      <c r="B209" s="8">
         <v>1</v>
       </c>
-      <c r="C209" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D209" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F209" s="9" t="s">
+      <c r="C209" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F209" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G209" s="9" t="s">
+      <c r="G209" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H209" s="9" t="s">
+      <c r="H209" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I209" s="9" t="s">
+      <c r="I209" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="9" t="s">
+    <row r="210" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B210" s="9">
+      <c r="B210" s="8">
         <v>2.2599999999999998</v>
       </c>
-      <c r="C210" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F210" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G210" s="9" t="s">
+      <c r="C210" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F210" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G210" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H210" s="9" t="s">
+      <c r="H210" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="9" t="s">
+    <row r="211" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B211" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D211" s="9" t="s">
+      <c r="B211" s="8">
+        <f>3.64160231884058*0.37</f>
+        <v>1.3473928579710146</v>
+      </c>
+      <c r="D211" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E211" s="9" t="s">
+      <c r="E211" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F211" s="9" t="s">
+      <c r="F211" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H211" s="9" t="s">
+      <c r="H211" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="9" t="s">
+    <row r="212" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B212" s="9">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D212" s="9" t="s">
+      <c r="B212" s="8">
+        <f>0.00107549913043478*0.37</f>
+        <v>3.9793467826086865E-4</v>
+      </c>
+      <c r="D212" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E212" s="9" t="s">
+      <c r="E212" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F212" s="9" t="s">
+      <c r="F212" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H212" s="9" t="s">
+      <c r="H212" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="10" t="s">
+    <row r="213" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B213" s="11">
+      <c r="B213" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="C213" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D213" s="9" t="s">
+      <c r="D213" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F213" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G213" s="10" t="s">
+      <c r="F213" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H213" s="9" t="s">
+      <c r="H213" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="9" t="s">
+      <c r="J213" s="9"/>
+    </row>
+    <row r="214" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B214" s="11">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D214" s="9" t="s">
+      <c r="B214" s="9">
+        <f>0.0872420618556701*0.37</f>
+        <v>3.2279562886597939E-2</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F214" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" s="9" t="s">
+      <c r="F214" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G214" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H214" s="9" t="s">
+      <c r="H214" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="9" t="s">
+    <row r="215" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B215" s="9">
+      <c r="B215" s="8">
         <v>0.06</v>
       </c>
-      <c r="D215" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E215" s="9" t="s">
+      <c r="D215" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F215" s="9" t="s">
+      <c r="F215" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H215" s="9" t="s">
+      <c r="H215" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="217" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A217" s="7" t="s">
+    <row r="216" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:10" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A217" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B217" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="9" t="s">
+    <row r="218" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B218" s="9">
+      <c r="B218" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="9" t="s">
+    <row r="219" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B219" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="9" t="s">
+    <row r="220" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B220" s="9" t="s">
+      <c r="B220" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="9" t="s">
+    <row r="221" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B221" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="9" t="s">
+      <c r="B221" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B222" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="9" t="s">
+      <c r="B222" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="9" t="s">
+    <row r="224" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B224" s="9" t="s">
+      <c r="B224" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A225" s="7" t="s">
+    <row r="225" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A225" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="9" t="s">
+    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B226" s="9" t="s">
+      <c r="B226" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C226" s="9" t="s">
+      <c r="C226" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D226" s="9" t="s">
+      <c r="D226" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E226" s="9" t="s">
+      <c r="E226" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F226" s="9" t="s">
+      <c r="F226" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G226" s="9" t="s">
+      <c r="G226" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="9" t="s">
+    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B227" s="9">
+      <c r="B227" s="8">
         <v>0.875</v>
       </c>
-      <c r="C227" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F227" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" s="9" t="s">
+      <c r="C227" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G227" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A228" s="12" t="s">
+    <row r="228" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A228" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B228" s="9">
+      <c r="B228" s="8">
         <v>0.125</v>
       </c>
-      <c r="C228" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D228" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F228" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G228" s="12" t="s">
+      <c r="C228" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F228" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="9" t="s">
+    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B229" s="9">
+      <c r="B229" s="8">
         <v>0.36599999999999999</v>
       </c>
-      <c r="C229" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="9" t="s">
+      <c r="C229" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D229" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F229" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" s="9" t="s">
+      <c r="F229" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G229" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="9" t="s">
+    <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B230" s="9">
+      <c r="B230" s="8">
         <f>60*0.001/106.6</f>
         <v>5.6285178236397749E-4</v>
       </c>
-      <c r="D230" s="9" t="s">
+      <c r="D230" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E230" s="9" t="s">
+      <c r="E230" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F230" s="9" t="s">
+      <c r="F230" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="9" t="s">
+    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B231" s="9">
+      <c r="B231" s="8">
         <v>1</v>
       </c>
-      <c r="C231" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F231" s="9" t="s">
+      <c r="C231" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F231" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G231" s="9" t="s">
+      <c r="G231" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="9" t="s">
+    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B232" s="13">
+      <c r="B232" s="11">
         <v>5.7100000000000004E-6</v>
       </c>
-      <c r="C232" s="9" t="s">
+      <c r="C232" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D232" s="9" t="s">
+      <c r="D232" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F232" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="13"/>
-    </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A234" s="7" t="s">
+      <c r="F232" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B233" s="11"/>
+    </row>
+    <row r="234" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A234" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="9" t="s">
+    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B235" s="9">
+      <c r="B235" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="9" t="s">
+    <row r="236" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B236" s="9" t="s">
+      <c r="B236" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="9" t="s">
+    <row r="237" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="9" t="s">
+      <c r="B237" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="9" t="s">
+    <row r="238" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B238" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="9" t="s">
+      <c r="B238" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B239" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="9" t="s">
+      <c r="B239" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B240" s="17" t="s">
+      <c r="B240" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A241" s="7" t="s">
+    <row r="241" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A241" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="9" t="s">
+    <row r="242" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B242" s="9" t="s">
+      <c r="B242" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C242" s="9" t="s">
+      <c r="C242" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="D242" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E242" s="9" t="s">
+      <c r="E242" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F242" s="9" t="s">
+      <c r="F242" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G242" s="9" t="s">
+      <c r="G242" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="9" t="s">
+    <row r="243" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B243" s="9">
+      <c r="B243" s="8">
         <v>1</v>
       </c>
-      <c r="C243" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F243" s="9" t="s">
+      <c r="C243" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F243" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G243" s="9" t="s">
+      <c r="G243" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A244" s="12" t="s">
+    <row r="244" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A244" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B244" s="9">
+      <c r="B244" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C244" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F244" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G244" s="12" t="s">
+      <c r="C244" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F244" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G244" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="245" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="10" t="s">
+    <row r="245" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B245" s="11">
+      <c r="B245" s="9">
         <v>1.9300000000000002E-9</v>
       </c>
-      <c r="C245" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="9" t="s">
+      <c r="C245" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D245" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F245" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G245" s="10" t="s">
+      <c r="F245" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G245" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="9" t="s">
+    <row r="246" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B246" s="9">
+      <c r="B246" s="8">
         <v>-1.57</v>
       </c>
-      <c r="D246" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E246" s="9" t="s">
+      <c r="D246" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F246" s="9" t="s">
+      <c r="F246" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H246" s="9" t="s">
+      <c r="H246" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B255" s="3"/>
     </row>
-    <row r="257" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
     </row>
-    <row r="267" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="G267" s="4"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B272" s="5"/>
     </row>
-    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B275" s="6"/>
-    </row>
-    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A282" s="6"/>
-      <c r="G282" s="6"/>
-    </row>
-    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="G284" s="4"/>
     </row>
-    <row r="287" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B301" s="3"/>
     </row>
-    <row r="303" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
     </row>
-    <row r="313" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="G313" s="4"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B321" s="6"/>
-    </row>
-    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A328" s="6"/>
-      <c r="G328" s="6"/>
-    </row>
-    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="G330" s="4"/>
     </row>
-    <row r="333" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B347" s="3"/>
     </row>
-    <row r="349" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
     </row>
-    <row r="359" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="G359" s="4"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B364" s="5"/>
     </row>
-    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B367" s="6"/>
-    </row>
-    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A374" s="6"/>
-      <c r="G374" s="6"/>
-    </row>
-    <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="G376" s="4"/>
     </row>
-    <row r="379" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B393" s="3"/>
     </row>
-    <row r="395" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
     </row>
-    <row r="405" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B410" s="5"/>
     </row>
-    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B413" s="6"/>
-    </row>
-    <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A420" s="6"/>
-      <c r="G420" s="6"/>
-    </row>
-    <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="432" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B439" s="3"/>
     </row>
-    <row r="441" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
     </row>
-    <row r="451" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="G451" s="4"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B455" s="5"/>
     </row>
-    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B459" s="6"/>
-    </row>
-    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A466" s="6"/>
-      <c r="G466" s="6"/>
-    </row>
-    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="G468" s="4"/>
     </row>
-    <row r="470" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="477" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B484" s="3"/>
     </row>
-    <row r="486" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
     </row>
-    <row r="496" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="G496" s="4"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B501" s="5"/>
     </row>
-    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B504" s="6"/>
-    </row>
-    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A511" s="6"/>
-      <c r="G511" s="6"/>
-    </row>
-    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="G513" s="4"/>
     </row>
-    <row r="516" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="523" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B530" s="3"/>
     </row>
-    <row r="532" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
     </row>
-    <row r="542" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="G542" s="4"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B546" s="5"/>
     </row>
-    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B550" s="6"/>
-    </row>
-    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A557" s="6"/>
-      <c r="G557" s="6"/>
-    </row>
-    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="G559" s="4"/>
     </row>
-    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
     </row>
-    <row r="572" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="578" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7402E8F2-D640-E448-98B4-209701137F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6936900-401E-8F45-83C0-C4571BC22A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1660" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="-640" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FT fuel - Diesel'!$A$1:$K$578</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -188,9 +191,6 @@
     <t>Adapted from van der Giesen et al. 2014. LHV: 43.3 MJ/kg, Formula: C13H18, Density: 7551 kg/m3. Energy-based allocation between 3 other co-products. Allocation key for this co-product: 37%. Post corrected to preserve carbon balance.</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 25 bar</t>
-  </si>
-  <si>
     <t>Fixed bed reactor for RWGS</t>
   </si>
   <si>
@@ -335,6 +335,9 @@
     <t>Adapted from van der Giesen et al. 2014. Density of syngas: 0.470kg/m3 @1 bar. LHV: 23.9 MJ/kg.
 The source for CO2 is from the gasification step to produce the H2. Hence, it comes free of burden.
 However, this means we need to reduce the CO2 amount emitted by the gasification process here, as it effectively ends up in the fuel instead.</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 25 bar</t>
   </si>
 </sst>
 </file>
@@ -344,9 +347,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -415,21 +425,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,10 +755,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:XFD106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G579" sqref="G579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -762,21 +774,21 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -784,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -792,15 +804,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -808,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -816,12 +828,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -841,13 +853,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>9</v>
@@ -856,9 +868,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -876,15 +888,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="8">
         <v>1.00057</v>
@@ -902,7 +914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
@@ -922,15 +934,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="9">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>6</v>
@@ -939,18 +951,18 @@
         <v>18</v>
       </c>
       <c r="K14" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="B15" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>20</v>
@@ -959,12 +971,12 @@
         <v>18</v>
       </c>
       <c r="K15" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="B16" s="9">
         <v>1.04E-10</v>
@@ -979,18 +991,18 @@
         <v>18</v>
       </c>
       <c r="K16" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="B17" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>6</v>
@@ -999,18 +1011,18 @@
         <v>18</v>
       </c>
       <c r="K17" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="B18" s="9">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>25</v>
@@ -1019,18 +1031,18 @@
         <v>18</v>
       </c>
       <c r="K18" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="B19" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>6</v>
@@ -1039,32 +1051,32 @@
         <v>18</v>
       </c>
       <c r="K19" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="B20" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="8" t="s">
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="B21" s="8">
         <v>3.2599999999999997E-2</v>
@@ -1073,24 +1085,24 @@
         <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>25</v>
@@ -1099,12 +1111,12 @@
         <v>18</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="9">
         <f>(B12-1)*3.14</f>
@@ -1120,20 +1132,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="13"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
@@ -1141,7 +1153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>1</v>
       </c>
@@ -1149,15 +1161,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>3</v>
       </c>
@@ -1165,7 +1177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>5</v>
       </c>
@@ -1173,12 +1185,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>11</v>
       </c>
@@ -1198,13 +1210,13 @@
         <v>3</v>
       </c>
       <c r="G32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="I32" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>9</v>
@@ -1213,9 +1225,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="8">
         <v>1</v>
@@ -1233,15 +1245,15 @@
         <v>100</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="8">
         <v>1.00057</v>
@@ -1259,7 +1271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>27</v>
       </c>
@@ -1279,15 +1291,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="8">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>6</v>
@@ -1296,18 +1308,18 @@
         <v>18</v>
       </c>
       <c r="K36" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="B37" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>20</v>
@@ -1316,12 +1328,12 @@
         <v>18</v>
       </c>
       <c r="K37" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="B38" s="9">
         <v>2.5999999999999998E-10</v>
@@ -1336,18 +1348,18 @@
         <v>18</v>
       </c>
       <c r="K38" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="B39" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>6</v>
@@ -1356,18 +1368,18 @@
         <v>18</v>
       </c>
       <c r="K39" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="B40" s="9">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>25</v>
@@ -1376,18 +1388,18 @@
         <v>18</v>
       </c>
       <c r="K40" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="B41" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>6</v>
@@ -1396,32 +1408,32 @@
         <v>18</v>
       </c>
       <c r="K41" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="B42" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="8" t="s">
+    </row>
+    <row r="43" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="B43" s="8">
         <v>3.2599999999999997E-2</v>
@@ -1430,24 +1442,24 @@
         <v>8</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>25</v>
@@ -1456,12 +1468,12 @@
         <v>18</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45" s="9">
         <f>(B34-1)*3.14</f>
@@ -1477,20 +1489,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="13"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>7</v>
       </c>
@@ -1498,7 +1510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>1</v>
       </c>
@@ -1506,15 +1518,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>3</v>
       </c>
@@ -1522,7 +1534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>5</v>
       </c>
@@ -1530,12 +1542,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>11</v>
       </c>
@@ -1555,13 +1567,13 @@
         <v>3</v>
       </c>
       <c r="G54" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="I54" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>9</v>
@@ -1570,9 +1582,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B55" s="8">
         <v>1</v>
@@ -1590,15 +1602,15 @@
         <v>100</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="8">
         <v>1.00057</v>
@@ -1616,7 +1628,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>27</v>
       </c>
@@ -1636,15 +1648,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="9">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>6</v>
@@ -1653,18 +1665,18 @@
         <v>18</v>
       </c>
       <c r="K58" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="B59" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>20</v>
@@ -1673,12 +1685,12 @@
         <v>18</v>
       </c>
       <c r="K59" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="B60" s="9">
         <v>1.04E-10</v>
@@ -1693,18 +1705,18 @@
         <v>18</v>
       </c>
       <c r="K60" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="B61" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>6</v>
@@ -1713,18 +1725,18 @@
         <v>18</v>
       </c>
       <c r="K61" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="B62" s="9">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>25</v>
@@ -1733,18 +1745,18 @@
         <v>18</v>
       </c>
       <c r="K62" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="B63" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>6</v>
@@ -1753,32 +1765,32 @@
         <v>18</v>
       </c>
       <c r="K63" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="B64" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D64" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" s="8" t="s">
+    </row>
+    <row r="65" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="8" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="B65" s="8">
         <v>3.2599999999999997E-2</v>
@@ -1787,24 +1799,24 @@
         <v>8</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>25</v>
@@ -1813,12 +1825,12 @@
         <v>18</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B67" s="9">
         <f>(B56-1)*3.14</f>
@@ -1834,20 +1846,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10"/>
       <c r="B68" s="13"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>7</v>
       </c>
@@ -1855,7 +1867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>1</v>
       </c>
@@ -1863,15 +1875,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>3</v>
       </c>
@@ -1879,7 +1891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>5</v>
       </c>
@@ -1887,12 +1899,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>11</v>
       </c>
@@ -1912,13 +1924,13 @@
         <v>3</v>
       </c>
       <c r="G76" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H76" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="I76" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>9</v>
@@ -1927,9 +1939,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B77" s="8">
         <v>1</v>
@@ -1947,15 +1959,15 @@
         <v>100</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="8">
         <v>1.00057</v>
@@ -1973,7 +1985,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>27</v>
       </c>
@@ -1993,15 +2005,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B80" s="8">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>6</v>
@@ -2010,18 +2022,18 @@
         <v>18</v>
       </c>
       <c r="K80" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="8" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="B81" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>20</v>
@@ -2030,12 +2042,12 @@
         <v>18</v>
       </c>
       <c r="K81" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="8" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="B82" s="9">
         <v>2.5999999999999998E-10</v>
@@ -2050,18 +2062,18 @@
         <v>18</v>
       </c>
       <c r="K82" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="8" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="B83" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>6</v>
@@ -2070,18 +2082,18 @@
         <v>18</v>
       </c>
       <c r="K83" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="B84" s="9">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>25</v>
@@ -2090,18 +2102,18 @@
         <v>18</v>
       </c>
       <c r="K84" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="8" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="B85" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>6</v>
@@ -2110,32 +2122,32 @@
         <v>18</v>
       </c>
       <c r="K85" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="B86" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D86" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F86" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K86" s="8" t="s">
+    </row>
+    <row r="87" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="8" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="B87" s="8">
         <v>3.2599999999999997E-2</v>
@@ -2144,24 +2156,24 @@
         <v>8</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>18</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B88" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>25</v>
@@ -2170,12 +2182,12 @@
         <v>18</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B89" s="9">
         <f>(B78-1)*3.14</f>
@@ -2191,20 +2203,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="13"/>
       <c r="G90" s="10"/>
     </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>1</v>
       </c>
@@ -2212,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>2</v>
       </c>
@@ -2220,7 +2232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>3</v>
       </c>
@@ -2228,7 +2240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +2248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>7</v>
       </c>
@@ -2244,7 +2256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>9</v>
       </c>
@@ -2252,7 +2264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>37</v>
       </c>
@@ -2260,12 +2272,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>11</v>
       </c>
@@ -2294,9 +2306,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B101" s="8">
         <v>1</v>
@@ -2320,9 +2332,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B102" s="8">
         <v>0.73</v>
@@ -2343,7 +2355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>19</v>
       </c>
@@ -2364,7 +2376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>24</v>
       </c>
@@ -2385,7 +2397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>40</v>
       </c>
@@ -2408,7 +2420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>27</v>
       </c>
@@ -2432,9 +2444,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B107" s="8">
         <v>2</v>
@@ -2443,7 +2455,7 @@
         <v>6</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F107" s="8" t="s">
         <v>22</v>
@@ -2452,16 +2464,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>1</v>
       </c>
@@ -2469,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>2</v>
       </c>
@@ -2477,7 +2489,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
         <v>3</v>
       </c>
@@ -2485,7 +2497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>5</v>
       </c>
@@ -2493,7 +2505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>7</v>
       </c>
@@ -2501,7 +2513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>9</v>
       </c>
@@ -2509,7 +2521,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>37</v>
       </c>
@@ -2517,12 +2529,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>11</v>
       </c>
@@ -2551,9 +2563,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B119" s="8">
         <v>1</v>
@@ -2574,9 +2586,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B120" s="8">
         <v>0.65</v>
@@ -2597,7 +2609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
         <v>19</v>
       </c>
@@ -2618,7 +2630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>24</v>
       </c>
@@ -2639,7 +2651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>40</v>
       </c>
@@ -2662,7 +2674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>27</v>
       </c>
@@ -2686,9 +2698,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B125" s="8">
         <v>2.48</v>
@@ -2697,7 +2709,7 @@
         <v>6</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F125" s="8" t="s">
         <v>22</v>
@@ -2706,16 +2718,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>1</v>
       </c>
@@ -2723,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>2</v>
       </c>
@@ -2731,7 +2743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>3</v>
       </c>
@@ -2739,7 +2751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>5</v>
       </c>
@@ -2747,7 +2759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>7</v>
       </c>
@@ -2755,7 +2767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>9</v>
       </c>
@@ -2763,7 +2775,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>37</v>
       </c>
@@ -2771,12 +2783,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>11</v>
       </c>
@@ -2805,9 +2817,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B137" s="8">
         <v>1</v>
@@ -2831,9 +2843,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B138" s="8">
         <v>0.98</v>
@@ -2854,7 +2866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>19</v>
       </c>
@@ -2875,7 +2887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>24</v>
       </c>
@@ -2896,7 +2908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>40</v>
       </c>
@@ -2919,7 +2931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>27</v>
       </c>
@@ -2943,9 +2955,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B143" s="8">
         <v>1.82</v>
@@ -2954,7 +2966,7 @@
         <v>6</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>22</v>
@@ -2963,16 +2975,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
         <v>1</v>
       </c>
@@ -2980,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>2</v>
       </c>
@@ -2988,7 +3000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
         <v>3</v>
       </c>
@@ -2996,7 +3008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
         <v>5</v>
       </c>
@@ -3004,7 +3016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
         <v>7</v>
       </c>
@@ -3012,7 +3024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
         <v>9</v>
       </c>
@@ -3020,7 +3032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
         <v>37</v>
       </c>
@@ -3028,12 +3040,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>11</v>
       </c>
@@ -3062,9 +3074,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B155" s="8">
         <v>1</v>
@@ -3088,9 +3100,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B156" s="8">
         <v>2.1</v>
@@ -3111,7 +3123,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
         <v>19</v>
       </c>
@@ -3132,7 +3144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
         <v>24</v>
       </c>
@@ -3153,7 +3165,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
         <v>40</v>
       </c>
@@ -3176,7 +3188,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
         <v>27</v>
       </c>
@@ -3200,9 +3212,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B161" s="8">
         <v>0.13</v>
@@ -3220,18 +3232,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" s="9"/>
     </row>
-    <row r="163" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
         <v>1</v>
       </c>
@@ -3239,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
         <v>2</v>
       </c>
@@ -3247,7 +3259,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
         <v>3</v>
       </c>
@@ -3255,7 +3267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
         <v>5</v>
       </c>
@@ -3263,7 +3275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
         <v>7</v>
       </c>
@@ -3271,7 +3283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
         <v>9</v>
       </c>
@@ -3279,7 +3291,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
         <v>37</v>
       </c>
@@ -3287,12 +3299,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
         <v>11</v>
       </c>
@@ -3321,9 +3333,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B173" s="8">
         <v>1</v>
@@ -3347,9 +3359,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B174" s="8">
         <v>2.35</v>
@@ -3370,7 +3382,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
         <v>19</v>
       </c>
@@ -3391,7 +3403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
         <v>24</v>
       </c>
@@ -3412,7 +3424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
         <v>40</v>
       </c>
@@ -3435,7 +3447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
         <v>27</v>
       </c>
@@ -3459,9 +3471,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B179" s="8">
         <v>0.22</v>
@@ -3479,16 +3491,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="181" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
         <v>1</v>
       </c>
@@ -3496,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
         <v>2</v>
       </c>
@@ -3504,7 +3516,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
         <v>3</v>
       </c>
@@ -3512,7 +3524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
         <v>5</v>
       </c>
@@ -3520,7 +3532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
         <v>7</v>
       </c>
@@ -3528,7 +3540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>9</v>
       </c>
@@ -3536,7 +3548,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
         <v>37</v>
       </c>
@@ -3544,12 +3556,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
         <v>11</v>
       </c>
@@ -3578,9 +3590,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B191" s="8">
         <v>1</v>
@@ -3601,9 +3613,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B192" s="8">
         <v>2.3199999999999998</v>
@@ -3624,7 +3636,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
         <v>19</v>
       </c>
@@ -3645,7 +3657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>24</v>
       </c>
@@ -3666,7 +3678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
         <v>40</v>
       </c>
@@ -3689,7 +3701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
         <v>27</v>
       </c>
@@ -3713,9 +3725,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B197" s="8">
         <v>0.19</v>
@@ -3724,7 +3736,7 @@
         <v>6</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F197" s="8" t="s">
         <v>22</v>
@@ -3733,16 +3745,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="199" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
         <v>1</v>
       </c>
@@ -3750,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
         <v>2</v>
       </c>
@@ -3758,7 +3770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
         <v>3</v>
       </c>
@@ -3766,7 +3778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
         <v>5</v>
       </c>
@@ -3774,7 +3786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
         <v>7</v>
       </c>
@@ -3782,7 +3794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
         <v>9</v>
       </c>
@@ -3790,7 +3802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="s">
         <v>37</v>
       </c>
@@ -3798,12 +3810,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
         <v>11</v>
       </c>
@@ -3832,9 +3844,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B209" s="8">
         <v>1</v>
@@ -3858,9 +3870,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B210" s="8">
         <v>2.2599999999999998</v>
@@ -3881,7 +3893,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="211" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
         <v>19</v>
       </c>
@@ -3902,7 +3914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
         <v>24</v>
       </c>
@@ -3923,7 +3935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
         <v>40</v>
       </c>
@@ -3947,7 +3959,7 @@
       </c>
       <c r="J213" s="9"/>
     </row>
-    <row r="214" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
         <v>27</v>
       </c>
@@ -3971,9 +3983,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B215" s="8">
         <v>0.06</v>
@@ -3982,7 +3994,7 @@
         <v>6</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F215" s="8" t="s">
         <v>22</v>
@@ -3991,16 +4003,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:10" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:10" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
         <v>1</v>
       </c>
@@ -4008,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
         <v>2</v>
       </c>
@@ -4016,7 +4028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
         <v>3</v>
       </c>
@@ -4024,7 +4036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
         <v>5</v>
       </c>
@@ -4032,7 +4044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
         <v>7</v>
       </c>
@@ -4040,7 +4052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
         <v>9</v>
       </c>
@@ -4048,7 +4060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
         <v>37</v>
       </c>
@@ -4056,12 +4068,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>11</v>
       </c>
@@ -4084,9 +4096,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B227" s="8">
         <v>0.875</v>
@@ -4106,7 +4118,7 @@
     </row>
     <row r="228" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B228" s="8">
         <v>0.125</v>
@@ -4120,11 +4132,11 @@
       <c r="F228" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G228" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G228" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
         <v>27</v>
       </c>
@@ -4144,7 +4156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
         <v>24</v>
       </c>
@@ -4162,9 +4174,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B231" s="8">
         <v>1</v>
@@ -4182,7 +4194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
         <v>31</v>
       </c>
@@ -4199,18 +4211,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B233" s="11"/>
     </row>
-    <row r="234" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
         <v>1</v>
       </c>
@@ -4218,7 +4230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
         <v>2</v>
       </c>
@@ -4226,7 +4238,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
         <v>3</v>
       </c>
@@ -4234,7 +4246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="s">
         <v>5</v>
       </c>
@@ -4242,7 +4254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="8" t="s">
         <v>7</v>
       </c>
@@ -4250,20 +4262,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
         <v>11</v>
       </c>
@@ -4286,9 +4298,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B243" s="8">
         <v>1</v>
@@ -4308,7 +4320,7 @@
     </row>
     <row r="244" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B244" s="8">
         <v>7.0000000000000007E-2</v>
@@ -4322,13 +4334,13 @@
       <c r="F244" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G244" s="10" t="s">
+      <c r="G244" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="8" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="B245" s="9">
         <v>1.9300000000000002E-9</v>
@@ -4343,12 +4355,12 @@
         <v>18</v>
       </c>
       <c r="G245" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B246" s="8">
         <v>-1.57</v>
@@ -4366,326 +4378,573 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="248" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="B255" s="3"/>
     </row>
-    <row r="257" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="257" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
     </row>
-    <row r="264" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="264" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
     </row>
-    <row r="267" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="267" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="G267" s="4"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B272" s="5"/>
     </row>
-    <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
     </row>
-    <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="280" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
     </row>
-    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="283" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="G284" s="4"/>
     </row>
-    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="287" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
     </row>
-    <row r="294" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="294" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B301" s="3"/>
     </row>
-    <row r="303" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="303" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
     </row>
-    <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="310" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
     </row>
-    <row r="313" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="313" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="G313" s="4"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
     </row>
-    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="326" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
     </row>
-    <row r="329" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="329" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="G330" s="4"/>
     </row>
-    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="333" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
     </row>
-    <row r="340" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="340" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B347" s="3"/>
     </row>
-    <row r="349" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="349" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
     </row>
-    <row r="356" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="356" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
     </row>
-    <row r="359" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="359" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="G359" s="4"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B364" s="5"/>
     </row>
-    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
     </row>
-    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="372" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
     </row>
-    <row r="375" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="375" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="G376" s="4"/>
     </row>
-    <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="379" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
     </row>
-    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="386" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B393" s="3"/>
     </row>
-    <row r="395" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="395" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
     </row>
-    <row r="402" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="402" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
     </row>
-    <row r="405" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="405" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B410" s="5"/>
     </row>
-    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
     </row>
-    <row r="418" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="418" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
     </row>
-    <row r="421" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="421" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="425" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
     </row>
-    <row r="432" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="432" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B438" s="3"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="B439" s="3"/>
     </row>
-    <row r="441" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="441" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
     </row>
-    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="448" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
     </row>
-    <row r="451" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="451" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="G451" s="4"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="453" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B455" s="5"/>
     </row>
-    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="457" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
     </row>
-    <row r="464" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="459" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="464" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
     </row>
-    <row r="467" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="467" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="G468" s="4"/>
     </row>
-    <row r="470" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="470" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
     </row>
-    <row r="477" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="477" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B483" s="3"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B484" s="3"/>
     </row>
-    <row r="486" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="486" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
     </row>
-    <row r="493" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="491" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="493" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
     </row>
-    <row r="496" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="496" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="G496" s="4"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B500" s="5"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B501" s="5"/>
     </row>
-    <row r="502" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
     </row>
-    <row r="509" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="509" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
     </row>
-    <row r="512" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="512" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="G513" s="4"/>
     </row>
-    <row r="516" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="515" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="516" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
     </row>
-    <row r="523" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="518" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="523" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B529" s="3"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B530" s="3"/>
     </row>
-    <row r="532" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="532" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
     </row>
-    <row r="539" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="539" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
     </row>
-    <row r="542" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="542" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="G542" s="4"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="B546" s="5"/>
     </row>
-    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="548" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
     </row>
-    <row r="555" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="555" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
     </row>
-    <row r="558" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="558" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="G559" s="4"/>
     </row>
-    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="561" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="567" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
     </row>
-    <row r="572" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="572" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
     </row>
-    <row r="578" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="577" spans="1:1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="578" spans="1:1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K578" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="hydrogen production, gaseous, 25 bar, from gasification of woody biomass in entrained flow gasifier, at gasification plant"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-wood-gasification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6936900-401E-8F45-83C0-C4571BC22A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8704C665-3E07-EE41-8997-646646011624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="-640" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="99">
   <si>
     <t>Activity</t>
   </si>
@@ -89,9 +89,6 @@
     <t>From PEM electrolysis</t>
   </si>
   <si>
-    <t>Syngas, RWGS, Production</t>
-  </si>
-  <si>
     <t>technosphere</t>
   </si>
   <si>
@@ -140,15 +137,6 @@
     <t>Adapted from van der Giesen et al. 2014. Density of syngas: 0.470kg/m3 @1 bar. LHV: 23.9 MJ/kg.</t>
   </si>
   <si>
-    <t>Carbon monoxide, from RWGS</t>
-  </si>
-  <si>
-    <t>Diesel, synthetic</t>
-  </si>
-  <si>
-    <t>Lubricating oil, synthetic</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -164,15 +152,9 @@
     <t>Gas-to-liquid plant</t>
   </si>
   <si>
-    <t>Kerosene, synthetic</t>
-  </si>
-  <si>
     <t>Adapted from van der Giesen et al. 2014. LHV: 45 MJ/kg, Formula: C13H18, Density: 7551 kg/m3. Economic allocation between 3 other co-products. Allocation key for this co-product: 6%.</t>
   </si>
   <si>
-    <t>Naphtha, synthetic</t>
-  </si>
-  <si>
     <t>Adapted from van der Giesen et al. 2014. LHV: 44.5 MJ/kg, Formula: C13H18, Density: 7551 kg/m3. Economic allocation between 3 other co-products. Allocation key for this co-product: 7%.</t>
   </si>
   <si>
@@ -282,33 +264,6 @@
   </si>
   <si>
     <t>hydrogen production, gaseous, 25 bar, from gasification of woody biomass in entrained flow gasifier, at gasification plant</t>
-  </si>
-  <si>
-    <t>Diesel production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation</t>
-  </si>
-  <si>
-    <t>Naphtha production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation</t>
-  </si>
-  <si>
-    <t>Kerosene production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation</t>
-  </si>
-  <si>
-    <t>Lubricating oil production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation</t>
-  </si>
-  <si>
-    <t>Kerosene production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, economic allocation</t>
-  </si>
-  <si>
-    <t>Diesel production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, economic allocation</t>
-  </si>
-  <si>
-    <t>Naphtha production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, economic allocation</t>
-  </si>
-  <si>
-    <t>Carbon monoxide, from RWGS, for Fischer Tropsch process, hydrogen from wood gasification</t>
-  </si>
-  <si>
-    <t>Syngas, RWGS, Production, for Fischer Tropsch process, hydrogen from wood gasification</t>
   </si>
   <si>
     <t>kerosene production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, economic allocation, at fuelling station</t>
@@ -338,6 +293,48 @@
   </si>
   <si>
     <t>hydrogen, gaseous, 25 bar</t>
+  </si>
+  <si>
+    <t>kerosene production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, economic allocation</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, economic allocation</t>
+  </si>
+  <si>
+    <t>diesel, synthetic</t>
+  </si>
+  <si>
+    <t>kerosene production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation</t>
+  </si>
+  <si>
+    <t>diesel production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation</t>
+  </si>
+  <si>
+    <t>syngas, RWGS, Production, for Fischer Tropsch process, hydrogen from wood gasification</t>
+  </si>
+  <si>
+    <t>syngas, RWGS, Production</t>
+  </si>
+  <si>
+    <t>naphtha production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, economic allocation</t>
+  </si>
+  <si>
+    <t>naphtha, synthetic</t>
+  </si>
+  <si>
+    <t>lubricating oil production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation</t>
+  </si>
+  <si>
+    <t>lubricating oil, synthetic</t>
+  </si>
+  <si>
+    <t>naphtha production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation</t>
+  </si>
+  <si>
+    <t>carbon monoxide, from RWGS, for Fischer Tropsch process, hydrogen from wood gasification</t>
+  </si>
+  <si>
+    <t>carbon monoxide, from RWGS</t>
   </si>
 </sst>
 </file>
@@ -758,8 +755,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K578"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G579" sqref="G579"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="G244" sqref="G244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -767,6 +764,7 @@
     <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -774,18 +772,18 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -796,7 +794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -804,12 +802,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -833,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -853,13 +851,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>9</v>
@@ -868,9 +866,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -888,15 +886,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="8">
         <v>1.00057</v>
@@ -908,15 +906,15 @@
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="8">
         <v>6.7000000000000002E-3</v>
@@ -925,58 +923,58 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B14" s="9">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B15" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B16" s="9">
         <v>1.04E-10</v>
@@ -988,95 +986,95 @@
         <v>5</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B17" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B18" s="9">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B19" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B20" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B21" s="8">
         <v>3.2599999999999997E-2</v>
@@ -1085,38 +1083,38 @@
         <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="B22" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B23" s="9">
         <f>(B12-1)*3.14</f>
@@ -1126,10 +1124,10 @@
         <v>6</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
@@ -1137,12 +1135,12 @@
       <c r="B24" s="13"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -1153,7 +1151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>1</v>
       </c>
@@ -1161,12 +1159,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -1190,7 +1188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>11</v>
       </c>
@@ -1210,13 +1208,13 @@
         <v>3</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>9</v>
@@ -1225,9 +1223,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B33" s="8">
         <v>1</v>
@@ -1245,15 +1243,15 @@
         <v>100</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" s="8">
         <v>1.00057</v>
@@ -1265,15 +1263,15 @@
         <v>6</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="8">
         <v>6.7000000000000002E-3</v>
@@ -1282,58 +1280,58 @@
         <v>8</v>
       </c>
       <c r="D35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B36" s="8">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B37" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B38" s="9">
         <v>2.5999999999999998E-10</v>
@@ -1345,95 +1343,95 @@
         <v>5</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B39" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B40" s="9">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B41" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B42" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B43" s="8">
         <v>3.2599999999999997E-2</v>
@@ -1442,38 +1440,38 @@
         <v>8</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="B44" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B45" s="9">
         <f>(B34-1)*3.14</f>
@@ -1483,10 +1481,10 @@
         <v>6</v>
       </c>
       <c r="E45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
@@ -1494,12 +1492,12 @@
       <c r="B46" s="13"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -1510,7 +1508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>1</v>
       </c>
@@ -1518,12 +1516,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -1547,7 +1545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>11</v>
       </c>
@@ -1567,13 +1565,13 @@
         <v>3</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J54" s="8" t="s">
         <v>9</v>
@@ -1582,9 +1580,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B55" s="8">
         <v>1</v>
@@ -1602,15 +1600,15 @@
         <v>100</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B56" s="8">
         <v>1.00057</v>
@@ -1622,15 +1620,15 @@
         <v>6</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B57" s="8">
         <v>6.7000000000000002E-3</v>
@@ -1639,58 +1637,58 @@
         <v>8</v>
       </c>
       <c r="D57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F57" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B58" s="9">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B59" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B60" s="9">
         <v>1.04E-10</v>
@@ -1702,95 +1700,95 @@
         <v>5</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B61" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B62" s="9">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B63" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B64" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B65" s="8">
         <v>3.2599999999999997E-2</v>
@@ -1799,38 +1797,38 @@
         <v>8</v>
       </c>
       <c r="D65" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="B66" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B67" s="9">
         <f>(B56-1)*3.14</f>
@@ -1840,10 +1838,10 @@
         <v>6</v>
       </c>
       <c r="E67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
@@ -1851,12 +1849,12 @@
       <c r="B68" s="13"/>
       <c r="G68" s="10"/>
     </row>
-    <row r="69" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -1867,7 +1865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>1</v>
       </c>
@@ -1875,12 +1873,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -1904,7 +1902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>11</v>
       </c>
@@ -1924,13 +1922,13 @@
         <v>3</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>9</v>
@@ -1939,9 +1937,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B77" s="8">
         <v>1</v>
@@ -1959,15 +1957,15 @@
         <v>100</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B78" s="8">
         <v>1.00057</v>
@@ -1979,15 +1977,15 @@
         <v>6</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B79" s="8">
         <v>6.7000000000000002E-3</v>
@@ -1996,58 +1994,58 @@
         <v>8</v>
       </c>
       <c r="D79" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F79" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K79" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B80" s="8">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D80" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K80" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B81" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B82" s="9">
         <v>2.5999999999999998E-10</v>
@@ -2059,95 +2057,95 @@
         <v>5</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B83" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B84" s="9">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B85" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B86" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B87" s="8">
         <v>3.2599999999999997E-2</v>
@@ -2156,38 +2154,38 @@
         <v>8</v>
       </c>
       <c r="D87" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K87" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="B88" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B89" s="9">
         <f>(B78-1)*3.14</f>
@@ -2197,10 +2195,10 @@
         <v>6</v>
       </c>
       <c r="E89" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
@@ -2208,15 +2206,15 @@
       <c r="B90" s="13"/>
       <c r="G90" s="10"/>
     </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>1</v>
       </c>
@@ -2224,12 +2222,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -2261,15 +2259,15 @@
         <v>9</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
@@ -2277,7 +2275,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>11</v>
       </c>
@@ -2306,9 +2304,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B101" s="8">
         <v>1</v>
@@ -2323,16 +2321,16 @@
         <v>15</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>90</v>
       </c>
@@ -2346,83 +2344,83 @@
         <v>6</v>
       </c>
       <c r="F102" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B103" s="8">
         <f>3.64160231884058*0.06</f>
         <v>0.21849613913043478</v>
       </c>
       <c r="D103" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="F103" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="H103" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B104" s="8">
         <f>0.00107549913043478*0.06</f>
         <v>6.45299478260868E-5</v>
       </c>
       <c r="D104" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E104" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F104" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H104" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H104" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B105" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B106" s="9">
         <f>0.0872420618556701*0.06</f>
@@ -2432,21 +2430,21 @@
         <v>8</v>
       </c>
       <c r="D106" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F106" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" s="8" t="s">
+      <c r="H106" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H106" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B107" s="8">
         <v>2</v>
@@ -2455,25 +2453,25 @@
         <v>6</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F107" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H107" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H107" s="8" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="108" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>1</v>
       </c>
@@ -2481,12 +2479,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -2518,15 +2516,15 @@
         <v>9</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
@@ -2534,7 +2532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>11</v>
       </c>
@@ -2563,9 +2561,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B119" s="8">
         <v>1</v>
@@ -2580,13 +2578,13 @@
         <v>15</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
         <v>90</v>
       </c>
@@ -2600,83 +2598,83 @@
         <v>6</v>
       </c>
       <c r="F120" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H120" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B121" s="8">
         <f>3.64160231884058*0.07</f>
         <v>0.25491216231884062</v>
       </c>
       <c r="D121" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="F121" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F121" s="8" t="s">
+      <c r="H121" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H121" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="122" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B122" s="8">
         <f>0.00107549913043478*0.07</f>
         <v>7.5284939130434612E-5</v>
       </c>
       <c r="D122" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E122" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F122" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H122" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H122" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B123" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B124" s="9">
         <f>0.0872420618556701*0.07</f>
@@ -2686,21 +2684,21 @@
         <v>8</v>
       </c>
       <c r="D124" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F124" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" s="8" t="s">
+      <c r="H124" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H124" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B125" s="8">
         <v>2.48</v>
@@ -2709,25 +2707,25 @@
         <v>6</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F125" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H125" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H125" s="8" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="126" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="127" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>1</v>
       </c>
@@ -2735,12 +2733,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -2772,15 +2770,15 @@
         <v>9</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
@@ -2788,7 +2786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>11</v>
       </c>
@@ -2817,9 +2815,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B137" s="8">
         <v>1</v>
@@ -2834,16 +2832,16 @@
         <v>15</v>
       </c>
       <c r="G137" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H137" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="H137" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="I137" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>90</v>
       </c>
@@ -2857,83 +2855,83 @@
         <v>6</v>
       </c>
       <c r="F138" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H138" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H138" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B139" s="8">
         <f>3.64160231884058*0.16</f>
         <v>0.58265637101449286</v>
       </c>
       <c r="D139" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="F139" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F139" s="8" t="s">
+      <c r="H139" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H139" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B140" s="8">
         <f>0.00107549913043478*0.16</f>
         <v>1.7207986086956482E-4</v>
       </c>
       <c r="D140" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E140" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F140" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H140" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H140" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B141" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B142" s="9">
         <f>0.0872420618556701*0.16</f>
@@ -2943,21 +2941,21 @@
         <v>8</v>
       </c>
       <c r="D142" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F142" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" s="8" t="s">
+      <c r="H142" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H142" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B143" s="8">
         <v>1.82</v>
@@ -2966,25 +2964,25 @@
         <v>6</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F143" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H143" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H143" s="8" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="144" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="145" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
         <v>1</v>
       </c>
@@ -2992,12 +2990,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
     </row>
     <row r="148" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -3029,15 +3027,15 @@
         <v>9</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
@@ -3045,7 +3043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>11</v>
       </c>
@@ -3074,9 +3072,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B155" s="8">
         <v>1</v>
@@ -3091,16 +3089,16 @@
         <v>15</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I155" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
         <v>90</v>
       </c>
@@ -3114,83 +3112,83 @@
         <v>6</v>
       </c>
       <c r="F156" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G156" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H156" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B157" s="8">
         <f>3.64160231884058*0.21</f>
         <v>0.76473648695652174</v>
       </c>
       <c r="D157" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="F157" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F157" s="8" t="s">
+      <c r="H157" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H157" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B158" s="8">
         <f>0.00107549913043478*0.21</f>
         <v>2.2585481739130381E-4</v>
       </c>
       <c r="D158" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E158" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E158" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F158" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H158" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H158" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B159" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B160" s="9">
         <f>0.0872420618556701*0.21</f>
@@ -3200,21 +3198,21 @@
         <v>8</v>
       </c>
       <c r="D160" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G160" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F160" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" s="8" t="s">
+      <c r="H160" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H160" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B161" s="8">
         <v>0.13</v>
@@ -3223,27 +3221,27 @@
         <v>6</v>
       </c>
       <c r="E161" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F161" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F161" s="8" t="s">
+      <c r="H161" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H161" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" s="9"/>
     </row>
-    <row r="163" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
         <v>1</v>
       </c>
@@ -3251,12 +3249,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -3288,15 +3286,15 @@
         <v>9</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
@@ -3304,7 +3302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
         <v>11</v>
       </c>
@@ -3333,9 +3331,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B173" s="8">
         <v>1</v>
@@ -3350,16 +3348,16 @@
         <v>15</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I173" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
         <v>90</v>
       </c>
@@ -3373,83 +3371,83 @@
         <v>6</v>
       </c>
       <c r="F174" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G174" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H174" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B175" s="8">
         <f>3.64160231884058*0.18</f>
         <v>0.65548841739130437</v>
       </c>
       <c r="D175" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E175" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E175" s="8" t="s">
+      <c r="F175" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F175" s="8" t="s">
+      <c r="H175" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H175" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="176" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B176" s="8">
         <f>0.00107549913043478*0.18</f>
         <v>1.9358984347826041E-4</v>
       </c>
       <c r="D176" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E176" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E176" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F176" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H176" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H176" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B177" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H177" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B178" s="9">
         <f>0.0872420618556701*0.18</f>
@@ -3459,21 +3457,21 @@
         <v>8</v>
       </c>
       <c r="D178" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G178" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F178" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" s="8" t="s">
+      <c r="H178" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H178" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B179" s="8">
         <v>0.22</v>
@@ -3482,25 +3480,25 @@
         <v>6</v>
       </c>
       <c r="E179" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F179" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F179" s="8" t="s">
+      <c r="H179" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H179" s="8" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="180" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="181" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
         <v>1</v>
       </c>
@@ -3508,12 +3506,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -3545,15 +3543,15 @@
         <v>9</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="188" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="189" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
@@ -3561,7 +3559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
         <v>11</v>
       </c>
@@ -3590,9 +3588,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B191" s="8">
         <v>1</v>
@@ -3607,13 +3605,13 @@
         <v>15</v>
       </c>
       <c r="G191" s="8" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="H191" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
         <v>90</v>
       </c>
@@ -3627,83 +3625,83 @@
         <v>6</v>
       </c>
       <c r="F192" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H192" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G192" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H192" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B193" s="8">
         <f>3.64160231884058*0.24</f>
         <v>0.87398455652173912</v>
       </c>
       <c r="D193" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E193" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E193" s="8" t="s">
+      <c r="F193" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F193" s="8" t="s">
+      <c r="H193" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H193" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="194" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B194" s="8">
         <f>0.00107549913043478*0.24</f>
         <v>2.581197913043472E-4</v>
       </c>
       <c r="D194" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E194" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E194" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F194" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H194" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H194" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B195" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D195" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H195" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B196" s="9">
         <f>0.0872420618556701*0.24</f>
@@ -3713,21 +3711,21 @@
         <v>8</v>
       </c>
       <c r="D196" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G196" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F196" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" s="8" t="s">
+      <c r="H196" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H196" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B197" s="8">
         <v>0.19</v>
@@ -3736,25 +3734,25 @@
         <v>6</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F197" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H197" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H197" s="8" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="198" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
         <v>1</v>
       </c>
@@ -3762,12 +3760,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="202" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -3799,15 +3797,15 @@
         <v>9</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="206" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="207" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
@@ -3815,7 +3813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
         <v>11</v>
       </c>
@@ -3844,9 +3842,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B209" s="8">
         <v>1</v>
@@ -3861,16 +3859,16 @@
         <v>15</v>
       </c>
       <c r="G209" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H209" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="H209" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="I209" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
         <v>90</v>
       </c>
@@ -3884,84 +3882,84 @@
         <v>6</v>
       </c>
       <c r="F210" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G210" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H210" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G210" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H210" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B211" s="8">
         <f>3.64160231884058*0.37</f>
         <v>1.3473928579710146</v>
       </c>
       <c r="D211" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E211" s="8" t="s">
+      <c r="F211" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F211" s="8" t="s">
+      <c r="H211" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H211" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="212" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B212" s="8">
         <f>0.00107549913043478*0.37</f>
         <v>3.9793467826086865E-4</v>
       </c>
       <c r="D212" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E212" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E212" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F212" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H212" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H212" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B213" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D213" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F213" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G213" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H213" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J213" s="9"/>
     </row>
-    <row r="214" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B214" s="9">
         <f>0.0872420618556701*0.37</f>
@@ -3971,21 +3969,21 @@
         <v>8</v>
       </c>
       <c r="D214" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G214" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F214" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" s="8" t="s">
+      <c r="H214" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H214" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B215" s="8">
         <v>0.06</v>
@@ -3994,17 +3992,17 @@
         <v>6</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F215" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H215" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H215" s="8" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="216" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="1:10" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>0</v>
       </c>
@@ -4012,7 +4010,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="218" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
         <v>1</v>
       </c>
@@ -4020,12 +4018,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
     </row>
     <row r="220" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -4057,15 +4055,15 @@
         <v>9</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="224" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="225" spans="1:7" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
@@ -4073,7 +4071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>11</v>
       </c>
@@ -4096,9 +4094,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B227" s="8">
         <v>0.875</v>
@@ -4110,15 +4108,15 @@
         <v>6</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G227" s="8" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
     </row>
     <row r="228" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B228" s="8">
         <v>0.125</v>
@@ -4130,15 +4128,15 @@
         <v>6</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G228" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B229" s="8">
         <v>0.36599999999999999</v>
@@ -4147,34 +4145,34 @@
         <v>8</v>
       </c>
       <c r="D229" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G229" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="F229" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="230" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B230" s="8">
         <f>60*0.001/106.6</f>
         <v>5.6285178236397749E-4</v>
       </c>
       <c r="D230" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E230" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E230" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F230" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
         <v>90</v>
       </c>
@@ -4191,38 +4189,38 @@
         <v>15</v>
       </c>
       <c r="G231" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B232" s="11">
         <v>5.7100000000000004E-6</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D232" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="233" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="B233" s="11"/>
     </row>
-    <row r="234" spans="1:7" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
         <v>1</v>
       </c>
@@ -4230,12 +4228,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
     </row>
     <row r="237" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
@@ -4267,7 +4265,7 @@
         <v>9</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="241" spans="1:8" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
@@ -4275,7 +4273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="s">
         <v>11</v>
       </c>
@@ -4298,9 +4296,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B243" s="8">
         <v>1</v>
@@ -4315,12 +4313,12 @@
         <v>15</v>
       </c>
       <c r="G243" s="8" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
     </row>
     <row r="244" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B244" s="8">
         <v>7.0000000000000007E-2</v>
@@ -4332,15 +4330,15 @@
         <v>6</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G244" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B245" s="9">
         <v>1.9300000000000002E-9</v>
@@ -4352,15 +4350,15 @@
         <v>5</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G245" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B246" s="8">
         <v>-1.57</v>
@@ -4369,13 +4367,13 @@
         <v>6</v>
       </c>
       <c r="E246" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F246" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F246" s="8" t="s">
+      <c r="H246" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="H246" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
@@ -4941,7 +4939,40 @@
   <autoFilter ref="A1:K578" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
+        <filter val="Activity"/>
+        <filter val="Carbon dioxide, in air"/>
+        <filter val="Carbon dioxide, non-fossil"/>
+        <filter val="Carbon monoxide, from RWGS, for Fischer Tropsch process, hydrogen from wood gasification"/>
+        <filter val="Diesel production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, economic allocation"/>
+        <filter val="Diesel production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation"/>
+        <filter val="diesel production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, economic allocation, at fuelling station"/>
+        <filter val="diesel production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, energy allocation, at fuelling station"/>
+        <filter val="Fixed bed reactor for RWGS"/>
+        <filter val="Gas-to-liquid plant construction"/>
+        <filter val="Heat, waste"/>
         <filter val="hydrogen production, gaseous, 25 bar, from gasification of woody biomass in entrained flow gasifier, at gasification plant"/>
+        <filter val="infrastructure construction, for regional distribution of oil product"/>
+        <filter val="Kerosene production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, economic allocation"/>
+        <filter val="Kerosene production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation"/>
+        <filter val="kerosene production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, economic allocation, at fuelling station"/>
+        <filter val="kerosene production, synthetic, from Fischer Tropsch process, hydrogen from wood gasification, energy allocation, at fuelling station"/>
+        <filter val="Lubricating oil production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation"/>
+        <filter val="market for fly ash and scrubber sludge"/>
+        <filter val="market for heat, central or small-scale, other than natural gas"/>
+        <filter val="market for municipal solid waste"/>
+        <filter val="market for rainwater mineral oil storage"/>
+        <filter val="market for tap water"/>
+        <filter val="market for transport, freight train"/>
+        <filter val="market for transport, freight, lorry, unspecified"/>
+        <filter val="market group for electricity, low voltage"/>
+        <filter val="name"/>
+        <filter val="Naphtha production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, economic allocation"/>
+        <filter val="Naphtha production, synthetic, Fischer Tropsch process, hydrogen from wood gasification, energy allocation"/>
+        <filter val="production amount"/>
+        <filter val="reference product"/>
+        <filter val="RWGS tank construction"/>
+        <filter val="Syngas, RWGS, Production, for Fischer Tropsch process, hydrogen from wood gasification"/>
+        <filter val="treatment of wastewater, average, capacity 1E9l/year"/>
       </filters>
     </filterColumn>
   </autoFilter>
